--- a/5_analisis_de_resultados/DB/testing_results.xlsx
+++ b/5_analisis_de_resultados/DB/testing_results.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11567</v>
+        <v>11569</v>
       </c>
       <c r="E2" t="n">
         <v>5416</v>
@@ -526,25 +526,25 @@
         <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>99.9411522391573</v>
+        <v>99.95292179132585</v>
       </c>
       <c r="I2" t="n">
-        <v>99.94815518880152</v>
+        <v>99.94816414686825</v>
       </c>
       <c r="J2" t="n">
-        <v>99.96543081842538</v>
+        <v>99.98271540921269</v>
       </c>
       <c r="K2" t="n">
-        <v>99.95679225717249</v>
+        <v>99.96543679253435</v>
       </c>
       <c r="L2" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9999993838769603</v>
+        <v>0.9999994361934805</v>
       </c>
     </row>
     <row r="3">
@@ -567,31 +567,31 @@
         <v>5416</v>
       </c>
       <c r="E3" t="n">
-        <v>11567</v>
+        <v>11569</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>99.9411522391573</v>
+        <v>99.95292179132585</v>
       </c>
       <c r="I3" t="n">
-        <v>99.92619926199262</v>
+        <v>99.96308600959763</v>
       </c>
       <c r="J3" t="n">
         <v>99.88933972703799</v>
       </c>
       <c r="K3" t="n">
-        <v>99.90776609481645</v>
+        <v>99.92619926199261</v>
       </c>
       <c r="L3" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9999993838769603</v>
+        <v>0.9999994361934805</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>94.11764705882352</v>
       </c>
       <c r="L4" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -705,34 +705,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6" t="n">
-        <v>16894</v>
+        <v>16893</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>99.95880656741011</v>
       </c>
       <c r="I6" t="n">
-        <v>94.84536082474226</v>
+        <v>93.93939393939394</v>
       </c>
       <c r="J6" t="n">
-        <v>97.87234042553192</v>
+        <v>98.93617021276596</v>
       </c>
       <c r="K6" t="n">
-        <v>96.33507853403141</v>
+        <v>96.37305699481867</v>
       </c>
       <c r="L6" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9959829332497674</v>
+        <v>0.9953370348113931</v>
       </c>
     </row>
     <row r="7">
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E7" t="n">
-        <v>15011</v>
+        <v>15012</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>99.95292179132585</v>
       </c>
       <c r="I7" t="n">
-        <v>99.9493670886076</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>99.64664310954063</v>
+        <v>99.59616355376073</v>
       </c>
       <c r="K7" t="n">
-        <v>99.79777553083923</v>
+        <v>99.79767324228629</v>
       </c>
       <c r="L7" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9997502059905342</v>
+        <v>0.9997493689234366</v>
       </c>
     </row>
     <row r="8">
@@ -823,7 +823,7 @@
         <v>100</v>
       </c>
       <c r="L8" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
         <v>98</v>
       </c>
       <c r="L9" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9981004606454741</v>
+        <v>0.9991998399359744</v>
       </c>
     </row>
     <row r="10">
@@ -917,7 +917,7 @@
         <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L12" t="n">
-        <v>94.38789999694563</v>
+        <v>47.1506930000487</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>99.93086163685075</v>
       </c>
       <c r="L13" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M13" t="n">
         <v>0.9995714333683785</v>
@@ -1105,7 +1105,7 @@
         <v>99.85245296938399</v>
       </c>
       <c r="L14" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M14" t="n">
         <v>0.9995714333683785</v>
@@ -1152,7 +1152,7 @@
         <v>90</v>
       </c>
       <c r="L15" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M15" t="n">
         <v>0.9090909090909092</v>
@@ -1199,7 +1199,7 @@
         <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>90.52631578947368</v>
       </c>
       <c r="L17" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M17" t="n">
         <v>0.9037117094198894</v>
@@ -1293,7 +1293,7 @@
         <v>99.57038160222392</v>
       </c>
       <c r="L18" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M18" t="n">
         <v>0.9960290684932581</v>
@@ -1340,7 +1340,7 @@
         <v>91.30434782608695</v>
       </c>
       <c r="L19" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M19" t="n">
         <v>0.9408188975646319</v>
@@ -1387,7 +1387,7 @@
         <v>96</v>
       </c>
       <c r="L20" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M20" t="n">
         <v>0.9600588477608427</v>
@@ -1434,7 +1434,7 @@
         <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>100</v>
       </c>
       <c r="L22" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L23" t="n">
-        <v>8.6007000063546</v>
+        <v>4.385492999972485</v>
       </c>
       <c r="M23" t="n">
         <v>0.9865159103669079</v>
@@ -1551,34 +1551,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11412</v>
+        <v>11429</v>
       </c>
       <c r="E24" t="n">
-        <v>5408</v>
+        <v>5405</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="H24" t="n">
-        <v>98.98193373742129</v>
+        <v>99.06432060260107</v>
       </c>
       <c r="I24" t="n">
-        <v>99.87747243129704</v>
+        <v>99.85147649834003</v>
       </c>
       <c r="J24" t="n">
-        <v>98.6258750324086</v>
+        <v>98.77279405410077</v>
       </c>
       <c r="K24" t="n">
-        <v>99.24772796451713</v>
+        <v>99.30920623886691</v>
       </c>
       <c r="L24" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9993695951018725</v>
+        <v>0.9993167228337418</v>
       </c>
     </row>
     <row r="25">
@@ -1598,34 +1598,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5408</v>
+        <v>5405</v>
       </c>
       <c r="E25" t="n">
-        <v>11412</v>
+        <v>11429</v>
       </c>
       <c r="F25" t="n">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G25" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
-        <v>98.98193373742129</v>
+        <v>99.06432060260107</v>
       </c>
       <c r="I25" t="n">
-        <v>97.14388359978444</v>
+        <v>97.44005768884082</v>
       </c>
       <c r="J25" t="n">
-        <v>99.74179269642198</v>
+        <v>99.68646255994098</v>
       </c>
       <c r="K25" t="n">
-        <v>98.42569842569841</v>
+        <v>98.55046038836723</v>
       </c>
       <c r="L25" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9993695951018725</v>
+        <v>0.9993167228337418</v>
       </c>
     </row>
     <row r="26">
@@ -1645,34 +1645,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>16975</v>
+        <v>16978</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>99.9411522391573</v>
+        <v>99.96469134349438</v>
       </c>
       <c r="I26" t="n">
-        <v>47.05882352941176</v>
+        <v>60</v>
       </c>
       <c r="J26" t="n">
-        <v>88.88888888888889</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>61.53846153846153</v>
+        <v>74.99999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6902090465815955</v>
+        <v>0.7183581850248516</v>
       </c>
     </row>
     <row r="27">
@@ -1695,28 +1695,28 @@
         <v>1189</v>
       </c>
       <c r="E27" t="n">
-        <v>15804</v>
+        <v>15803</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>99.99411522391573</v>
       </c>
       <c r="I27" t="n">
-        <v>100</v>
+        <v>99.91596638655463</v>
       </c>
       <c r="J27" t="n">
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>99.95796553173602</v>
       </c>
       <c r="L27" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -1739,34 +1739,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>16879</v>
+        <v>16883</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>99.86465015006179</v>
+        <v>99.88230447831459</v>
       </c>
       <c r="I28" t="n">
-        <v>81.98198198198197</v>
+        <v>84.90566037735849</v>
       </c>
       <c r="J28" t="n">
-        <v>96.80851063829788</v>
+        <v>95.74468085106383</v>
       </c>
       <c r="K28" t="n">
-        <v>88.78048780487804</v>
+        <v>90</v>
       </c>
       <c r="L28" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9520621115153619</v>
+        <v>0.9561150594986655</v>
       </c>
     </row>
     <row r="29">
@@ -1786,34 +1786,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="E29" t="n">
-        <v>15011</v>
+        <v>15010</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>99.89995880656741</v>
+        <v>99.90584358265167</v>
       </c>
       <c r="I29" t="n">
-        <v>99.94913530010173</v>
+        <v>99.89842559674962</v>
       </c>
       <c r="J29" t="n">
-        <v>99.19232710752145</v>
+        <v>99.29328621908127</v>
       </c>
       <c r="K29" t="n">
-        <v>99.56929313402584</v>
+        <v>99.59493670886074</v>
       </c>
       <c r="L29" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9995116419995768</v>
+        <v>0.9998075119669365</v>
       </c>
     </row>
     <row r="30">
@@ -1833,31 +1833,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" t="n">
-        <v>16971</v>
+        <v>16968</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>99.99411522391573</v>
+        <v>99.98234567174718</v>
       </c>
       <c r="I30" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J30" t="n">
-        <v>95.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>97.67441860465117</v>
+        <v>93.61702127659575</v>
       </c>
       <c r="L30" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -1883,31 +1883,31 @@
         <v>47</v>
       </c>
       <c r="E31" t="n">
-        <v>16927</v>
+        <v>16931</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>99.88818925439887</v>
+        <v>99.91172835873596</v>
       </c>
       <c r="I31" t="n">
-        <v>74.60317460317461</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="J31" t="n">
         <v>94</v>
       </c>
       <c r="K31" t="n">
-        <v>83.1858407079646</v>
+        <v>86.23853211009174</v>
       </c>
       <c r="L31" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9141592027350584</v>
+        <v>0.8980980145666662</v>
       </c>
     </row>
     <row r="32">
@@ -1951,7 +1951,7 @@
         <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
@@ -1974,34 +1974,34 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="E33" t="n">
-        <v>14875</v>
+        <v>14888</v>
       </c>
       <c r="F33" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
-        <v>99.2173247807921</v>
+        <v>99.26440298946625</v>
       </c>
       <c r="I33" t="n">
-        <v>93.94226218646475</v>
+        <v>94.51073985680191</v>
       </c>
       <c r="J33" t="n">
-        <v>99.74874371859298</v>
+        <v>99.49748743718592</v>
       </c>
       <c r="K33" t="n">
-        <v>96.75846941262492</v>
+        <v>96.94002447980415</v>
       </c>
       <c r="L33" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M33" t="n">
-        <v>0.9654134604489404</v>
+        <v>0.9644474119235941</v>
       </c>
     </row>
     <row r="34">
@@ -2045,7 +2045,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L34" t="n">
-        <v>22.61490000819322</v>
+        <v>9.976155999993352</v>
       </c>
       <c r="M34" t="n">
         <v>0.9999999999999998</v>
@@ -2092,7 +2092,7 @@
         <v>99.85294117647059</v>
       </c>
       <c r="L35" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M35" t="n">
         <v>0.9995476946186826</v>
@@ -2139,7 +2139,7 @@
         <v>99.68709736793667</v>
       </c>
       <c r="L36" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M36" t="n">
         <v>0.9995476946186826</v>
@@ -2186,7 +2186,7 @@
         <v>78.26086956521739</v>
       </c>
       <c r="L37" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M37" t="n">
         <v>0.8162393162393161</v>
@@ -2233,7 +2233,7 @@
         <v>99.91589571068124</v>
       </c>
       <c r="L38" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M38" t="n">
         <v>0.9996085487572535</v>
@@ -2280,7 +2280,7 @@
         <v>85.41666666666667</v>
       </c>
       <c r="L39" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M39" t="n">
         <v>0.8786848804516963</v>
@@ -2327,7 +2327,7 @@
         <v>99.64717741935483</v>
       </c>
       <c r="L40" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M40" t="n">
         <v>0.9973292847705989</v>
@@ -2374,7 +2374,7 @@
         <v>82.35294117647059</v>
       </c>
       <c r="L41" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M41" t="n">
         <v>0.8931260147895123</v>
@@ -2421,7 +2421,7 @@
         <v>96</v>
       </c>
       <c r="L42" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M42" t="n">
         <v>0.9775133932153881</v>
@@ -2468,7 +2468,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L43" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M43" t="n">
         <v>0.9901960784313726</v>
@@ -2515,7 +2515,7 @@
         <v>99.94972347913524</v>
       </c>
       <c r="L44" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M44" t="n">
         <v>0.9995563351980287</v>
@@ -2562,7 +2562,7 @@
         <v>98.66666666666666</v>
       </c>
       <c r="L45" t="n">
-        <v>438.3543000003556</v>
+        <v>280.6573829998342</v>
       </c>
       <c r="M45" t="n">
         <v>0.986842105263158</v>
@@ -2588,31 +2588,31 @@
         <v>11566</v>
       </c>
       <c r="E46" t="n">
-        <v>5415</v>
+        <v>5414</v>
       </c>
       <c r="F46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
         <v>5</v>
       </c>
       <c r="H46" t="n">
-        <v>99.92938268698876</v>
+        <v>99.92349791090449</v>
       </c>
       <c r="I46" t="n">
-        <v>99.9395143869351</v>
+        <v>99.93087955762917</v>
       </c>
       <c r="J46" t="n">
         <v>99.95678852303172</v>
       </c>
       <c r="K46" t="n">
-        <v>99.94815070860697</v>
+        <v>99.94383236120112</v>
       </c>
       <c r="L46" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M46" t="n">
-        <v>0.9999970876435217</v>
+        <v>0.9999975282858332</v>
       </c>
     </row>
     <row r="47">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5415</v>
+        <v>5414</v>
       </c>
       <c r="E47" t="n">
         <v>11566</v>
@@ -2641,25 +2641,25 @@
         <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H47" t="n">
-        <v>99.92938268698876</v>
+        <v>99.92349791090449</v>
       </c>
       <c r="I47" t="n">
-        <v>99.90774907749078</v>
+        <v>99.90773205388447</v>
       </c>
       <c r="J47" t="n">
-        <v>99.87089634821099</v>
+        <v>99.85245296938399</v>
       </c>
       <c r="K47" t="n">
-        <v>99.88931931377975</v>
+        <v>99.88008486302002</v>
       </c>
       <c r="L47" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9999970876435217</v>
+        <v>0.9999975282858332</v>
       </c>
     </row>
     <row r="48">
@@ -2703,7 +2703,7 @@
         <v>90</v>
       </c>
       <c r="L48" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>100</v>
       </c>
       <c r="L49" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
@@ -2773,34 +2773,34 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" t="n">
-        <v>16890</v>
+        <v>16892</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
         <v>99.92349791090449</v>
       </c>
       <c r="I50" t="n">
-        <v>90.90909090909091</v>
+        <v>92.63157894736842</v>
       </c>
       <c r="J50" t="n">
-        <v>95.74468085106383</v>
+        <v>93.61702127659575</v>
       </c>
       <c r="K50" t="n">
-        <v>93.26424870466322</v>
+        <v>93.12169312169313</v>
       </c>
       <c r="L50" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9846344941196267</v>
+        <v>0.9854845122577727</v>
       </c>
     </row>
     <row r="51">
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="E51" t="n">
         <v>15011</v>
@@ -2829,25 +2829,25 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>99.9411522391573</v>
+        <v>99.95292179132585</v>
       </c>
       <c r="I51" t="n">
-        <v>99.94931576279778</v>
+        <v>99.9493670886076</v>
       </c>
       <c r="J51" t="n">
-        <v>99.54568399798082</v>
+        <v>99.64664310954063</v>
       </c>
       <c r="K51" t="n">
-        <v>99.74709155285787</v>
+        <v>99.79777553083923</v>
       </c>
       <c r="L51" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M51" t="n">
-        <v>0.9995430242670574</v>
+        <v>0.9998142789777822</v>
       </c>
     </row>
     <row r="52">
@@ -2891,7 +2891,7 @@
         <v>100</v>
       </c>
       <c r="L52" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -2938,10 +2938,10 @@
         <v>96.96969696969697</v>
       </c>
       <c r="L53" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M53" t="n">
-        <v>0.9844278565141515</v>
+        <v>0.9890145339235303</v>
       </c>
     </row>
     <row r="54">
@@ -2985,7 +2985,7 @@
         <v>100</v>
       </c>
       <c r="L54" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -3032,10 +3032,10 @@
         <v>99.94972347913524</v>
       </c>
       <c r="L55" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M55" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3079,7 +3079,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L56" t="n">
-        <v>564.4087999971816</v>
+        <v>342.4452169999768</v>
       </c>
       <c r="M56" t="n">
         <v>0.9999999999999998</v>
@@ -3126,10 +3126,10 @@
         <v>99.96543081842538</v>
       </c>
       <c r="L57" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M57" t="n">
-        <v>0.9999533623404107</v>
+        <v>0.9999533634283296</v>
       </c>
     </row>
     <row r="58">
@@ -3173,10 +3173,10 @@
         <v>99.92622648469199</v>
       </c>
       <c r="L58" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9999533623404107</v>
+        <v>0.9999533634283296</v>
       </c>
     </row>
     <row r="59">
@@ -3220,7 +3220,7 @@
         <v>100</v>
       </c>
       <c r="L59" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>100</v>
       </c>
       <c r="L60" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
@@ -3293,31 +3293,31 @@
         <v>92</v>
       </c>
       <c r="E61" t="n">
-        <v>16893</v>
+        <v>16895</v>
       </c>
       <c r="F61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>99.95292179132585</v>
+        <v>99.96469134349438</v>
       </c>
       <c r="I61" t="n">
-        <v>93.87755102040816</v>
+        <v>95.83333333333334</v>
       </c>
       <c r="J61" t="n">
         <v>97.87234042553192</v>
       </c>
       <c r="K61" t="n">
-        <v>95.83333333333333</v>
+        <v>96.84210526315789</v>
       </c>
       <c r="L61" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M61" t="n">
-        <v>0.9870120496449883</v>
+        <v>0.9878129591530352</v>
       </c>
     </row>
     <row r="62">
@@ -3337,34 +3337,34 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="E62" t="n">
-        <v>15012</v>
+        <v>15011</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>99.97057611957865</v>
+        <v>99.97646089566292</v>
       </c>
       <c r="I62" t="n">
-        <v>100</v>
+        <v>99.94946942900455</v>
       </c>
       <c r="J62" t="n">
-        <v>99.74760222110045</v>
+        <v>99.84856133266027</v>
       </c>
       <c r="K62" t="n">
-        <v>99.87364164771292</v>
+        <v>99.89898989898988</v>
       </c>
       <c r="L62" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M62" t="n">
-        <v>0.9999917680592341</v>
+        <v>0.9999907679334007</v>
       </c>
     </row>
     <row r="63">
@@ -3408,10 +3408,10 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L63" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M63" t="n">
-        <v>0.956470264679551</v>
+        <v>0.9534032582562608</v>
       </c>
     </row>
     <row r="64">
@@ -3455,7 +3455,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L64" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -3502,7 +3502,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L65" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
@@ -3549,7 +3549,7 @@
         <v>100</v>
       </c>
       <c r="L66" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
@@ -3596,10 +3596,10 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L67" t="n">
-        <v>91.8493000062881</v>
+        <v>48.24128300015218</v>
       </c>
       <c r="M67" t="n">
-        <v>0.9996443812233285</v>
+        <v>0.9992791511283687</v>
       </c>
     </row>
     <row r="68">
@@ -3643,7 +3643,7 @@
         <v>99.92219244402179</v>
       </c>
       <c r="L68" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M68" t="n">
         <v>0.999673130352923</v>
@@ -3690,7 +3690,7 @@
         <v>99.8341319572429</v>
       </c>
       <c r="L69" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M69" t="n">
         <v>0.999673130352923</v>
@@ -3737,7 +3737,7 @@
         <v>84.21052631578948</v>
       </c>
       <c r="L70" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M70" t="n">
         <v>0.8444738683248657</v>
@@ -3784,7 +3784,7 @@
         <v>100</v>
       </c>
       <c r="L71" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
@@ -3831,7 +3831,7 @@
         <v>95.87628865979381</v>
       </c>
       <c r="L72" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M72" t="n">
         <v>0.9775663322607948</v>
@@ -3878,7 +3878,7 @@
         <v>99.8989388580091</v>
       </c>
       <c r="L73" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M73" t="n">
         <v>0.9991081044060872</v>
@@ -3925,7 +3925,7 @@
         <v>86.95652173913044</v>
       </c>
       <c r="L74" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M74" t="n">
         <v>0.8601066946507949</v>
@@ -3972,7 +3972,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L75" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M75" t="n">
         <v>0.9807692307692308</v>
@@ -4019,7 +4019,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L76" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M76" t="n">
         <v>0.9901960784313726</v>
@@ -4066,7 +4066,7 @@
         <v>99.94977398292315</v>
       </c>
       <c r="L77" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M77" t="n">
         <v>0.9994979919678715</v>
@@ -4113,7 +4113,7 @@
         <v>97.22222222222221</v>
       </c>
       <c r="L78" t="n">
-        <v>8.836699998937547</v>
+        <v>4.474589999972522</v>
       </c>
       <c r="M78" t="n">
         <v>0.9730318207338157</v>
@@ -4136,34 +4136,34 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11405</v>
+        <v>11393</v>
       </c>
       <c r="E79" t="n">
-        <v>5415</v>
+        <v>5416</v>
       </c>
       <c r="F79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G79" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H79" t="n">
-        <v>98.98193373742129</v>
+        <v>98.91720120049432</v>
       </c>
       <c r="I79" t="n">
-        <v>99.93866105853488</v>
+        <v>99.94736380384244</v>
       </c>
       <c r="J79" t="n">
-        <v>98.56537896465302</v>
+        <v>98.46167141992913</v>
       </c>
       <c r="K79" t="n">
-        <v>99.24726972109819</v>
+        <v>99.19895515890292</v>
       </c>
       <c r="L79" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M79" t="n">
-        <v>0.9990066039871148</v>
+        <v>0.9992115729162551</v>
       </c>
     </row>
     <row r="80">
@@ -4183,34 +4183,34 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5415</v>
+        <v>5416</v>
       </c>
       <c r="E80" t="n">
-        <v>11405</v>
+        <v>11393</v>
       </c>
       <c r="F80" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H80" t="n">
-        <v>98.98193373742129</v>
+        <v>98.91720120049432</v>
       </c>
       <c r="I80" t="n">
-        <v>97.02562264827091</v>
+        <v>96.81801930639972</v>
       </c>
       <c r="J80" t="n">
-        <v>99.87089634821099</v>
+        <v>99.88933972703799</v>
       </c>
       <c r="K80" t="n">
-        <v>98.42770153594475</v>
+        <v>98.32970225127089</v>
       </c>
       <c r="L80" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M80" t="n">
-        <v>0.9990066039871148</v>
+        <v>0.9992115729162551</v>
       </c>
     </row>
     <row r="81">
@@ -4254,10 +4254,10 @@
         <v>84.21052631578948</v>
       </c>
       <c r="L81" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M81" t="n">
-        <v>0.8892035433003569</v>
+        <v>0.8915012524040548</v>
       </c>
     </row>
     <row r="82">
@@ -4301,10 +4301,10 @@
         <v>99.95796553173602</v>
       </c>
       <c r="L82" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0.9999886151494261</v>
       </c>
     </row>
     <row r="83">
@@ -4324,34 +4324,34 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E83" t="n">
-        <v>16885</v>
+        <v>16876</v>
       </c>
       <c r="F83" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>99.89995880656741</v>
+        <v>99.85288059789325</v>
       </c>
       <c r="I83" t="n">
-        <v>86.66666666666667</v>
+        <v>80</v>
       </c>
       <c r="J83" t="n">
-        <v>96.80851063829788</v>
+        <v>97.87234042553192</v>
       </c>
       <c r="K83" t="n">
-        <v>91.45728643216081</v>
+        <v>88.03827751196171</v>
       </c>
       <c r="L83" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M83" t="n">
-        <v>0.96366336498494</v>
+        <v>0.9500551069289643</v>
       </c>
     </row>
     <row r="84">
@@ -4371,34 +4371,34 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="E84" t="n">
-        <v>15006</v>
+        <v>15011</v>
       </c>
       <c r="F84" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H84" t="n">
-        <v>99.89407403048314</v>
+        <v>99.88230447831459</v>
       </c>
       <c r="I84" t="n">
-        <v>99.69620253164557</v>
+        <v>99.9490575649516</v>
       </c>
       <c r="J84" t="n">
-        <v>99.3942453306411</v>
+        <v>99.04088844018173</v>
       </c>
       <c r="K84" t="n">
-        <v>99.54499494438828</v>
+        <v>99.49290060851926</v>
       </c>
       <c r="L84" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M84" t="n">
-        <v>0.9999397661442585</v>
+        <v>0.9999130051743323</v>
       </c>
     </row>
     <row r="85">
@@ -4421,31 +4421,31 @@
         <v>21</v>
       </c>
       <c r="E85" t="n">
-        <v>16969</v>
+        <v>16966</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>99.98234567174718</v>
+        <v>99.96469134349438</v>
       </c>
       <c r="I85" t="n">
-        <v>91.30434782608695</v>
+        <v>80.76923076923077</v>
       </c>
       <c r="J85" t="n">
         <v>95.45454545454545</v>
       </c>
       <c r="K85" t="n">
-        <v>93.33333333333333</v>
+        <v>87.5</v>
       </c>
       <c r="L85" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M85" t="n">
-        <v>0.957271376248283</v>
+        <v>0.9568421581180486</v>
       </c>
     </row>
     <row r="86">
@@ -4468,31 +4468,31 @@
         <v>49</v>
       </c>
       <c r="E86" t="n">
-        <v>16917</v>
+        <v>16923</v>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>99.8411110457247</v>
+        <v>99.87641970223034</v>
       </c>
       <c r="I86" t="n">
-        <v>65.33333333333333</v>
+        <v>71.01449275362319</v>
       </c>
       <c r="J86" t="n">
         <v>98</v>
       </c>
       <c r="K86" t="n">
-        <v>78.40000000000001</v>
+        <v>82.35294117647059</v>
       </c>
       <c r="L86" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M86" t="n">
-        <v>0.9330897700909826</v>
+        <v>0.9043607897327217</v>
       </c>
     </row>
     <row r="87">
@@ -4536,10 +4536,10 @@
         <v>99.009900990099</v>
       </c>
       <c r="L87" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M87" t="n">
-        <v>0.9880060927242235</v>
+        <v>0.992469728896662</v>
       </c>
     </row>
     <row r="88">
@@ -4559,34 +4559,34 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="E88" t="n">
-        <v>14875</v>
+        <v>14861</v>
       </c>
       <c r="F88" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>99.22320955687636</v>
+        <v>99.15847701994939</v>
       </c>
       <c r="I88" t="n">
-        <v>93.94512771996216</v>
+        <v>93.33646175504458</v>
       </c>
       <c r="J88" t="n">
-        <v>99.79899497487436</v>
+        <v>99.94974874371859</v>
       </c>
       <c r="K88" t="n">
-        <v>96.78362573099413</v>
+        <v>96.52996845425868</v>
       </c>
       <c r="L88" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M88" t="n">
-        <v>0.9582915166704371</v>
+        <v>0.9582859181835233</v>
       </c>
     </row>
     <row r="89">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E89" t="n">
         <v>16956</v>
@@ -4615,22 +4615,22 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>100</v>
+        <v>99.99411522391573</v>
       </c>
       <c r="I89" t="n">
         <v>100</v>
       </c>
       <c r="J89" t="n">
-        <v>100</v>
+        <v>97.29729729729731</v>
       </c>
       <c r="K89" t="n">
-        <v>100</v>
+        <v>98.63013698630138</v>
       </c>
       <c r="L89" t="n">
-        <v>23.8660000031814</v>
+        <v>9.411910999915563</v>
       </c>
       <c r="M89" t="n">
         <v>0.9999999999999998</v>
@@ -4677,7 +4677,7 @@
         <v>99.88322304398599</v>
       </c>
       <c r="L90" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M90" t="n">
         <v>0.9997197575396087</v>
@@ -4724,7 +4724,7 @@
         <v>99.75149562816384</v>
       </c>
       <c r="L91" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M91" t="n">
         <v>0.9997197575396087</v>
@@ -4771,7 +4771,7 @@
         <v>85.71428571428571</v>
       </c>
       <c r="L92" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M92" t="n">
         <v>0.95</v>
@@ -4818,7 +4818,7 @@
         <v>99.91582491582491</v>
       </c>
       <c r="L93" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M93" t="n">
         <v>0.9996089024338276</v>
@@ -4865,7 +4865,7 @@
         <v>87.0967741935484</v>
       </c>
       <c r="L94" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M94" t="n">
         <v>0.9124479471504526</v>
@@ -4912,7 +4912,7 @@
         <v>99.52177196073497</v>
       </c>
       <c r="L95" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M95" t="n">
         <v>0.9974449184443482</v>
@@ -4959,7 +4959,7 @@
         <v>89.36170212765958</v>
       </c>
       <c r="L96" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M96" t="n">
         <v>0.9125925551935526</v>
@@ -5006,7 +5006,7 @@
         <v>94.33962264150945</v>
       </c>
       <c r="L97" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M97" t="n">
         <v>0.9716981132075472</v>
@@ -5053,7 +5053,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L98" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M98" t="n">
         <v>0.9901960784313726</v>
@@ -5100,7 +5100,7 @@
         <v>99.92464204973625</v>
       </c>
       <c r="L99" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M99" t="n">
         <v>0.9995265326661238</v>
@@ -5147,7 +5147,7 @@
         <v>100</v>
       </c>
       <c r="L100" t="n">
-        <v>448.6722000001464</v>
+        <v>268.0519079999613</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
@@ -5194,10 +5194,10 @@
         <v>99.95246121267125</v>
       </c>
       <c r="L101" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M101" t="n">
-        <v>0.9999930700188775</v>
+        <v>0.9999946327455953</v>
       </c>
     </row>
     <row r="102">
@@ -5241,10 +5241,10 @@
         <v>99.89858947174334</v>
       </c>
       <c r="L102" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M102" t="n">
-        <v>0.9999930700188775</v>
+        <v>0.9999946327455953</v>
       </c>
     </row>
     <row r="103">
@@ -5288,10 +5288,10 @@
         <v>88.88888888888889</v>
       </c>
       <c r="L103" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M103" t="n">
-        <v>0.9882716049382716</v>
+        <v>0.9882716049382718</v>
       </c>
     </row>
     <row r="104">
@@ -5335,7 +5335,7 @@
         <v>100</v>
       </c>
       <c r="L104" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E105" t="n">
         <v>16895</v>
@@ -5367,25 +5367,25 @@
         <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>99.96469134349438</v>
+        <v>99.97057611957865</v>
       </c>
       <c r="I105" t="n">
-        <v>95.83333333333334</v>
+        <v>95.87628865979381</v>
       </c>
       <c r="J105" t="n">
-        <v>97.87234042553192</v>
+        <v>98.93617021276596</v>
       </c>
       <c r="K105" t="n">
-        <v>96.84210526315789</v>
+        <v>97.38219895287958</v>
       </c>
       <c r="L105" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M105" t="n">
-        <v>0.9929286176366028</v>
+        <v>0.9906811116705292</v>
       </c>
     </row>
     <row r="106">
@@ -5405,34 +5405,34 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E106" t="n">
-        <v>15011</v>
+        <v>15012</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H106" t="n">
         <v>99.97646089566292</v>
       </c>
       <c r="I106" t="n">
-        <v>99.94946942900455</v>
+        <v>100</v>
       </c>
       <c r="J106" t="n">
-        <v>99.84856133266027</v>
+        <v>99.79808177688037</v>
       </c>
       <c r="K106" t="n">
-        <v>99.89898989898988</v>
+        <v>99.8989388580091</v>
       </c>
       <c r="L106" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M106" t="n">
-        <v>0.9999878613452194</v>
+        <v>0.9999883646079104</v>
       </c>
     </row>
     <row r="107">
@@ -5455,31 +5455,31 @@
         <v>21</v>
       </c>
       <c r="E107" t="n">
-        <v>16970</v>
+        <v>16969</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>99.98823044783146</v>
+        <v>99.98234567174718</v>
       </c>
       <c r="I107" t="n">
-        <v>95.45454545454545</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="J107" t="n">
         <v>95.45454545454545</v>
       </c>
       <c r="K107" t="n">
-        <v>95.45454545454545</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L107" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M107" t="n">
-        <v>0.9567894222196657</v>
+        <v>0.9544388823058476</v>
       </c>
     </row>
     <row r="108">
@@ -5523,7 +5523,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L108" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
@@ -5570,7 +5570,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L109" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>100</v>
       </c>
       <c r="L110" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
@@ -5664,7 +5664,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L111" t="n">
-        <v>573.7431000015931</v>
+        <v>330.4920029997902</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>11566</v>
+        <v>11567</v>
       </c>
       <c r="E112" t="n">
         <v>5418</v>
@@ -5696,25 +5696,25 @@
         <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
-        <v>99.94703701524156</v>
+        <v>99.95292179132585</v>
       </c>
       <c r="I112" t="n">
-        <v>99.96542783059637</v>
+        <v>99.96543081842538</v>
       </c>
       <c r="J112" t="n">
-        <v>99.95678852303172</v>
+        <v>99.96543081842538</v>
       </c>
       <c r="K112" t="n">
-        <v>99.96110799014735</v>
+        <v>99.96543081842538</v>
       </c>
       <c r="L112" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M112" t="n">
-        <v>0.9999988410537286</v>
+        <v>0.9999988333643862</v>
       </c>
     </row>
     <row r="113">
@@ -5737,31 +5737,31 @@
         <v>5418</v>
       </c>
       <c r="E113" t="n">
-        <v>11566</v>
+        <v>11567</v>
       </c>
       <c r="F113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
       </c>
       <c r="H113" t="n">
-        <v>99.94703701524156</v>
+        <v>99.95292179132585</v>
       </c>
       <c r="I113" t="n">
-        <v>99.90780011063987</v>
+        <v>99.92622648469199</v>
       </c>
       <c r="J113" t="n">
         <v>99.92622648469199</v>
       </c>
       <c r="K113" t="n">
-        <v>99.91701244813277</v>
+        <v>99.92622648469199</v>
       </c>
       <c r="L113" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M113" t="n">
-        <v>0.9999988410537286</v>
+        <v>0.9999988333643862</v>
       </c>
     </row>
     <row r="114">
@@ -5805,7 +5805,7 @@
         <v>100</v>
       </c>
       <c r="L114" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>100</v>
       </c>
       <c r="L115" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
@@ -5878,31 +5878,31 @@
         <v>91</v>
       </c>
       <c r="E116" t="n">
-        <v>16890</v>
+        <v>16891</v>
       </c>
       <c r="F116" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
       </c>
       <c r="H116" t="n">
-        <v>99.92938268698876</v>
+        <v>99.93526746307303</v>
       </c>
       <c r="I116" t="n">
-        <v>91</v>
+        <v>91.91919191919192</v>
       </c>
       <c r="J116" t="n">
         <v>96.80851063829788</v>
       </c>
       <c r="K116" t="n">
-        <v>93.81443298969072</v>
+        <v>94.30051813471503</v>
       </c>
       <c r="L116" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M116" t="n">
-        <v>0.9838145467185083</v>
+        <v>0.9829977335866661</v>
       </c>
     </row>
     <row r="117">
@@ -5946,10 +5946,10 @@
         <v>99.87370548118211</v>
       </c>
       <c r="L117" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M117" t="n">
-        <v>0.9999921256238696</v>
+        <v>0.9999923826870833</v>
       </c>
     </row>
     <row r="118">
@@ -5993,10 +5993,10 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L118" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M118" t="n">
-        <v>0.9703671328671328</v>
+        <v>0.9771679078497261</v>
       </c>
     </row>
     <row r="119">
@@ -6040,7 +6040,7 @@
         <v>100</v>
       </c>
       <c r="L119" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
@@ -6087,7 +6087,7 @@
         <v>100</v>
       </c>
       <c r="L120" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
@@ -6134,7 +6134,7 @@
         <v>100</v>
       </c>
       <c r="L121" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>100</v>
       </c>
       <c r="L122" t="n">
-        <v>90.78670000599232</v>
+        <v>48.24178099988785</v>
       </c>
       <c r="M122" t="n">
         <v>1</v>
@@ -6228,7 +6228,7 @@
         <v>99.91356210562709</v>
       </c>
       <c r="L123" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M123" t="n">
         <v>0.9995160179118234</v>
@@ -6275,7 +6275,7 @@
         <v>99.81563421828909</v>
       </c>
       <c r="L124" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M124" t="n">
         <v>0.9995160179118234</v>
@@ -6322,7 +6322,7 @@
         <v>100</v>
       </c>
       <c r="L125" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M125" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>100</v>
       </c>
       <c r="L126" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M126" t="n">
         <v>1</v>
@@ -6416,7 +6416,7 @@
         <v>89.69072164948454</v>
       </c>
       <c r="L127" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M127" t="n">
         <v>0.9037683248913405</v>
@@ -6463,7 +6463,7 @@
         <v>99.64610717896866</v>
       </c>
       <c r="L128" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M128" t="n">
         <v>0.9969789214098159</v>
@@ -6510,7 +6510,7 @@
         <v>93.33333333333333</v>
       </c>
       <c r="L129" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M129" t="n">
         <v>0.9409055767130958</v>
@@ -6557,7 +6557,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L130" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M130" t="n">
         <v>0.9807692307692308</v>
@@ -6604,7 +6604,7 @@
         <v>100</v>
       </c>
       <c r="L131" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M131" t="n">
         <v>1</v>
@@ -6651,7 +6651,7 @@
         <v>99.94974874371859</v>
       </c>
       <c r="L132" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M132" t="n">
         <v>0.9995269113176073</v>
@@ -6698,7 +6698,7 @@
         <v>98.66666666666666</v>
       </c>
       <c r="L133" t="n">
-        <v>8.314299993799068</v>
+        <v>4.371684999796344</v>
       </c>
       <c r="M133" t="n">
         <v>0.986842105263158</v>
@@ -6721,34 +6721,34 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>11413</v>
+        <v>11428</v>
       </c>
       <c r="E134" t="n">
-        <v>5415</v>
+        <v>5414</v>
       </c>
       <c r="F134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G134" t="n">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H134" t="n">
-        <v>99.02901194609545</v>
+        <v>99.11139881127524</v>
       </c>
       <c r="I134" t="n">
-        <v>99.93870402802102</v>
+        <v>99.93004547044421</v>
       </c>
       <c r="J134" t="n">
-        <v>98.63451732780226</v>
+        <v>98.76415175870711</v>
       </c>
       <c r="K134" t="n">
-        <v>99.28232786742637</v>
+        <v>99.34367801104011</v>
       </c>
       <c r="L134" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M134" t="n">
-        <v>0.9994688916429472</v>
+        <v>0.9992735373359382</v>
       </c>
     </row>
     <row r="135">
@@ -6768,34 +6768,34 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5415</v>
+        <v>5414</v>
       </c>
       <c r="E135" t="n">
-        <v>11413</v>
+        <v>11428</v>
       </c>
       <c r="F135" t="n">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H135" t="n">
-        <v>99.02901194609545</v>
+        <v>99.11139881127524</v>
       </c>
       <c r="I135" t="n">
-        <v>97.1649022070698</v>
+        <v>97.42666906604282</v>
       </c>
       <c r="J135" t="n">
-        <v>99.87089634821099</v>
+        <v>99.85245296938399</v>
       </c>
       <c r="K135" t="n">
-        <v>98.4993178717599</v>
+        <v>98.62464705346571</v>
       </c>
       <c r="L135" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M135" t="n">
-        <v>0.9994688916429472</v>
+        <v>0.9992735373359382</v>
       </c>
     </row>
     <row r="136">
@@ -6815,34 +6815,34 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136" t="n">
-        <v>16978</v>
+        <v>16982</v>
       </c>
       <c r="F136" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>99.96469134349438</v>
+        <v>99.98234567174718</v>
       </c>
       <c r="I136" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J136" t="n">
-        <v>100</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="K136" t="n">
-        <v>74.99999999999999</v>
+        <v>84.21052631578948</v>
       </c>
       <c r="L136" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M136" t="n">
-        <v>0.9335938752605419</v>
+        <v>0.8902973952888315</v>
       </c>
     </row>
     <row r="137">
@@ -6865,31 +6865,31 @@
         <v>1187</v>
       </c>
       <c r="E137" t="n">
-        <v>15804</v>
+        <v>15803</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
       </c>
       <c r="H137" t="n">
-        <v>99.98823044783146</v>
+        <v>99.98234567174718</v>
       </c>
       <c r="I137" t="n">
-        <v>100</v>
+        <v>99.91582491582491</v>
       </c>
       <c r="J137" t="n">
         <v>99.8317914213625</v>
       </c>
       <c r="K137" t="n">
-        <v>99.91582491582491</v>
+        <v>99.87379049221707</v>
       </c>
       <c r="L137" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M137" t="n">
-        <v>0.9999860585456573</v>
+        <v>0.999997879425093</v>
       </c>
     </row>
     <row r="138">
@@ -6909,34 +6909,34 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E138" t="n">
-        <v>16877</v>
+        <v>16868</v>
       </c>
       <c r="F138" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G138" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H138" t="n">
-        <v>99.8234567174719</v>
+        <v>99.7646089566292</v>
       </c>
       <c r="I138" t="n">
-        <v>79.62962962962963</v>
+        <v>73.27586206896551</v>
       </c>
       <c r="J138" t="n">
-        <v>91.48936170212765</v>
+        <v>90.42553191489363</v>
       </c>
       <c r="K138" t="n">
-        <v>85.14851485148516</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L138" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M138" t="n">
-        <v>0.9489703001387199</v>
+        <v>0.9462273580844497</v>
       </c>
     </row>
     <row r="139">
@@ -6956,34 +6956,34 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1970</v>
+        <v>1962</v>
       </c>
       <c r="E139" t="n">
-        <v>15003</v>
+        <v>15004</v>
       </c>
       <c r="F139" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G139" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H139" t="n">
-        <v>99.88230447831459</v>
+        <v>99.8411110457247</v>
       </c>
       <c r="I139" t="n">
-        <v>99.54522486104092</v>
+        <v>99.59390862944163</v>
       </c>
       <c r="J139" t="n">
-        <v>99.444724886421</v>
+        <v>99.04088844018173</v>
       </c>
       <c r="K139" t="n">
-        <v>99.49494949494951</v>
+        <v>99.31662870159454</v>
       </c>
       <c r="L139" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M139" t="n">
-        <v>0.9999089814065982</v>
+        <v>0.9999101414686149</v>
       </c>
     </row>
     <row r="140">
@@ -7006,28 +7006,28 @@
         <v>22</v>
       </c>
       <c r="E140" t="n">
-        <v>16970</v>
+        <v>16968</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>99.99411522391573</v>
+        <v>99.98234567174718</v>
       </c>
       <c r="I140" t="n">
-        <v>95.65217391304348</v>
+        <v>88</v>
       </c>
       <c r="J140" t="n">
         <v>100</v>
       </c>
       <c r="K140" t="n">
-        <v>97.77777777777777</v>
+        <v>93.61702127659575</v>
       </c>
       <c r="L140" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M140" t="n">
         <v>1</v>
@@ -7053,31 +7053,31 @@
         <v>49</v>
       </c>
       <c r="E141" t="n">
-        <v>16928</v>
+        <v>16931</v>
       </c>
       <c r="F141" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>99.90584358265167</v>
+        <v>99.92349791090449</v>
       </c>
       <c r="I141" t="n">
-        <v>76.5625</v>
+        <v>80.32786885245902</v>
       </c>
       <c r="J141" t="n">
         <v>98</v>
       </c>
       <c r="K141" t="n">
-        <v>85.96491228070174</v>
+        <v>88.2882882882883</v>
       </c>
       <c r="L141" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M141" t="n">
-        <v>0.9301438302692157</v>
+        <v>0.9388555802948403</v>
       </c>
     </row>
     <row r="142">
@@ -7100,28 +7100,28 @@
         <v>50</v>
       </c>
       <c r="E142" t="n">
-        <v>16942</v>
+        <v>16943</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>99.99411522391573</v>
+        <v>100</v>
       </c>
       <c r="I142" t="n">
-        <v>98.0392156862745</v>
+        <v>100</v>
       </c>
       <c r="J142" t="n">
         <v>100</v>
       </c>
       <c r="K142" t="n">
-        <v>99.009900990099</v>
+        <v>100</v>
       </c>
       <c r="L142" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M142" t="n">
         <v>1</v>
@@ -7147,31 +7147,31 @@
         <v>1989</v>
       </c>
       <c r="E143" t="n">
-        <v>14891</v>
+        <v>14895</v>
       </c>
       <c r="F143" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>99.33502030247749</v>
+        <v>99.35855940681458</v>
       </c>
       <c r="I143" t="n">
-        <v>94.66920514040933</v>
+        <v>94.84978540772532</v>
       </c>
       <c r="J143" t="n">
         <v>99.94974874371859</v>
       </c>
       <c r="K143" t="n">
-        <v>97.23783915912982</v>
+        <v>97.33300709566919</v>
       </c>
       <c r="L143" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M143" t="n">
-        <v>0.9702170018296823</v>
+        <v>0.9712510306875469</v>
       </c>
     </row>
     <row r="144">
@@ -7194,28 +7194,28 @@
         <v>37</v>
       </c>
       <c r="E144" t="n">
-        <v>16954</v>
+        <v>16956</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>99.98823044783146</v>
+        <v>100</v>
       </c>
       <c r="I144" t="n">
-        <v>94.87179487179486</v>
+        <v>100</v>
       </c>
       <c r="J144" t="n">
         <v>100</v>
       </c>
       <c r="K144" t="n">
-        <v>97.36842105263158</v>
+        <v>100</v>
       </c>
       <c r="L144" t="n">
-        <v>22.12779999535996</v>
+        <v>9.276473999989321</v>
       </c>
       <c r="M144" t="n">
         <v>0.9999999999999998</v>
@@ -7262,7 +7262,7 @@
         <v>99.85289027345102</v>
       </c>
       <c r="L145" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M145" t="n">
         <v>0.9996508641466216</v>
@@ -7309,7 +7309,7 @@
         <v>99.68732757035129</v>
       </c>
       <c r="L146" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M146" t="n">
         <v>0.9996508641466216</v>
@@ -7356,7 +7356,7 @@
         <v>74.99999999999999</v>
       </c>
       <c r="L147" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M147" t="n">
         <v>0.8461538461538461</v>
@@ -7403,7 +7403,7 @@
         <v>99.91582491582491</v>
       </c>
       <c r="L148" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M148" t="n">
         <v>0.9996085487572535</v>
@@ -7450,7 +7450,7 @@
         <v>88.88888888888889</v>
       </c>
       <c r="L149" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M149" t="n">
         <v>0.8934077786787669</v>
@@ -7497,7 +7497,7 @@
         <v>99.54705586311022</v>
       </c>
       <c r="L150" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M150" t="n">
         <v>0.9968011952990854</v>
@@ -7544,7 +7544,7 @@
         <v>88</v>
       </c>
       <c r="L151" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M151" t="n">
         <v>0.9230769230769231</v>
@@ -7591,7 +7591,7 @@
         <v>94.33962264150945</v>
       </c>
       <c r="L152" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M152" t="n">
         <v>0.9716981132075472</v>
@@ -7638,7 +7638,7 @@
         <v>100</v>
       </c>
       <c r="L153" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M153" t="n">
         <v>1</v>
@@ -7685,7 +7685,7 @@
         <v>99.97488068324542</v>
       </c>
       <c r="L154" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M154" t="n">
         <v>1</v>
@@ -7732,7 +7732,7 @@
         <v>100</v>
       </c>
       <c r="L155" t="n">
-        <v>394.2726000095718</v>
+        <v>278.4570250000797</v>
       </c>
       <c r="M155" t="n">
         <v>1</v>
@@ -7755,34 +7755,34 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>11562</v>
+        <v>11564</v>
       </c>
       <c r="E156" t="n">
-        <v>5420</v>
+        <v>5421</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H156" t="n">
-        <v>99.93526746307303</v>
+        <v>99.95292179132585</v>
       </c>
       <c r="I156" t="n">
-        <v>99.98270494638534</v>
+        <v>99.99135322092521</v>
       </c>
       <c r="J156" t="n">
-        <v>99.92221934145708</v>
+        <v>99.93950393224441</v>
       </c>
       <c r="K156" t="n">
-        <v>99.95245299330018</v>
+        <v>99.96542185338866</v>
       </c>
       <c r="L156" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M156" t="n">
-        <v>0.999997343687242</v>
+        <v>0.9999973465744242</v>
       </c>
     </row>
     <row r="157">
@@ -7802,34 +7802,34 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>5420</v>
+        <v>5421</v>
       </c>
       <c r="E157" t="n">
-        <v>11562</v>
+        <v>11564</v>
       </c>
       <c r="F157" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>99.93526746307303</v>
+        <v>99.95292179132585</v>
       </c>
       <c r="I157" t="n">
-        <v>99.83422361392522</v>
+        <v>99.87103905674282</v>
       </c>
       <c r="J157" t="n">
-        <v>99.963113242346</v>
+        <v>99.981556621173</v>
       </c>
       <c r="K157" t="n">
-        <v>99.89862685466777</v>
+        <v>99.92626728110598</v>
       </c>
       <c r="L157" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M157" t="n">
-        <v>0.999997343687242</v>
+        <v>0.9999973465744242</v>
       </c>
     </row>
     <row r="158">
@@ -7873,7 +7873,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L158" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M158" t="n">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E159" t="n">
         <v>15804</v>
@@ -7905,22 +7905,22 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>99.99411522391573</v>
+        <v>100</v>
       </c>
       <c r="I159" t="n">
         <v>100</v>
       </c>
       <c r="J159" t="n">
-        <v>99.91589571068124</v>
+        <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>99.95793016407237</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M159" t="n">
         <v>1</v>
@@ -7943,34 +7943,34 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E160" t="n">
-        <v>16890</v>
+        <v>16889</v>
       </c>
       <c r="F160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H160" t="n">
-        <v>99.92349791090449</v>
+        <v>99.91172835873596</v>
       </c>
       <c r="I160" t="n">
-        <v>90.90909090909091</v>
+        <v>89.8989898989899</v>
       </c>
       <c r="J160" t="n">
-        <v>95.74468085106383</v>
+        <v>94.68085106382979</v>
       </c>
       <c r="K160" t="n">
-        <v>93.26424870466322</v>
+        <v>92.22797927461139</v>
       </c>
       <c r="L160" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M160" t="n">
-        <v>0.9821389068709956</v>
+        <v>0.9809378945893953</v>
       </c>
     </row>
     <row r="161">
@@ -7990,34 +7990,34 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E161" t="n">
-        <v>15008</v>
+        <v>15009</v>
       </c>
       <c r="F161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H161" t="n">
         <v>99.94703701524156</v>
       </c>
       <c r="I161" t="n">
-        <v>99.79797979797979</v>
+        <v>99.84833164812943</v>
       </c>
       <c r="J161" t="n">
-        <v>99.74760222110045</v>
+        <v>99.69712266532055</v>
       </c>
       <c r="K161" t="n">
-        <v>99.77278465034082</v>
+        <v>99.77266986612783</v>
       </c>
       <c r="L161" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M161" t="n">
-        <v>0.9999870303211977</v>
+        <v>0.9999887858260691</v>
       </c>
     </row>
     <row r="162">
@@ -8061,7 +8061,7 @@
         <v>100</v>
       </c>
       <c r="L162" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M162" t="n">
         <v>0.9999999999999998</v>
@@ -8108,7 +8108,7 @@
         <v>100</v>
       </c>
       <c r="L163" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M163" t="n">
         <v>1</v>
@@ -8155,7 +8155,7 @@
         <v>100</v>
       </c>
       <c r="L164" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M164" t="n">
         <v>1</v>
@@ -8202,7 +8202,7 @@
         <v>100</v>
       </c>
       <c r="L165" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M165" t="n">
         <v>1</v>
@@ -8249,10 +8249,10 @@
         <v>100</v>
       </c>
       <c r="L166" t="n">
-        <v>515.9402999997837</v>
+        <v>340.628899999956</v>
       </c>
       <c r="M166" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="167">
@@ -8296,10 +8296,10 @@
         <v>99.98271839626717</v>
       </c>
       <c r="L167" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M167" t="n">
-        <v>0.9999991725723046</v>
+        <v>0.9999991579025308</v>
       </c>
     </row>
     <row r="168">
@@ -8343,10 +8343,10 @@
         <v>99.96309963099631</v>
       </c>
       <c r="L168" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M168" t="n">
-        <v>0.9999991725723046</v>
+        <v>0.9999991579025308</v>
       </c>
     </row>
     <row r="169">
@@ -8390,7 +8390,7 @@
         <v>100</v>
       </c>
       <c r="L169" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M169" t="n">
         <v>1</v>
@@ -8437,7 +8437,7 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L170" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M170" t="n">
         <v>1</v>
@@ -8460,7 +8460,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E171" t="n">
         <v>16894</v>
@@ -8469,25 +8469,25 @@
         <v>4</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
-        <v>99.97057611957865</v>
+        <v>99.96469134349438</v>
       </c>
       <c r="I171" t="n">
-        <v>95.91836734693877</v>
+        <v>95.87628865979381</v>
       </c>
       <c r="J171" t="n">
-        <v>98.94736842105263</v>
+        <v>97.89473684210527</v>
       </c>
       <c r="K171" t="n">
-        <v>97.40932642487047</v>
+        <v>96.875</v>
       </c>
       <c r="L171" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M171" t="n">
-        <v>0.9972973757915609</v>
+        <v>0.9964886737379386</v>
       </c>
     </row>
     <row r="172">
@@ -8510,31 +8510,31 @@
         <v>1974</v>
       </c>
       <c r="E172" t="n">
-        <v>15011</v>
+        <v>15010</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
         <v>7</v>
       </c>
       <c r="H172" t="n">
-        <v>99.95292179132585</v>
+        <v>99.94703701524156</v>
       </c>
       <c r="I172" t="n">
-        <v>99.9493670886076</v>
+        <v>99.89878542510121</v>
       </c>
       <c r="J172" t="n">
         <v>99.64664310954063</v>
       </c>
       <c r="K172" t="n">
-        <v>99.79777553083923</v>
+        <v>99.77255496588323</v>
       </c>
       <c r="L172" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M172" t="n">
-        <v>0.9999752713410153</v>
+        <v>0.9999779221538669</v>
       </c>
     </row>
     <row r="173">
@@ -8578,10 +8578,10 @@
         <v>97.67441860465117</v>
       </c>
       <c r="L173" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M173" t="n">
-        <v>0.9979787998562702</v>
+        <v>0.9961297760210804</v>
       </c>
     </row>
     <row r="174">
@@ -8625,7 +8625,7 @@
         <v>98.98989898989899</v>
       </c>
       <c r="L174" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M174" t="n">
         <v>1</v>
@@ -8672,7 +8672,7 @@
         <v>100</v>
       </c>
       <c r="L175" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M175" t="n">
         <v>1</v>
@@ -8719,7 +8719,7 @@
         <v>100</v>
       </c>
       <c r="L176" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M176" t="n">
         <v>1</v>
@@ -8766,7 +8766,7 @@
         <v>100</v>
       </c>
       <c r="L177" t="n">
-        <v>90.08880000328645</v>
+        <v>47.77283400017041</v>
       </c>
       <c r="M177" t="n">
         <v>1</v>
@@ -8813,7 +8813,7 @@
         <v>99.84858317110103</v>
       </c>
       <c r="L178" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M178" t="n">
         <v>0.9995695541197734</v>
@@ -8860,7 +8860,7 @@
         <v>99.67804249839021</v>
       </c>
       <c r="L179" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M179" t="n">
         <v>0.9995695541197734</v>
@@ -8907,7 +8907,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L180" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M180" t="n">
         <v>0.95</v>
@@ -8954,7 +8954,7 @@
         <v>100</v>
       </c>
       <c r="L181" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M181" t="n">
         <v>1</v>
@@ -9001,7 +9001,7 @@
         <v>82.41206030150754</v>
       </c>
       <c r="L182" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M182" t="n">
         <v>0.8261922270446678</v>
@@ -9048,7 +9048,7 @@
         <v>99.16603487490522</v>
       </c>
       <c r="L183" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M183" t="n">
         <v>0.9922209858074569</v>
@@ -9095,7 +9095,7 @@
         <v>88</v>
       </c>
       <c r="L184" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M184" t="n">
         <v>0.9399999999999999</v>
@@ -9142,7 +9142,7 @@
         <v>100</v>
       </c>
       <c r="L185" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M185" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         <v>98.98989898989899</v>
       </c>
       <c r="L186" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M186" t="n">
         <v>0.9900294238804214</v>
@@ -9236,7 +9236,7 @@
         <v>99.57446808510639</v>
       </c>
       <c r="L187" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M187" t="n">
         <v>0.9978227710032295</v>
@@ -9283,7 +9283,7 @@
         <v>100</v>
       </c>
       <c r="L188" t="n">
-        <v>8.596800005761907</v>
+        <v>4.325726999923063</v>
       </c>
       <c r="M188" t="n">
         <v>1</v>
@@ -9306,34 +9306,34 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>11388</v>
+        <v>11419</v>
       </c>
       <c r="E189" t="n">
-        <v>5411</v>
+        <v>5413</v>
       </c>
       <c r="F189" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G189" t="n">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="H189" t="n">
-        <v>98.85835343965162</v>
+        <v>99.05255105043254</v>
       </c>
       <c r="I189" t="n">
-        <v>99.90350030704448</v>
+        <v>99.92124606230311</v>
       </c>
       <c r="J189" t="n">
-        <v>98.41845994296085</v>
+        <v>98.68637110016421</v>
       </c>
       <c r="K189" t="n">
-        <v>99.15542011319111</v>
+        <v>99.29996956389408</v>
       </c>
       <c r="L189" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M189" t="n">
-        <v>0.9993748426748381</v>
+        <v>0.9992303461700718</v>
       </c>
     </row>
     <row r="190">
@@ -9353,34 +9353,34 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>5411</v>
+        <v>5413</v>
       </c>
       <c r="E190" t="n">
-        <v>11388</v>
+        <v>11419</v>
       </c>
       <c r="F190" t="n">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G190" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H190" t="n">
-        <v>98.85835343965162</v>
+        <v>99.05255105043254</v>
       </c>
       <c r="I190" t="n">
-        <v>96.72863782624241</v>
+        <v>97.26864330637916</v>
       </c>
       <c r="J190" t="n">
-        <v>99.79712283290299</v>
+        <v>99.83400959055699</v>
       </c>
       <c r="K190" t="n">
-        <v>98.23892519970953</v>
+        <v>98.53463183762629</v>
       </c>
       <c r="L190" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M190" t="n">
-        <v>0.9993748426748381</v>
+        <v>0.9992303461700718</v>
       </c>
     </row>
     <row r="191">
@@ -9403,28 +9403,28 @@
         <v>9</v>
       </c>
       <c r="E191" t="n">
-        <v>16973</v>
+        <v>16980</v>
       </c>
       <c r="F191" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>99.93526746307303</v>
+        <v>99.97646089566292</v>
       </c>
       <c r="I191" t="n">
-        <v>45</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="J191" t="n">
         <v>100</v>
       </c>
       <c r="K191" t="n">
-        <v>62.06896551724138</v>
+        <v>81.81818181818181</v>
       </c>
       <c r="L191" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M191" t="n">
         <v>1</v>
@@ -9471,7 +9471,7 @@
         <v>100</v>
       </c>
       <c r="L192" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M192" t="n">
         <v>1</v>
@@ -9494,34 +9494,34 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E193" t="n">
-        <v>16870</v>
+        <v>16871</v>
       </c>
       <c r="F193" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G193" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
-        <v>99.79991761313482</v>
+        <v>99.82934149355617</v>
       </c>
       <c r="I193" t="n">
-        <v>76.06837606837607</v>
+        <v>77.5</v>
       </c>
       <c r="J193" t="n">
-        <v>93.68421052631579</v>
+        <v>97.89473684210527</v>
       </c>
       <c r="K193" t="n">
-        <v>83.96226415094338</v>
+        <v>86.51162790697676</v>
       </c>
       <c r="L193" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M193" t="n">
-        <v>0.9370597965680014</v>
+        <v>0.9666163839416143</v>
       </c>
     </row>
     <row r="194">
@@ -9541,34 +9541,34 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E194" t="n">
-        <v>15006</v>
+        <v>15010</v>
       </c>
       <c r="F194" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G194" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H194" t="n">
-        <v>99.81168716530337</v>
+        <v>99.82934149355617</v>
       </c>
       <c r="I194" t="n">
-        <v>99.6940336562978</v>
+        <v>99.89775051124744</v>
       </c>
       <c r="J194" t="n">
-        <v>98.68753154972237</v>
+        <v>98.63705199394245</v>
       </c>
       <c r="K194" t="n">
-        <v>99.18822932521563</v>
+        <v>99.26339852679705</v>
       </c>
       <c r="L194" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M194" t="n">
-        <v>0.9995317410791204</v>
+        <v>0.9996349144280186</v>
       </c>
     </row>
     <row r="195">
@@ -9591,31 +9591,31 @@
         <v>21</v>
       </c>
       <c r="E195" t="n">
-        <v>16966</v>
+        <v>16971</v>
       </c>
       <c r="F195" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>99.96469134349438</v>
+        <v>99.99411522391573</v>
       </c>
       <c r="I195" t="n">
-        <v>80.76923076923077</v>
+        <v>100</v>
       </c>
       <c r="J195" t="n">
         <v>95.45454545454545</v>
       </c>
       <c r="K195" t="n">
-        <v>87.5</v>
+        <v>97.67441860465117</v>
       </c>
       <c r="L195" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M195" t="n">
-        <v>0.9893053074871258</v>
+        <v>0.9928671328671326</v>
       </c>
     </row>
     <row r="196">
@@ -9635,34 +9635,34 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E196" t="n">
-        <v>16913</v>
+        <v>16916</v>
       </c>
       <c r="F196" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G196" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>99.7646089566292</v>
+        <v>99.83522626964044</v>
       </c>
       <c r="I196" t="n">
-        <v>57.14285714285714</v>
+        <v>64.47368421052632</v>
       </c>
       <c r="J196" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K196" t="n">
-        <v>66.66666666666666</v>
+        <v>77.77777777777777</v>
       </c>
       <c r="L196" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M196" t="n">
-        <v>0.8708322219486707</v>
+        <v>0.8895335813517772</v>
       </c>
     </row>
     <row r="197">
@@ -9706,10 +9706,10 @@
         <v>97.95918367346938</v>
       </c>
       <c r="L197" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M197" t="n">
-        <v>0.9955902777777779</v>
+        <v>0.9996039215686275</v>
       </c>
     </row>
     <row r="198">
@@ -9729,34 +9729,34 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1987</v>
+        <v>1977</v>
       </c>
       <c r="E198" t="n">
-        <v>14884</v>
+        <v>14898</v>
       </c>
       <c r="F198" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H198" t="n">
-        <v>99.28205731771907</v>
+        <v>99.30559642205614</v>
       </c>
       <c r="I198" t="n">
-        <v>94.3046986236355</v>
+        <v>94.91118578972636</v>
       </c>
       <c r="J198" t="n">
-        <v>99.89944695827049</v>
+        <v>99.39668174962293</v>
       </c>
       <c r="K198" t="n">
-        <v>97.021484375</v>
+        <v>97.10216110019645</v>
       </c>
       <c r="L198" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M198" t="n">
-        <v>0.9627972131836064</v>
+        <v>0.9658835602827794</v>
       </c>
     </row>
     <row r="199">
@@ -9800,7 +9800,7 @@
         <v>98.66666666666666</v>
       </c>
       <c r="L199" t="n">
-        <v>22.42779999505728</v>
+        <v>9.522046999791201</v>
       </c>
       <c r="M199" t="n">
         <v>1</v>
@@ -9847,7 +9847,7 @@
         <v>99.85722320771862</v>
       </c>
       <c r="L200" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M200" t="n">
         <v>0.9996939151041709</v>
@@ -9894,7 +9894,7 @@
         <v>99.6964959072933</v>
       </c>
       <c r="L201" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M201" t="n">
         <v>0.9996939151041709</v>
@@ -9941,7 +9941,7 @@
         <v>81.81818181818181</v>
       </c>
       <c r="L202" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M202" t="n">
         <v>0.9090909090909092</v>
@@ -9988,7 +9988,7 @@
         <v>100</v>
       </c>
       <c r="L203" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M203" t="n">
         <v>1</v>
@@ -10035,7 +10035,7 @@
         <v>87.37864077669903</v>
       </c>
       <c r="L204" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M204" t="n">
         <v>0.9116017529737053</v>
@@ -10082,7 +10082,7 @@
         <v>99.54545454545455</v>
       </c>
       <c r="L205" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M205" t="n">
         <v>0.9971780705771398</v>
@@ -10129,7 +10129,7 @@
         <v>85.71428571428572</v>
       </c>
       <c r="L206" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M206" t="n">
         <v>0.8781875560708117</v>
@@ -10176,7 +10176,7 @@
         <v>92.45283018867923</v>
       </c>
       <c r="L207" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M207" t="n">
         <v>0.9602360488077709</v>
@@ -10223,7 +10223,7 @@
         <v>100</v>
       </c>
       <c r="L208" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M208" t="n">
         <v>1</v>
@@ -10270,7 +10270,7 @@
         <v>100</v>
       </c>
       <c r="L209" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M209" t="n">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>100</v>
       </c>
       <c r="L210" t="n">
-        <v>390.019200000097</v>
+        <v>274.5344750001095</v>
       </c>
       <c r="M210" t="n">
         <v>1</v>
@@ -10340,7 +10340,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>11566</v>
+        <v>11568</v>
       </c>
       <c r="E211" t="n">
         <v>5420</v>
@@ -10349,25 +10349,25 @@
         <v>2</v>
       </c>
       <c r="G211" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H211" t="n">
-        <v>99.95880656741011</v>
+        <v>99.97057611957865</v>
       </c>
       <c r="I211" t="n">
-        <v>99.98271092669432</v>
+        <v>99.98271391529818</v>
       </c>
       <c r="J211" t="n">
-        <v>99.95678852303172</v>
+        <v>99.97407311381903</v>
       </c>
       <c r="K211" t="n">
-        <v>99.96974804442715</v>
+        <v>99.97839332785965</v>
       </c>
       <c r="L211" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M211" t="n">
-        <v>0.9999973440188161</v>
+        <v>0.9999974508891851</v>
       </c>
     </row>
     <row r="212">
@@ -10390,31 +10390,31 @@
         <v>5420</v>
       </c>
       <c r="E212" t="n">
-        <v>11566</v>
+        <v>11568</v>
       </c>
       <c r="F212" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
       </c>
       <c r="H212" t="n">
-        <v>99.95880656741011</v>
+        <v>99.97057611957865</v>
       </c>
       <c r="I212" t="n">
-        <v>99.90783410138249</v>
+        <v>99.94468006638392</v>
       </c>
       <c r="J212" t="n">
         <v>99.963113242346</v>
       </c>
       <c r="K212" t="n">
-        <v>99.93546602747304</v>
+        <v>99.95389580451821</v>
       </c>
       <c r="L212" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M212" t="n">
-        <v>0.9999973440188161</v>
+        <v>0.9999974508891851</v>
       </c>
     </row>
     <row r="213">
@@ -10458,7 +10458,7 @@
         <v>100</v>
       </c>
       <c r="L213" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M213" t="n">
         <v>1</v>
@@ -10505,7 +10505,7 @@
         <v>100</v>
       </c>
       <c r="L214" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M214" t="n">
         <v>1</v>
@@ -10552,10 +10552,10 @@
         <v>94.89795918367348</v>
       </c>
       <c r="L215" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M215" t="n">
-        <v>0.9911755651634382</v>
+        <v>0.9957901385520002</v>
       </c>
     </row>
     <row r="216">
@@ -10599,10 +10599,10 @@
         <v>99.72201162496842</v>
       </c>
       <c r="L216" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M216" t="n">
-        <v>0.9999710370882885</v>
+        <v>0.9999815637558651</v>
       </c>
     </row>
     <row r="217">
@@ -10625,31 +10625,31 @@
         <v>22</v>
       </c>
       <c r="E217" t="n">
-        <v>16970</v>
+        <v>16971</v>
       </c>
       <c r="F217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>99.99411522391573</v>
+        <v>100</v>
       </c>
       <c r="I217" t="n">
-        <v>95.65217391304348</v>
+        <v>100</v>
       </c>
       <c r="J217" t="n">
         <v>100</v>
       </c>
       <c r="K217" t="n">
-        <v>97.77777777777777</v>
+        <v>100</v>
       </c>
       <c r="L217" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M217" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -10693,7 +10693,7 @@
         <v>98</v>
       </c>
       <c r="L218" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M218" t="n">
         <v>0.9996039215686275</v>
@@ -10740,7 +10740,7 @@
         <v>100</v>
       </c>
       <c r="L219" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M219" t="n">
         <v>1</v>
@@ -10787,7 +10787,7 @@
         <v>100</v>
       </c>
       <c r="L220" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M220" t="n">
         <v>1</v>
@@ -10834,10 +10834,10 @@
         <v>100</v>
       </c>
       <c r="L221" t="n">
-        <v>511.6109000082361</v>
+        <v>336.4283239998258</v>
       </c>
       <c r="M221" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="222">
@@ -10857,34 +10857,34 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>11565</v>
+        <v>11566</v>
       </c>
       <c r="E222" t="n">
-        <v>5421</v>
+        <v>5420</v>
       </c>
       <c r="F222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G222" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H222" t="n">
         <v>99.95880656741011</v>
       </c>
       <c r="I222" t="n">
-        <v>99.99135396852844</v>
+        <v>99.98271092669432</v>
       </c>
       <c r="J222" t="n">
-        <v>99.94814622763806</v>
+        <v>99.95678852303172</v>
       </c>
       <c r="K222" t="n">
-        <v>99.9697454293988</v>
+        <v>99.96974804442715</v>
       </c>
       <c r="L222" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M222" t="n">
-        <v>0.9999998730369458</v>
+        <v>0.9999998207780112</v>
       </c>
     </row>
     <row r="223">
@@ -10904,34 +10904,34 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>5421</v>
+        <v>5420</v>
       </c>
       <c r="E223" t="n">
-        <v>11565</v>
+        <v>11566</v>
       </c>
       <c r="F223" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223" t="n">
         <v>99.95880656741011</v>
       </c>
       <c r="I223" t="n">
-        <v>99.88944168048646</v>
+        <v>99.90783410138249</v>
       </c>
       <c r="J223" t="n">
-        <v>99.981556621173</v>
+        <v>99.963113242346</v>
       </c>
       <c r="K223" t="n">
-        <v>99.93547792423264</v>
+        <v>99.93546602747304</v>
       </c>
       <c r="L223" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M223" t="n">
-        <v>0.9999998730369458</v>
+        <v>0.9999998207780112</v>
       </c>
     </row>
     <row r="224">
@@ -10975,7 +10975,7 @@
         <v>100</v>
       </c>
       <c r="L224" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M224" t="n">
         <v>1</v>
@@ -11022,7 +11022,7 @@
         <v>100</v>
       </c>
       <c r="L225" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M225" t="n">
         <v>1</v>
@@ -11048,31 +11048,31 @@
         <v>93</v>
       </c>
       <c r="E226" t="n">
-        <v>16892</v>
+        <v>16893</v>
       </c>
       <c r="F226" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
       </c>
       <c r="H226" t="n">
-        <v>99.95292179132585</v>
+        <v>99.95880656741011</v>
       </c>
       <c r="I226" t="n">
-        <v>93.93939393939394</v>
+        <v>94.89795918367348</v>
       </c>
       <c r="J226" t="n">
         <v>97.89473684210527</v>
       </c>
       <c r="K226" t="n">
-        <v>95.87628865979383</v>
+        <v>96.37305699481867</v>
       </c>
       <c r="L226" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M226" t="n">
-        <v>0.9952840425377659</v>
+        <v>0.9934296099251307</v>
       </c>
     </row>
     <row r="227">
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E227" t="n">
         <v>15012</v>
@@ -11101,25 +11101,25 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H227" t="n">
-        <v>99.97057611957865</v>
+        <v>99.97646089566292</v>
       </c>
       <c r="I227" t="n">
         <v>100</v>
       </c>
       <c r="J227" t="n">
-        <v>99.74760222110045</v>
+        <v>99.79808177688037</v>
       </c>
       <c r="K227" t="n">
-        <v>99.87364164771292</v>
+        <v>99.8989388580091</v>
       </c>
       <c r="L227" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M227" t="n">
-        <v>0.9999918835163935</v>
+        <v>0.9999886228237685</v>
       </c>
     </row>
     <row r="228">
@@ -11139,7 +11139,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E228" t="n">
         <v>16971</v>
@@ -11148,22 +11148,22 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
-        <v>100</v>
+        <v>99.99411522391573</v>
       </c>
       <c r="I228" t="n">
         <v>100</v>
       </c>
       <c r="J228" t="n">
-        <v>100</v>
+        <v>95.45454545454545</v>
       </c>
       <c r="K228" t="n">
-        <v>100</v>
+        <v>97.67441860465117</v>
       </c>
       <c r="L228" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M228" t="n">
         <v>1</v>
@@ -11210,7 +11210,7 @@
         <v>98.98989898989899</v>
       </c>
       <c r="L229" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M229" t="n">
         <v>1</v>
@@ -11257,7 +11257,7 @@
         <v>100</v>
       </c>
       <c r="L230" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M230" t="n">
         <v>1</v>
@@ -11304,7 +11304,7 @@
         <v>100</v>
       </c>
       <c r="L231" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M231" t="n">
         <v>1</v>
@@ -11351,7 +11351,7 @@
         <v>100</v>
       </c>
       <c r="L232" t="n">
-        <v>89.20410000428092</v>
+        <v>47.22595800012641</v>
       </c>
       <c r="M232" t="n">
         <v>1</v>
@@ -11398,7 +11398,7 @@
         <v>99.89622070396955</v>
       </c>
       <c r="L233" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M233" t="n">
         <v>0.9996307881090423</v>
@@ -11445,7 +11445,7 @@
         <v>99.77900552486187</v>
       </c>
       <c r="L234" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M234" t="n">
         <v>0.9996307881090423</v>
@@ -11492,7 +11492,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L235" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M235" t="n">
         <v>0.95</v>
@@ -11539,7 +11539,7 @@
         <v>99.95796553173602</v>
       </c>
       <c r="L236" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M236" t="n">
         <v>0.9995798319327731</v>
@@ -11586,7 +11586,7 @@
         <v>90.0523560209424</v>
       </c>
       <c r="L237" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M237" t="n">
         <v>0.8787878269994358</v>
@@ -11633,7 +11633,7 @@
         <v>99.62149886449659</v>
       </c>
       <c r="L238" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M238" t="n">
         <v>0.9964201318702068</v>
@@ -11680,7 +11680,7 @@
         <v>86.27450980392156</v>
       </c>
       <c r="L239" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M239" t="n">
         <v>0.8234064785788924</v>
@@ -11727,7 +11727,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L240" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M240" t="n">
         <v>0.9807692307692308</v>
@@ -11774,7 +11774,7 @@
         <v>100</v>
       </c>
       <c r="L241" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M241" t="n">
         <v>1</v>
@@ -11821,7 +11821,7 @@
         <v>99.97486805730082</v>
       </c>
       <c r="L242" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M242" t="n">
         <v>0.999748743718593</v>
@@ -11868,7 +11868,7 @@
         <v>94.73684210526315</v>
       </c>
       <c r="L243" t="n">
-        <v>8.539300004485995</v>
+        <v>4.140941000059684</v>
       </c>
       <c r="M243" t="n">
         <v>0.9480543719053695</v>
@@ -11891,34 +11891,34 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>11426</v>
+        <v>11423</v>
       </c>
       <c r="E244" t="n">
-        <v>5416</v>
+        <v>5415</v>
       </c>
       <c r="F244" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G244" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H244" t="n">
-        <v>99.11139881127524</v>
+        <v>99.08785970693815</v>
       </c>
       <c r="I244" t="n">
-        <v>99.94751574527642</v>
+        <v>99.93875765529309</v>
       </c>
       <c r="J244" t="n">
-        <v>98.74686716791979</v>
+        <v>98.72094028173883</v>
       </c>
       <c r="K244" t="n">
-        <v>99.34356388297178</v>
+        <v>99.32611625581498</v>
       </c>
       <c r="L244" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M244" t="n">
-        <v>0.9995624860402772</v>
+        <v>0.9995705791113512</v>
       </c>
     </row>
     <row r="245">
@@ -11938,34 +11938,34 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5416</v>
+        <v>5415</v>
       </c>
       <c r="E245" t="n">
-        <v>11426</v>
+        <v>11423</v>
       </c>
       <c r="F245" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G245" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H245" t="n">
-        <v>99.11139881127524</v>
+        <v>99.08785970693815</v>
       </c>
       <c r="I245" t="n">
-        <v>97.3925552958101</v>
+        <v>97.33956498292289</v>
       </c>
       <c r="J245" t="n">
-        <v>99.88933972703799</v>
+        <v>99.87089634821099</v>
       </c>
       <c r="K245" t="n">
-        <v>98.62514795593189</v>
+        <v>98.58898497951752</v>
       </c>
       <c r="L245" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M245" t="n">
-        <v>0.9995624860402772</v>
+        <v>0.9995705791113512</v>
       </c>
     </row>
     <row r="246">
@@ -11988,28 +11988,28 @@
         <v>9</v>
       </c>
       <c r="E246" t="n">
-        <v>16980</v>
+        <v>16981</v>
       </c>
       <c r="F246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>99.97646089566292</v>
+        <v>99.98234567174718</v>
       </c>
       <c r="I246" t="n">
-        <v>69.23076923076923</v>
+        <v>75</v>
       </c>
       <c r="J246" t="n">
         <v>100</v>
       </c>
       <c r="K246" t="n">
-        <v>81.81818181818181</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L246" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M246" t="n">
         <v>1</v>
@@ -12056,7 +12056,7 @@
         <v>100</v>
       </c>
       <c r="L247" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M247" t="n">
         <v>1</v>
@@ -12103,10 +12103,10 @@
         <v>91.91919191919192</v>
       </c>
       <c r="L248" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M248" t="n">
-        <v>0.9786170596475755</v>
+        <v>0.9789378901806087</v>
       </c>
     </row>
     <row r="249">
@@ -12129,31 +12129,31 @@
         <v>1971</v>
       </c>
       <c r="E249" t="n">
-        <v>15010</v>
+        <v>15009</v>
       </c>
       <c r="F249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G249" t="n">
         <v>10</v>
       </c>
       <c r="H249" t="n">
-        <v>99.92938268698876</v>
+        <v>99.92349791090449</v>
       </c>
       <c r="I249" t="n">
-        <v>99.89863152559553</v>
+        <v>99.84802431610942</v>
       </c>
       <c r="J249" t="n">
         <v>99.49520444220092</v>
       </c>
       <c r="K249" t="n">
-        <v>99.69650986342944</v>
+        <v>99.67130214917826</v>
       </c>
       <c r="L249" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M249" t="n">
-        <v>0.9999275688604297</v>
+        <v>0.999936278615195</v>
       </c>
     </row>
     <row r="250">
@@ -12197,7 +12197,7 @@
         <v>93.61702127659575</v>
       </c>
       <c r="L250" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M250" t="n">
         <v>0.9999999999999998</v>
@@ -12220,34 +12220,34 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E251" t="n">
-        <v>16934</v>
+        <v>16933</v>
       </c>
       <c r="F251" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251" t="n">
-        <v>99.9411522391573</v>
+        <v>99.92938268698876</v>
       </c>
       <c r="I251" t="n">
-        <v>84.48275862068965</v>
+        <v>82.75862068965517</v>
       </c>
       <c r="J251" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K251" t="n">
-        <v>90.74074074074075</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="L251" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M251" t="n">
-        <v>0.9375638854785133</v>
+        <v>0.9330681581652006</v>
       </c>
     </row>
     <row r="252">
@@ -12291,7 +12291,7 @@
         <v>100</v>
       </c>
       <c r="L252" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M252" t="n">
         <v>1</v>
@@ -12317,31 +12317,31 @@
         <v>1988</v>
       </c>
       <c r="E253" t="n">
-        <v>14887</v>
+        <v>14878</v>
       </c>
       <c r="F253" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>99.30559642205614</v>
+        <v>99.2526334372977</v>
       </c>
       <c r="I253" t="n">
-        <v>94.44180522565321</v>
+        <v>94.03973509933775</v>
       </c>
       <c r="J253" t="n">
         <v>99.94972347913524</v>
       </c>
       <c r="K253" t="n">
-        <v>97.11773326819736</v>
+        <v>96.90470387521327</v>
       </c>
       <c r="L253" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M253" t="n">
-        <v>0.9664219016849469</v>
+        <v>0.9671159447540864</v>
       </c>
     </row>
     <row r="254">
@@ -12385,7 +12385,7 @@
         <v>100</v>
       </c>
       <c r="L254" t="n">
-        <v>22.67099999880884</v>
+        <v>9.27457499983575</v>
       </c>
       <c r="M254" t="n">
         <v>0.9999999999999996</v>
@@ -12432,7 +12432,7 @@
         <v>99.87889273356402</v>
       </c>
       <c r="L255" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M255" t="n">
         <v>0.9997333993229149</v>
@@ -12479,7 +12479,7 @@
         <v>99.74231547947726</v>
       </c>
       <c r="L256" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M256" t="n">
         <v>0.9997333993229149</v>
@@ -12526,7 +12526,7 @@
         <v>81.81818181818181</v>
       </c>
       <c r="L257" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M257" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>100</v>
       </c>
       <c r="L258" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M258" t="n">
         <v>1</v>
@@ -12620,7 +12620,7 @@
         <v>88.54166666666666</v>
       </c>
       <c r="L259" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M259" t="n">
         <v>0.9047159475027482</v>
@@ -12667,7 +12667,7 @@
         <v>99.52177196073497</v>
       </c>
       <c r="L260" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M260" t="n">
         <v>0.9965430981168951</v>
@@ -12714,7 +12714,7 @@
         <v>95.65217391304348</v>
       </c>
       <c r="L261" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M261" t="n">
         <v>1</v>
@@ -12761,7 +12761,7 @@
         <v>95.14563106796116</v>
       </c>
       <c r="L262" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M262" t="n">
         <v>0.9694102288339818</v>
@@ -12808,7 +12808,7 @@
         <v>100</v>
       </c>
       <c r="L263" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M263" t="n">
         <v>1</v>
@@ -12855,7 +12855,7 @@
         <v>100</v>
       </c>
       <c r="L264" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M264" t="n">
         <v>1</v>
@@ -12902,7 +12902,7 @@
         <v>100</v>
       </c>
       <c r="L265" t="n">
-        <v>354.5651999884285</v>
+        <v>259.2031869999118</v>
       </c>
       <c r="M265" t="n">
         <v>1</v>
@@ -12949,10 +12949,10 @@
         <v>99.96542484225085</v>
       </c>
       <c r="L266" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M266" t="n">
-        <v>0.9999997610439709</v>
+        <v>0.999999746108043</v>
       </c>
     </row>
     <row r="267">
@@ -12996,10 +12996,10 @@
         <v>99.92625368731564</v>
       </c>
       <c r="L267" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M267" t="n">
-        <v>0.9999997610439709</v>
+        <v>0.999999746108043</v>
       </c>
     </row>
     <row r="268">
@@ -13043,7 +13043,7 @@
         <v>100</v>
       </c>
       <c r="L268" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M268" t="n">
         <v>1</v>
@@ -13090,7 +13090,7 @@
         <v>100</v>
       </c>
       <c r="L269" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M269" t="n">
         <v>1</v>
@@ -13137,10 +13137,10 @@
         <v>94.30051813471502</v>
       </c>
       <c r="L270" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M270" t="n">
-        <v>0.9938752275758771</v>
+        <v>0.993775032611607</v>
       </c>
     </row>
     <row r="271">
@@ -13184,10 +13184,10 @@
         <v>99.77266986612783</v>
       </c>
       <c r="L271" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M271" t="n">
-        <v>0.9999888274782778</v>
+        <v>0.9999893366104017</v>
       </c>
     </row>
     <row r="272">
@@ -13231,7 +13231,7 @@
         <v>95.65217391304348</v>
       </c>
       <c r="L272" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M272" t="n">
         <v>0.9999999999999998</v>
@@ -13278,7 +13278,7 @@
         <v>100</v>
       </c>
       <c r="L273" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M273" t="n">
         <v>1</v>
@@ -13325,7 +13325,7 @@
         <v>100</v>
       </c>
       <c r="L274" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M274" t="n">
         <v>1</v>
@@ -13372,7 +13372,7 @@
         <v>100</v>
       </c>
       <c r="L275" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M275" t="n">
         <v>1</v>
@@ -13419,7 +13419,7 @@
         <v>100</v>
       </c>
       <c r="L276" t="n">
-        <v>475.5940000031842</v>
+        <v>320.1086159997431</v>
       </c>
       <c r="M276" t="n">
         <v>1</v>
@@ -13466,10 +13466,10 @@
         <v>99.98703711705484</v>
       </c>
       <c r="L277" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M277" t="n">
-        <v>0.9999996445907832</v>
+        <v>0.9999994720189762</v>
       </c>
     </row>
     <row r="278">
@@ -13513,10 +13513,10 @@
         <v>99.97233238033756</v>
       </c>
       <c r="L278" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M278" t="n">
-        <v>0.9999996445907832</v>
+        <v>0.9999994720189762</v>
       </c>
     </row>
     <row r="279">
@@ -13560,7 +13560,7 @@
         <v>100</v>
       </c>
       <c r="L279" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M279" t="n">
         <v>1</v>
@@ -13607,7 +13607,7 @@
         <v>100</v>
       </c>
       <c r="L280" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M280" t="n">
         <v>1</v>
@@ -13633,31 +13633,31 @@
         <v>95</v>
       </c>
       <c r="E281" t="n">
-        <v>16894</v>
+        <v>16895</v>
       </c>
       <c r="F281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G281" t="n">
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>99.97646089566292</v>
+        <v>99.98234567174718</v>
       </c>
       <c r="I281" t="n">
-        <v>95.95959595959596</v>
+        <v>96.93877551020408</v>
       </c>
       <c r="J281" t="n">
         <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>97.9381443298969</v>
+        <v>98.44559585492229</v>
       </c>
       <c r="L281" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M281" t="n">
-        <v>0.9987734899004806</v>
+        <v>0.998683996298132</v>
       </c>
     </row>
     <row r="282">
@@ -13701,10 +13701,10 @@
         <v>99.87364164771292</v>
       </c>
       <c r="L282" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M282" t="n">
-        <v>0.9999950510133337</v>
+        <v>0.9999931862887621</v>
       </c>
     </row>
     <row r="283">
@@ -13748,10 +13748,10 @@
         <v>100</v>
       </c>
       <c r="L283" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M283" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="284">
@@ -13795,7 +13795,7 @@
         <v>100</v>
       </c>
       <c r="L284" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M284" t="n">
         <v>1</v>
@@ -13842,7 +13842,7 @@
         <v>100</v>
       </c>
       <c r="L285" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M285" t="n">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L286" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M286" t="n">
         <v>1</v>
@@ -13936,7 +13936,7 @@
         <v>100</v>
       </c>
       <c r="L287" t="n">
-        <v>92.74860000004992</v>
+        <v>47.27279500002624</v>
       </c>
       <c r="M287" t="n">
         <v>1</v>
@@ -13983,7 +13983,7 @@
         <v>99.93083772801936</v>
       </c>
       <c r="L288" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M288" t="n">
         <v>0.9996751319828964</v>
@@ -14030,7 +14030,7 @@
         <v>99.85256173977147</v>
       </c>
       <c r="L289" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M289" t="n">
         <v>0.9996751319828964</v>
@@ -14077,7 +14077,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L290" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M290" t="n">
         <v>0.95</v>
@@ -14124,7 +14124,7 @@
         <v>100</v>
       </c>
       <c r="L291" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M291" t="n">
         <v>1</v>
@@ -14171,7 +14171,7 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L292" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M292" t="n">
         <v>0.8876797222032465</v>
@@ -14218,7 +14218,7 @@
         <v>99.49418310571573</v>
       </c>
       <c r="L293" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M293" t="n">
         <v>0.9953542708894105</v>
@@ -14265,7 +14265,7 @@
         <v>93.61702127659575</v>
       </c>
       <c r="L294" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M294" t="n">
         <v>0.933732057416268</v>
@@ -14312,7 +14312,7 @@
         <v>97.08737864077671</v>
       </c>
       <c r="L295" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M295" t="n">
         <v>0.9716981132075472</v>
@@ -14359,7 +14359,7 @@
         <v>100</v>
       </c>
       <c r="L296" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M296" t="n">
         <v>1</v>
@@ -14406,7 +14406,7 @@
         <v>99.97486805730082</v>
       </c>
       <c r="L297" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M297" t="n">
         <v>0.999748743718593</v>
@@ -14453,7 +14453,7 @@
         <v>100</v>
       </c>
       <c r="L298" t="n">
-        <v>8.584199997130781</v>
+        <v>4.275865000181511</v>
       </c>
       <c r="M298" t="n">
         <v>1</v>
@@ -14476,34 +14476,34 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>11438</v>
+        <v>11436</v>
       </c>
       <c r="E299" t="n">
-        <v>5404</v>
+        <v>5418</v>
       </c>
       <c r="F299" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G299" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H299" t="n">
-        <v>99.11139881127524</v>
+        <v>99.18201612428648</v>
       </c>
       <c r="I299" t="n">
-        <v>99.84287709497207</v>
+        <v>99.96503496503496</v>
       </c>
       <c r="J299" t="n">
-        <v>98.85057471264368</v>
+        <v>98.83329012185636</v>
       </c>
       <c r="K299" t="n">
-        <v>99.34424805662917</v>
+        <v>99.39594107166137</v>
       </c>
       <c r="L299" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M299" t="n">
-        <v>0.9994166049022042</v>
+        <v>0.9995162335608154</v>
       </c>
     </row>
     <row r="300">
@@ -14523,34 +14523,34 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>5404</v>
+        <v>5418</v>
       </c>
       <c r="E300" t="n">
-        <v>11438</v>
+        <v>11436</v>
       </c>
       <c r="F300" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G300" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H300" t="n">
-        <v>99.11139881127524</v>
+        <v>99.18201612428648</v>
       </c>
       <c r="I300" t="n">
-        <v>97.59797724399493</v>
+        <v>97.56888168557536</v>
       </c>
       <c r="J300" t="n">
-        <v>99.66801918111398</v>
+        <v>99.92622648469199</v>
       </c>
       <c r="K300" t="n">
-        <v>98.62213705630076</v>
+        <v>98.73348519362187</v>
       </c>
       <c r="L300" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M300" t="n">
-        <v>0.9994166049022042</v>
+        <v>0.9995162335608154</v>
       </c>
     </row>
     <row r="301">
@@ -14573,28 +14573,28 @@
         <v>9</v>
       </c>
       <c r="E301" t="n">
-        <v>16978</v>
+        <v>16977</v>
       </c>
       <c r="F301" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G301" t="n">
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>99.96469134349438</v>
+        <v>99.95880656741011</v>
       </c>
       <c r="I301" t="n">
-        <v>60</v>
+        <v>56.25</v>
       </c>
       <c r="J301" t="n">
         <v>100</v>
       </c>
       <c r="K301" t="n">
-        <v>74.99999999999999</v>
+        <v>72</v>
       </c>
       <c r="L301" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M301" t="n">
         <v>0.7356701940035273</v>
@@ -14641,10 +14641,10 @@
         <v>99.91596638655462</v>
       </c>
       <c r="L302" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M302" t="n">
-        <v>0.9999408140752938</v>
+        <v>0.9997819497218196</v>
       </c>
     </row>
     <row r="303">
@@ -14664,34 +14664,34 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E303" t="n">
-        <v>16880</v>
+        <v>16879</v>
       </c>
       <c r="F303" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G303" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H303" t="n">
-        <v>99.87641970223034</v>
+        <v>99.85876537397752</v>
       </c>
       <c r="I303" t="n">
-        <v>83.63636363636363</v>
+        <v>82.56880733944955</v>
       </c>
       <c r="J303" t="n">
-        <v>96.84210526315789</v>
+        <v>94.73684210526315</v>
       </c>
       <c r="K303" t="n">
-        <v>89.7560975609756</v>
+        <v>88.23529411764707</v>
       </c>
       <c r="L303" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M303" t="n">
-        <v>0.9741626073284306</v>
+        <v>0.9699487698860406</v>
       </c>
     </row>
     <row r="304">
@@ -14711,34 +14711,34 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="E304" t="n">
-        <v>15009</v>
+        <v>15006</v>
       </c>
       <c r="F304" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G304" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H304" t="n">
-        <v>99.87641970223034</v>
+        <v>99.87053492614606</v>
       </c>
       <c r="I304" t="n">
-        <v>99.84740590030519</v>
+        <v>99.69558599695586</v>
       </c>
       <c r="J304" t="n">
-        <v>99.09136799596163</v>
+        <v>99.19232710752145</v>
       </c>
       <c r="K304" t="n">
-        <v>99.46795034203191</v>
+        <v>99.44331983805668</v>
       </c>
       <c r="L304" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M304" t="n">
-        <v>0.9999211909859148</v>
+        <v>0.9999138157128573</v>
       </c>
     </row>
     <row r="305">
@@ -14761,31 +14761,31 @@
         <v>22</v>
       </c>
       <c r="E305" t="n">
-        <v>16969</v>
+        <v>16968</v>
       </c>
       <c r="F305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G305" t="n">
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>99.98823044783146</v>
+        <v>99.98234567174718</v>
       </c>
       <c r="I305" t="n">
-        <v>91.66666666666666</v>
+        <v>88</v>
       </c>
       <c r="J305" t="n">
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>95.65217391304348</v>
+        <v>93.61702127659575</v>
       </c>
       <c r="L305" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M305" t="n">
-        <v>0.9979787998562699</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="306">
@@ -14808,31 +14808,31 @@
         <v>50</v>
       </c>
       <c r="E306" t="n">
-        <v>16929</v>
+        <v>16931</v>
       </c>
       <c r="F306" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G306" t="n">
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>99.91761313482021</v>
+        <v>99.92938268698876</v>
       </c>
       <c r="I306" t="n">
-        <v>78.125</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="J306" t="n">
         <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>87.71929824561403</v>
+        <v>89.28571428571428</v>
       </c>
       <c r="L306" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M306" t="n">
-        <v>0.8863171468134707</v>
+        <v>0.9467057085776899</v>
       </c>
     </row>
     <row r="307">
@@ -14876,7 +14876,7 @@
         <v>100</v>
       </c>
       <c r="L307" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M307" t="n">
         <v>1</v>
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1974</v>
+        <v>1986</v>
       </c>
       <c r="E308" t="n">
         <v>14898</v>
@@ -14908,25 +14908,25 @@
         <v>106</v>
       </c>
       <c r="G308" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H308" t="n">
-        <v>99.28794209380332</v>
+        <v>99.35855940681458</v>
       </c>
       <c r="I308" t="n">
-        <v>94.90384615384615</v>
+        <v>94.93307839388146</v>
       </c>
       <c r="J308" t="n">
-        <v>99.24585218702866</v>
+        <v>99.84917043740573</v>
       </c>
       <c r="K308" t="n">
-        <v>97.02629638731875</v>
+        <v>97.3290860083313</v>
       </c>
       <c r="L308" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M308" t="n">
-        <v>0.9705338829618225</v>
+        <v>0.9714296322263865</v>
       </c>
     </row>
     <row r="309">
@@ -14970,7 +14970,7 @@
         <v>100</v>
       </c>
       <c r="L309" t="n">
-        <v>22.35070000460837</v>
+        <v>10.84624699979031</v>
       </c>
       <c r="M309" t="n">
         <v>0.9999999999999996</v>
@@ -15017,7 +15017,7 @@
         <v>99.87457289909607</v>
       </c>
       <c r="L310" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M310" t="n">
         <v>0.9995917621842685</v>
@@ -15064,7 +15064,7 @@
         <v>99.7330878969167</v>
       </c>
       <c r="L311" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M311" t="n">
         <v>0.9995917621842685</v>
@@ -15111,7 +15111,7 @@
         <v>74.99999999999999</v>
       </c>
       <c r="L312" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M312" t="n">
         <v>0.8214285714285714</v>
@@ -15158,7 +15158,7 @@
         <v>99.91589571068124</v>
       </c>
       <c r="L313" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M313" t="n">
         <v>0.9991880279050742</v>
@@ -15205,7 +15205,7 @@
         <v>86.43216080402011</v>
       </c>
       <c r="L314" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M314" t="n">
         <v>0.8890128944604916</v>
@@ -15252,7 +15252,7 @@
         <v>99.49545913218969</v>
       </c>
       <c r="L315" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M315" t="n">
         <v>0.9958800178764614</v>
@@ -15299,7 +15299,7 @@
         <v>95.65217391304348</v>
       </c>
       <c r="L316" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M316" t="n">
         <v>0.9583333333333333</v>
@@ -15346,7 +15346,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L317" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M317" t="n">
         <v>0.9901960784313726</v>
@@ -15393,7 +15393,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L318" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M318" t="n">
         <v>0.9901960784313726</v>
@@ -15440,7 +15440,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L319" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M319" t="n">
         <v>0.9997780412760976</v>
@@ -15487,7 +15487,7 @@
         <v>100</v>
       </c>
       <c r="L320" t="n">
-        <v>449.0236999990884</v>
+        <v>269.7873070001151</v>
       </c>
       <c r="M320" t="n">
         <v>1</v>
@@ -15534,10 +15534,10 @@
         <v>99.96110126636989</v>
       </c>
       <c r="L321" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M321" t="n">
-        <v>0.9999981380285301</v>
+        <v>0.9999979386655415</v>
       </c>
     </row>
     <row r="322">
@@ -15581,10 +15581,10 @@
         <v>99.91704304544197</v>
       </c>
       <c r="L322" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M322" t="n">
-        <v>0.9999981380285301</v>
+        <v>0.9999979386655415</v>
       </c>
     </row>
     <row r="323">
@@ -15607,28 +15607,28 @@
         <v>9</v>
       </c>
       <c r="E323" t="n">
-        <v>16984</v>
+        <v>16983</v>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323" t="n">
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>100</v>
+        <v>99.99411522391573</v>
       </c>
       <c r="I323" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J323" t="n">
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>100</v>
+        <v>94.73684210526316</v>
       </c>
       <c r="L323" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M323" t="n">
         <v>1</v>
@@ -15675,7 +15675,7 @@
         <v>99.95796553173602</v>
       </c>
       <c r="L324" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M324" t="n">
         <v>1</v>
@@ -15698,34 +15698,34 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E325" t="n">
-        <v>16889</v>
+        <v>16891</v>
       </c>
       <c r="F325" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H325" t="n">
-        <v>99.93526746307303</v>
+        <v>99.9411522391573</v>
       </c>
       <c r="I325" t="n">
-        <v>91.17647058823529</v>
+        <v>92.92929292929293</v>
       </c>
       <c r="J325" t="n">
-        <v>97.89473684210527</v>
+        <v>96.84210526315789</v>
       </c>
       <c r="K325" t="n">
-        <v>94.41624365482234</v>
+        <v>94.84536082474226</v>
       </c>
       <c r="L325" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M325" t="n">
-        <v>0.9920438126516291</v>
+        <v>0.9928063475547406</v>
       </c>
     </row>
     <row r="326">
@@ -15745,34 +15745,34 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="E326" t="n">
-        <v>15010</v>
+        <v>15009</v>
       </c>
       <c r="F326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G326" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H326" t="n">
-        <v>99.92938268698876</v>
+        <v>99.93526746307303</v>
       </c>
       <c r="I326" t="n">
-        <v>99.89863152559553</v>
+        <v>99.84817813765183</v>
       </c>
       <c r="J326" t="n">
-        <v>99.49520444220092</v>
+        <v>99.59616355376073</v>
       </c>
       <c r="K326" t="n">
-        <v>99.69650986342944</v>
+        <v>99.72201162496842</v>
       </c>
       <c r="L326" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M326" t="n">
-        <v>0.9999762353650763</v>
+        <v>0.9999773235770286</v>
       </c>
     </row>
     <row r="327">
@@ -15816,10 +15816,10 @@
         <v>97.77777777777777</v>
       </c>
       <c r="L327" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M327" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="328">
@@ -15863,7 +15863,7 @@
         <v>100</v>
       </c>
       <c r="L328" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M328" t="n">
         <v>1</v>
@@ -15910,7 +15910,7 @@
         <v>100</v>
       </c>
       <c r="L329" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M329" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L330" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M330" t="n">
         <v>1</v>
@@ -16004,10 +16004,10 @@
         <v>100</v>
       </c>
       <c r="L331" t="n">
-        <v>573.1442000105744</v>
+        <v>332.4834380000539</v>
       </c>
       <c r="M331" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="332">
@@ -16027,7 +16027,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>11564</v>
+        <v>11566</v>
       </c>
       <c r="E332" t="n">
         <v>5417</v>
@@ -16036,25 +16036,25 @@
         <v>5</v>
       </c>
       <c r="G332" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H332" t="n">
-        <v>99.92938268698876</v>
+        <v>99.9411522391573</v>
       </c>
       <c r="I332" t="n">
-        <v>99.95678105281355</v>
+        <v>99.95678852303172</v>
       </c>
       <c r="J332" t="n">
-        <v>99.93950393224441</v>
+        <v>99.95678852303172</v>
       </c>
       <c r="K332" t="n">
-        <v>99.94814174589456</v>
+        <v>99.95678852303172</v>
       </c>
       <c r="L332" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M332" t="n">
-        <v>0.9999990914253334</v>
+        <v>0.999998937990867</v>
       </c>
     </row>
     <row r="333">
@@ -16077,31 +16077,31 @@
         <v>5417</v>
       </c>
       <c r="E333" t="n">
-        <v>11564</v>
+        <v>11566</v>
       </c>
       <c r="F333" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G333" t="n">
         <v>5</v>
       </c>
       <c r="H333" t="n">
-        <v>99.92938268698876</v>
+        <v>99.9411522391573</v>
       </c>
       <c r="I333" t="n">
-        <v>99.87094395280236</v>
+        <v>99.90778310586499</v>
       </c>
       <c r="J333" t="n">
         <v>99.90778310586499</v>
       </c>
       <c r="K333" t="n">
-        <v>99.88936013276783</v>
+        <v>99.90778310586499</v>
       </c>
       <c r="L333" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M333" t="n">
-        <v>0.9999990914253334</v>
+        <v>0.999998937990867</v>
       </c>
     </row>
     <row r="334">
@@ -16145,7 +16145,7 @@
         <v>100</v>
       </c>
       <c r="L334" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M334" t="n">
         <v>1</v>
@@ -16192,7 +16192,7 @@
         <v>100</v>
       </c>
       <c r="L335" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M335" t="n">
         <v>1</v>
@@ -16215,7 +16215,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E336" t="n">
         <v>16894</v>
@@ -16224,25 +16224,25 @@
         <v>4</v>
       </c>
       <c r="G336" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H336" t="n">
-        <v>99.96469134349438</v>
+        <v>99.95292179132585</v>
       </c>
       <c r="I336" t="n">
-        <v>95.87628865979381</v>
+        <v>95.78947368421052</v>
       </c>
       <c r="J336" t="n">
-        <v>97.89473684210527</v>
+        <v>95.78947368421052</v>
       </c>
       <c r="K336" t="n">
-        <v>96.875</v>
+        <v>95.78947368421052</v>
       </c>
       <c r="L336" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M336" t="n">
-        <v>0.9942214073952935</v>
+        <v>0.9941598515570151</v>
       </c>
     </row>
     <row r="337">
@@ -16265,31 +16265,31 @@
         <v>1979</v>
       </c>
       <c r="E337" t="n">
-        <v>15009</v>
+        <v>15008</v>
       </c>
       <c r="F337" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
       </c>
       <c r="H337" t="n">
-        <v>99.97057611957865</v>
+        <v>99.96469134349438</v>
       </c>
       <c r="I337" t="n">
-        <v>99.84863773965691</v>
+        <v>99.79828542612204</v>
       </c>
       <c r="J337" t="n">
         <v>99.89904088844018</v>
       </c>
       <c r="K337" t="n">
-        <v>99.87383295483221</v>
+        <v>99.84863773965689</v>
       </c>
       <c r="L337" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M337" t="n">
-        <v>0.9999827960158726</v>
+        <v>0.9999846753791329</v>
       </c>
     </row>
     <row r="338">
@@ -16333,10 +16333,10 @@
         <v>92.68292682926828</v>
       </c>
       <c r="L338" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M338" t="n">
-        <v>0.9707386212820995</v>
+        <v>0.9661778939217964</v>
       </c>
     </row>
     <row r="339">
@@ -16359,31 +16359,31 @@
         <v>49</v>
       </c>
       <c r="E339" t="n">
-        <v>16942</v>
+        <v>16943</v>
       </c>
       <c r="F339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
       </c>
       <c r="H339" t="n">
-        <v>99.98823044783146</v>
+        <v>99.99411522391573</v>
       </c>
       <c r="I339" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J339" t="n">
         <v>98</v>
       </c>
       <c r="K339" t="n">
-        <v>98</v>
+        <v>98.98989898989899</v>
       </c>
       <c r="L339" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M339" t="n">
-        <v>0.9837698818956885</v>
+        <v>0.9842174580684555</v>
       </c>
     </row>
     <row r="340">
@@ -16427,7 +16427,7 @@
         <v>100</v>
       </c>
       <c r="L340" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M340" t="n">
         <v>1</v>
@@ -16474,7 +16474,7 @@
         <v>100</v>
       </c>
       <c r="L341" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M341" t="n">
         <v>1</v>
@@ -16521,7 +16521,7 @@
         <v>100</v>
       </c>
       <c r="L342" t="n">
-        <v>88.85110000846907</v>
+        <v>47.52880299975004</v>
       </c>
       <c r="M342" t="n">
         <v>1</v>
@@ -16568,7 +16568,7 @@
         <v>99.89625659202905</v>
       </c>
       <c r="L343" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M343" t="n">
         <v>0.9994334674684809</v>
@@ -16615,7 +16615,7 @@
         <v>99.7788426096572</v>
       </c>
       <c r="L344" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M344" t="n">
         <v>0.9994334674684809</v>
@@ -16662,7 +16662,7 @@
         <v>100</v>
       </c>
       <c r="L345" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M345" t="n">
         <v>1</v>
@@ -16709,7 +16709,7 @@
         <v>100</v>
       </c>
       <c r="L346" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M346" t="n">
         <v>1</v>
@@ -16756,7 +16756,7 @@
         <v>93</v>
       </c>
       <c r="L347" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M347" t="n">
         <v>0.9323896748285119</v>
@@ -16803,7 +16803,7 @@
         <v>99.74709155285787</v>
       </c>
       <c r="L348" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M348" t="n">
         <v>0.9977398137276852</v>
@@ -16850,7 +16850,7 @@
         <v>82.60869565217391</v>
       </c>
       <c r="L349" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M349" t="n">
         <v>0.8324398001417951</v>
@@ -16897,7 +16897,7 @@
         <v>95.04950495049505</v>
       </c>
       <c r="L350" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M350" t="n">
         <v>0.9506470830549604</v>
@@ -16944,7 +16944,7 @@
         <v>100</v>
       </c>
       <c r="L351" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M351" t="n">
         <v>1</v>
@@ -16991,7 +16991,7 @@
         <v>99.92460417190249</v>
       </c>
       <c r="L352" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M352" t="n">
         <v>0.9992755287132835</v>
@@ -17038,7 +17038,7 @@
         <v>100</v>
       </c>
       <c r="L353" t="n">
-        <v>8.86519999767188</v>
+        <v>4.305498000121588</v>
       </c>
       <c r="M353" t="n">
         <v>1</v>
@@ -17061,34 +17061,34 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>11419</v>
+        <v>11411</v>
       </c>
       <c r="E354" t="n">
-        <v>5411</v>
+        <v>5415</v>
       </c>
       <c r="F354" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G354" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H354" t="n">
-        <v>99.04078149826398</v>
+        <v>99.01724239392691</v>
       </c>
       <c r="I354" t="n">
-        <v>99.90376202974628</v>
+        <v>99.93869329129444</v>
       </c>
       <c r="J354" t="n">
-        <v>98.68637110016421</v>
+        <v>98.61723273701494</v>
       </c>
       <c r="K354" t="n">
-        <v>99.2913351593409</v>
+        <v>99.27356561833921</v>
       </c>
       <c r="L354" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M354" t="n">
-        <v>0.9992988995286931</v>
+        <v>0.9993574020978249</v>
       </c>
     </row>
     <row r="355">
@@ -17108,34 +17108,34 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>5411</v>
+        <v>5415</v>
       </c>
       <c r="E355" t="n">
-        <v>11419</v>
+        <v>11411</v>
       </c>
       <c r="F355" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G355" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H355" t="n">
-        <v>99.04078149826398</v>
+        <v>99.01724239392691</v>
       </c>
       <c r="I355" t="n">
-        <v>97.2676613338127</v>
+        <v>97.13004484304932</v>
       </c>
       <c r="J355" t="n">
-        <v>99.79712283290299</v>
+        <v>99.87089634821099</v>
       </c>
       <c r="K355" t="n">
-        <v>98.5161583978152</v>
+        <v>98.48140401927797</v>
       </c>
       <c r="L355" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M355" t="n">
-        <v>0.9992988995286931</v>
+        <v>0.9993574020978249</v>
       </c>
     </row>
     <row r="356">
@@ -17158,28 +17158,28 @@
         <v>10</v>
       </c>
       <c r="E356" t="n">
-        <v>16978</v>
+        <v>16974</v>
       </c>
       <c r="F356" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G356" t="n">
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>99.97057611957865</v>
+        <v>99.94703701524156</v>
       </c>
       <c r="I356" t="n">
-        <v>66.66666666666666</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="J356" t="n">
         <v>100</v>
       </c>
       <c r="K356" t="n">
-        <v>80</v>
+        <v>68.96551724137932</v>
       </c>
       <c r="L356" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M356" t="n">
         <v>0.9999999999999999</v>
@@ -17226,10 +17226,10 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L357" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M357" t="n">
-        <v>0.9999420197524826</v>
+        <v>0.9995817016339118</v>
       </c>
     </row>
     <row r="358">
@@ -17249,34 +17249,34 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E358" t="n">
-        <v>16881</v>
+        <v>16880</v>
       </c>
       <c r="F358" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G358" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H358" t="n">
-        <v>99.88818925439887</v>
+        <v>99.87641970223034</v>
       </c>
       <c r="I358" t="n">
-        <v>84.54545454545455</v>
+        <v>83.63636363636363</v>
       </c>
       <c r="J358" t="n">
-        <v>97.89473684210527</v>
+        <v>96.84210526315789</v>
       </c>
       <c r="K358" t="n">
-        <v>90.73170731707316</v>
+        <v>89.7560975609756</v>
       </c>
       <c r="L358" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M358" t="n">
-        <v>0.9744701080013122</v>
+        <v>0.9728350487607116</v>
       </c>
     </row>
     <row r="359">
@@ -17296,34 +17296,34 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="E359" t="n">
-        <v>15012</v>
+        <v>15010</v>
       </c>
       <c r="F359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G359" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H359" t="n">
         <v>99.89407403048314</v>
       </c>
       <c r="I359" t="n">
-        <v>100</v>
+        <v>99.89832231825115</v>
       </c>
       <c r="J359" t="n">
-        <v>99.09136799596163</v>
+        <v>99.19232710752145</v>
       </c>
       <c r="K359" t="n">
-        <v>99.54361054766734</v>
+        <v>99.54407294832826</v>
       </c>
       <c r="L359" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M359" t="n">
-        <v>0.9999692791693073</v>
+        <v>0.9999525478059759</v>
       </c>
     </row>
     <row r="360">
@@ -17346,31 +17346,31 @@
         <v>20</v>
       </c>
       <c r="E360" t="n">
-        <v>16969</v>
+        <v>16967</v>
       </c>
       <c r="F360" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>99.97646089566292</v>
+        <v>99.96469134349438</v>
       </c>
       <c r="I360" t="n">
-        <v>86.95652173913044</v>
+        <v>80</v>
       </c>
       <c r="J360" t="n">
         <v>95.23809523809523</v>
       </c>
       <c r="K360" t="n">
-        <v>90.90909090909089</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="L360" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M360" t="n">
-        <v>0.9414464558610698</v>
+        <v>0.9209478952335827</v>
       </c>
     </row>
     <row r="361">
@@ -17390,34 +17390,34 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E361" t="n">
-        <v>16928</v>
+        <v>16918</v>
       </c>
       <c r="F361" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G361" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H361" t="n">
-        <v>99.86465015006179</v>
+        <v>99.83522626964044</v>
       </c>
       <c r="I361" t="n">
-        <v>73.68421052631578</v>
+        <v>65.27777777777779</v>
       </c>
       <c r="J361" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K361" t="n">
-        <v>78.50467289719626</v>
+        <v>77.04918032786885</v>
       </c>
       <c r="L361" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M361" t="n">
-        <v>0.87540706751606</v>
+        <v>0.8912331894075353</v>
       </c>
     </row>
     <row r="362">
@@ -17461,7 +17461,7 @@
         <v>98.96907216494846</v>
       </c>
       <c r="L362" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M362" t="n">
         <v>1</v>
@@ -17484,34 +17484,34 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="E363" t="n">
-        <v>14877</v>
+        <v>14898</v>
       </c>
       <c r="F363" t="n">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G363" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H363" t="n">
-        <v>99.24674866121343</v>
+        <v>99.34090507856176</v>
       </c>
       <c r="I363" t="n">
-        <v>93.9952718676123</v>
+        <v>94.92580181905218</v>
       </c>
       <c r="J363" t="n">
-        <v>99.94972347913524</v>
+        <v>99.69834087481146</v>
       </c>
       <c r="K363" t="n">
-        <v>96.88109161793372</v>
+        <v>97.25355566454145</v>
       </c>
       <c r="L363" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M363" t="n">
-        <v>0.9653236118292849</v>
+        <v>0.9660068920736008</v>
       </c>
     </row>
     <row r="364">
@@ -17555,7 +17555,7 @@
         <v>98.7012987012987</v>
       </c>
       <c r="L364" t="n">
-        <v>22.24789999308996</v>
+        <v>9.406454999862035</v>
       </c>
       <c r="M364" t="n">
         <v>0.9999999999999999</v>
@@ -17602,7 +17602,7 @@
         <v>99.89624762234133</v>
       </c>
       <c r="L365" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M365" t="n">
         <v>0.9996742120503934</v>
@@ -17649,7 +17649,7 @@
         <v>99.77888336097293</v>
       </c>
       <c r="L366" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M366" t="n">
         <v>0.9996742120503934</v>
@@ -17696,7 +17696,7 @@
         <v>68.96551724137932</v>
       </c>
       <c r="L367" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M367" t="n">
         <v>0.8333333333333333</v>
@@ -17743,7 +17743,7 @@
         <v>99.91582491582491</v>
       </c>
       <c r="L368" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M368" t="n">
         <v>0.9996085487572535</v>
@@ -17790,7 +17790,7 @@
         <v>89.47368421052632</v>
       </c>
       <c r="L369" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M369" t="n">
         <v>0.9231922364634061</v>
@@ -17837,7 +17837,7 @@
         <v>99.67229644567684</v>
       </c>
       <c r="L370" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M370" t="n">
         <v>0.9975547931114793</v>
@@ -17884,7 +17884,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L371" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M371" t="n">
         <v>0.9504385730473344</v>
@@ -17931,7 +17931,7 @@
         <v>95.91836734693877</v>
       </c>
       <c r="L372" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M372" t="n">
         <v>0.9584966049745973</v>
@@ -17978,7 +17978,7 @@
         <v>97.95918367346938</v>
       </c>
       <c r="L373" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M373" t="n">
         <v>0.9796212606151152</v>
@@ -18025,7 +18025,7 @@
         <v>100</v>
       </c>
       <c r="L374" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M374" t="n">
         <v>1</v>
@@ -18072,7 +18072,7 @@
         <v>100</v>
       </c>
       <c r="L375" t="n">
-        <v>381.4066000049934</v>
+        <v>259.1148439996687</v>
       </c>
       <c r="M375" t="n">
         <v>1</v>
@@ -18095,7 +18095,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>11566</v>
+        <v>11564</v>
       </c>
       <c r="E376" t="n">
         <v>5419</v>
@@ -18104,25 +18104,25 @@
         <v>3</v>
       </c>
       <c r="G376" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H376" t="n">
-        <v>99.95292179132585</v>
+        <v>99.9411522391573</v>
       </c>
       <c r="I376" t="n">
-        <v>99.97406863168813</v>
+        <v>99.97406414800726</v>
       </c>
       <c r="J376" t="n">
-        <v>99.95678852303172</v>
+        <v>99.93950393224441</v>
       </c>
       <c r="K376" t="n">
-        <v>99.96542783059637</v>
+        <v>99.95678105281355</v>
       </c>
       <c r="L376" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M376" t="n">
-        <v>0.999998087883365</v>
+        <v>0.9999979441135911</v>
       </c>
     </row>
     <row r="377">
@@ -18145,31 +18145,31 @@
         <v>5419</v>
       </c>
       <c r="E377" t="n">
-        <v>11566</v>
+        <v>11564</v>
       </c>
       <c r="F377" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
       </c>
       <c r="H377" t="n">
-        <v>99.95292179132585</v>
+        <v>99.9411522391573</v>
       </c>
       <c r="I377" t="n">
-        <v>99.90781710914455</v>
+        <v>99.87099152230003</v>
       </c>
       <c r="J377" t="n">
         <v>99.944669863519</v>
       </c>
       <c r="K377" t="n">
-        <v>99.9262400885119</v>
+        <v>99.90781710914453</v>
       </c>
       <c r="L377" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M377" t="n">
-        <v>0.999998087883365</v>
+        <v>0.9999979441135911</v>
       </c>
     </row>
     <row r="378">
@@ -18213,7 +18213,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L378" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M378" t="n">
         <v>0.9999999999999999</v>
@@ -18260,7 +18260,7 @@
         <v>100</v>
       </c>
       <c r="L379" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M379" t="n">
         <v>1</v>
@@ -18283,7 +18283,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E380" t="n">
         <v>16892</v>
@@ -18292,25 +18292,25 @@
         <v>6</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H380" t="n">
-        <v>99.95880656741011</v>
+        <v>99.95292179132585</v>
       </c>
       <c r="I380" t="n">
-        <v>94</v>
+        <v>93.93939393939394</v>
       </c>
       <c r="J380" t="n">
-        <v>98.94736842105263</v>
+        <v>97.89473684210527</v>
       </c>
       <c r="K380" t="n">
-        <v>96.41025641025639</v>
+        <v>95.87628865979383</v>
       </c>
       <c r="L380" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M380" t="n">
-        <v>0.9938628475969389</v>
+        <v>0.9937290652230722</v>
       </c>
     </row>
     <row r="381">
@@ -18330,7 +18330,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="E381" t="n">
         <v>15011</v>
@@ -18339,25 +18339,25 @@
         <v>1</v>
       </c>
       <c r="G381" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H381" t="n">
-        <v>99.96469134349438</v>
+        <v>99.97057611957865</v>
       </c>
       <c r="I381" t="n">
-        <v>99.94941831057157</v>
+        <v>99.94944388270982</v>
       </c>
       <c r="J381" t="n">
-        <v>99.74760222110045</v>
+        <v>99.79808177688037</v>
       </c>
       <c r="K381" t="n">
-        <v>99.84840828701364</v>
+        <v>99.87370548118211</v>
       </c>
       <c r="L381" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M381" t="n">
-        <v>0.9999874776450781</v>
+        <v>0.9999866963106137</v>
       </c>
     </row>
     <row r="382">
@@ -18401,10 +18401,10 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L382" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M382" t="n">
-        <v>0.9806722689075631</v>
+        <v>0.9798752834467119</v>
       </c>
     </row>
     <row r="383">
@@ -18448,10 +18448,10 @@
         <v>96.90721649484536</v>
       </c>
       <c r="L383" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M383" t="n">
-        <v>0.9796674423813669</v>
+        <v>0.9796710635054474</v>
       </c>
     </row>
     <row r="384">
@@ -18495,7 +18495,7 @@
         <v>100</v>
       </c>
       <c r="L384" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M384" t="n">
         <v>1</v>
@@ -18542,10 +18542,10 @@
         <v>99.9497487437186</v>
       </c>
       <c r="L385" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M385" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -18589,10 +18589,10 @@
         <v>100</v>
       </c>
       <c r="L386" t="n">
-        <v>501.7799000052037</v>
+        <v>320.6373809998695</v>
       </c>
       <c r="M386" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="387">
@@ -18636,10 +18636,10 @@
         <v>99.97407535430348</v>
       </c>
       <c r="L387" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M387" t="n">
-        <v>0.9999980130162648</v>
+        <v>0.9999985917764004</v>
       </c>
     </row>
     <row r="388">
@@ -18683,10 +18683,10 @@
         <v>99.94465965688987</v>
       </c>
       <c r="L388" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M388" t="n">
-        <v>0.9999980130162648</v>
+        <v>0.9999985917764004</v>
       </c>
     </row>
     <row r="389">
@@ -18730,7 +18730,7 @@
         <v>100</v>
       </c>
       <c r="L389" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M389" t="n">
         <v>1</v>
@@ -18777,7 +18777,7 @@
         <v>100</v>
       </c>
       <c r="L390" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M390" t="n">
         <v>1</v>
@@ -18803,31 +18803,31 @@
         <v>95</v>
       </c>
       <c r="E391" t="n">
-        <v>16894</v>
+        <v>16895</v>
       </c>
       <c r="F391" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G391" t="n">
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>99.97646089566292</v>
+        <v>99.98234567174718</v>
       </c>
       <c r="I391" t="n">
-        <v>95.95959595959596</v>
+        <v>96.93877551020408</v>
       </c>
       <c r="J391" t="n">
         <v>100</v>
       </c>
       <c r="K391" t="n">
-        <v>97.9381443298969</v>
+        <v>98.44559585492229</v>
       </c>
       <c r="L391" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M391" t="n">
-        <v>0.9992247929702121</v>
+        <v>0.9995647121388879</v>
       </c>
     </row>
     <row r="392">
@@ -18871,10 +18871,10 @@
         <v>99.84840828701364</v>
       </c>
       <c r="L392" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M392" t="n">
-        <v>0.9997543432954259</v>
+        <v>0.9997556783397759</v>
       </c>
     </row>
     <row r="393">
@@ -18918,7 +18918,7 @@
         <v>100</v>
       </c>
       <c r="L393" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M393" t="n">
         <v>1</v>
@@ -18965,7 +18965,7 @@
         <v>100</v>
       </c>
       <c r="L394" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M394" t="n">
         <v>1</v>
@@ -19012,7 +19012,7 @@
         <v>100</v>
       </c>
       <c r="L395" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M395" t="n">
         <v>1</v>
@@ -19059,7 +19059,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L396" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M396" t="n">
         <v>1</v>
@@ -19106,10 +19106,10 @@
         <v>95.8904109589041</v>
       </c>
       <c r="L397" t="n">
-        <v>88.51790000335313</v>
+        <v>46.55909299981431</v>
       </c>
       <c r="M397" t="n">
-        <v>0.9958756851684317</v>
+        <v>0.9980503851091143</v>
       </c>
     </row>
     <row r="398">
@@ -19153,7 +19153,7 @@
         <v>99.90491009681882</v>
       </c>
       <c r="L398" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M398" t="n">
         <v>0.999474330408112</v>
@@ -19200,7 +19200,7 @@
         <v>99.79723502304147</v>
       </c>
       <c r="L399" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M399" t="n">
         <v>0.999474330408112</v>
@@ -19247,7 +19247,7 @@
         <v>83.33333333333333</v>
       </c>
       <c r="L400" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M400" t="n">
         <v>0.8571428571428572</v>
@@ -19294,7 +19294,7 @@
         <v>100</v>
       </c>
       <c r="L401" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M401" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         <v>94.79166666666666</v>
       </c>
       <c r="L402" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M402" t="n">
         <v>0.9548932375059874</v>
@@ -19388,7 +19388,7 @@
         <v>99.72201162496842</v>
       </c>
       <c r="L403" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M403" t="n">
         <v>0.9978973265586019</v>
@@ -19435,7 +19435,7 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L404" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M404" t="n">
         <v>0.8344965440618272</v>
@@ -19482,7 +19482,7 @@
         <v>96.07843137254902</v>
       </c>
       <c r="L405" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M405" t="n">
         <v>0.9610054761300585</v>
@@ -19529,7 +19529,7 @@
         <v>98.98989898989899</v>
       </c>
       <c r="L406" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M406" t="n">
         <v>0.99</v>
@@ -19576,7 +19576,7 @@
         <v>100</v>
       </c>
       <c r="L407" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M407" t="n">
         <v>1</v>
@@ -19623,7 +19623,7 @@
         <v>95.99999999999999</v>
       </c>
       <c r="L408" t="n">
-        <v>8.601699999417178</v>
+        <v>4.296606000025349</v>
       </c>
       <c r="M408" t="n">
         <v>0.960229544773645</v>
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>11402</v>
+        <v>11431</v>
       </c>
       <c r="E409" t="n">
         <v>5416</v>
@@ -19655,25 +19655,25 @@
         <v>6</v>
       </c>
       <c r="G409" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="H409" t="n">
-        <v>98.97016418525276</v>
+        <v>99.14082269169658</v>
       </c>
       <c r="I409" t="n">
-        <v>99.94740532959327</v>
+        <v>99.94753869021596</v>
       </c>
       <c r="J409" t="n">
-        <v>98.53945207847204</v>
+        <v>98.79007864488808</v>
       </c>
       <c r="K409" t="n">
-        <v>99.23843509291092</v>
+        <v>99.365438108484</v>
       </c>
       <c r="L409" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M409" t="n">
-        <v>0.9994398483494394</v>
+        <v>0.9995585052012542</v>
       </c>
     </row>
     <row r="410">
@@ -19696,31 +19696,31 @@
         <v>5416</v>
       </c>
       <c r="E410" t="n">
-        <v>11402</v>
+        <v>11431</v>
       </c>
       <c r="F410" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G410" t="n">
         <v>6</v>
       </c>
       <c r="H410" t="n">
-        <v>98.97016418525276</v>
+        <v>99.14082269169658</v>
       </c>
       <c r="I410" t="n">
-        <v>96.9740376007162</v>
+        <v>97.4802015838733</v>
       </c>
       <c r="J410" t="n">
         <v>99.88933972703799</v>
       </c>
       <c r="K410" t="n">
-        <v>98.4101026619424</v>
+        <v>98.67006740754236</v>
       </c>
       <c r="L410" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M410" t="n">
-        <v>0.9994398483494394</v>
+        <v>0.9995585052012542</v>
       </c>
     </row>
     <row r="411">
@@ -19743,31 +19743,31 @@
         <v>10</v>
       </c>
       <c r="E411" t="n">
-        <v>16969</v>
+        <v>16978</v>
       </c>
       <c r="F411" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G411" t="n">
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>99.91761313482021</v>
+        <v>99.97057611957865</v>
       </c>
       <c r="I411" t="n">
-        <v>41.66666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="J411" t="n">
         <v>100</v>
       </c>
       <c r="K411" t="n">
-        <v>58.82352941176471</v>
+        <v>80</v>
       </c>
       <c r="L411" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M411" t="n">
-        <v>0.75255772005772</v>
+        <v>0.7446789321789322</v>
       </c>
     </row>
     <row r="412">
@@ -19811,10 +19811,10 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L412" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M412" t="n">
-        <v>0.9999589406765109</v>
+        <v>0.9999888279878706</v>
       </c>
     </row>
     <row r="413">
@@ -19858,10 +19858,10 @@
         <v>91.37055837563452</v>
       </c>
       <c r="L413" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M413" t="n">
-        <v>0.9671805685463455</v>
+        <v>0.9766280630513582</v>
       </c>
     </row>
     <row r="414">
@@ -19881,34 +19881,34 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E414" t="n">
-        <v>15003</v>
+        <v>15007</v>
       </c>
       <c r="F414" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G414" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H414" t="n">
-        <v>99.88230447831459</v>
+        <v>99.91172835873596</v>
       </c>
       <c r="I414" t="n">
-        <v>99.54522486104092</v>
+        <v>99.74696356275304</v>
       </c>
       <c r="J414" t="n">
-        <v>99.444724886421</v>
+        <v>99.49520444220092</v>
       </c>
       <c r="K414" t="n">
-        <v>99.49494949494951</v>
+        <v>99.62092494313873</v>
       </c>
       <c r="L414" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M414" t="n">
-        <v>0.9998467147382817</v>
+        <v>0.9999621900699078</v>
       </c>
     </row>
     <row r="415">
@@ -19928,34 +19928,34 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E415" t="n">
-        <v>16967</v>
+        <v>16969</v>
       </c>
       <c r="F415" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H415" t="n">
-        <v>99.97057611957865</v>
+        <v>99.97646089566292</v>
       </c>
       <c r="I415" t="n">
-        <v>80.76923076923077</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="J415" t="n">
-        <v>100</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="K415" t="n">
-        <v>89.36170212765957</v>
+        <v>90.90909090909089</v>
       </c>
       <c r="L415" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M415" t="n">
-        <v>0.995459699031128</v>
+        <v>0.993918219461698</v>
       </c>
     </row>
     <row r="416">
@@ -19975,34 +19975,34 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E416" t="n">
-        <v>16920</v>
+        <v>16932</v>
       </c>
       <c r="F416" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G416" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H416" t="n">
-        <v>99.81168716530337</v>
+        <v>99.88818925439887</v>
       </c>
       <c r="I416" t="n">
-        <v>64.0625</v>
+        <v>79.24528301886792</v>
       </c>
       <c r="J416" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K416" t="n">
-        <v>71.92982456140351</v>
+        <v>81.55339805825243</v>
       </c>
       <c r="L416" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M416" t="n">
-        <v>0.8933178074024587</v>
+        <v>0.9322909677865299</v>
       </c>
     </row>
     <row r="417">
@@ -20046,10 +20046,10 @@
         <v>97.95918367346938</v>
       </c>
       <c r="L417" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M417" t="n">
-        <v>0.9853969658038655</v>
+        <v>0.9962267958030669</v>
       </c>
     </row>
     <row r="418">
@@ -20072,31 +20072,31 @@
         <v>1987</v>
       </c>
       <c r="E418" t="n">
-        <v>14898</v>
+        <v>14887</v>
       </c>
       <c r="F418" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
       </c>
       <c r="H418" t="n">
-        <v>99.36444418289884</v>
+        <v>99.29971164597187</v>
       </c>
       <c r="I418" t="n">
-        <v>94.93549928332537</v>
+        <v>94.43916349809885</v>
       </c>
       <c r="J418" t="n">
         <v>99.89944695827049</v>
       </c>
       <c r="K418" t="n">
-        <v>97.35423811856933</v>
+        <v>97.09259711702907</v>
       </c>
       <c r="L418" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M418" t="n">
-        <v>0.9679564557079077</v>
+        <v>0.9767113675537343</v>
       </c>
     </row>
     <row r="419">
@@ -20140,10 +20140,10 @@
         <v>98.7012987012987</v>
       </c>
       <c r="L419" t="n">
-        <v>22.22919999621809</v>
+        <v>9.540275999825099</v>
       </c>
       <c r="M419" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="420">
@@ -20187,7 +20187,7 @@
         <v>99.90917347865576</v>
       </c>
       <c r="L420" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M420" t="n">
         <v>0.9997928944660879</v>
@@ -20234,7 +20234,7 @@
         <v>99.80671882190521</v>
       </c>
       <c r="L421" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M421" t="n">
         <v>0.9997928944660879</v>
@@ -20281,7 +20281,7 @@
         <v>76.92307692307693</v>
       </c>
       <c r="L422" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M422" t="n">
         <v>0.8333333333333333</v>
@@ -20328,7 +20328,7 @@
         <v>100</v>
       </c>
       <c r="L423" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M423" t="n">
         <v>1</v>
@@ -20375,7 +20375,7 @@
         <v>90.42553191489361</v>
       </c>
       <c r="L424" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M424" t="n">
         <v>0.9391287810439859</v>
@@ -20422,7 +20422,7 @@
         <v>99.5721117543418</v>
       </c>
       <c r="L425" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M425" t="n">
         <v>0.9980551668621854</v>
@@ -20469,7 +20469,7 @@
         <v>90.90909090909089</v>
       </c>
       <c r="L426" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M426" t="n">
         <v>0.923942019221588</v>
@@ -20516,7 +20516,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L427" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M427" t="n">
         <v>0.9545454545454546</v>
@@ -20563,7 +20563,7 @@
         <v>100</v>
       </c>
       <c r="L428" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M428" t="n">
         <v>1</v>
@@ -20610,7 +20610,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L429" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M429" t="n">
         <v>0.9997780412760976</v>
@@ -20657,7 +20657,7 @@
         <v>100</v>
       </c>
       <c r="L430" t="n">
-        <v>414.0071000001626</v>
+        <v>264.4610499996816</v>
       </c>
       <c r="M430" t="n">
         <v>1</v>
@@ -20680,7 +20680,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>11563</v>
+        <v>11564</v>
       </c>
       <c r="E431" t="n">
         <v>5422</v>
@@ -20689,25 +20689,25 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H431" t="n">
-        <v>99.95292179132585</v>
+        <v>99.95880656741011</v>
       </c>
       <c r="I431" t="n">
         <v>100</v>
       </c>
       <c r="J431" t="n">
-        <v>99.93086163685075</v>
+        <v>99.93950393224441</v>
       </c>
       <c r="K431" t="n">
-        <v>99.96541886400968</v>
+        <v>99.9697428139183</v>
       </c>
       <c r="L431" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M431" t="n">
-        <v>0.9999996790788612</v>
+        <v>0.9999996941095238</v>
       </c>
     </row>
     <row r="432">
@@ -20730,31 +20730,31 @@
         <v>5422</v>
       </c>
       <c r="E432" t="n">
-        <v>11563</v>
+        <v>11564</v>
       </c>
       <c r="F432" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G432" t="n">
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>99.95292179132585</v>
+        <v>99.95880656741011</v>
       </c>
       <c r="I432" t="n">
-        <v>99.85267034990792</v>
+        <v>99.87106281083072</v>
       </c>
       <c r="J432" t="n">
         <v>100</v>
       </c>
       <c r="K432" t="n">
-        <v>99.92628086988574</v>
+        <v>99.93548981660678</v>
       </c>
       <c r="L432" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M432" t="n">
-        <v>0.9999996790788612</v>
+        <v>0.9999996941095238</v>
       </c>
     </row>
     <row r="433">
@@ -20777,28 +20777,28 @@
         <v>10</v>
       </c>
       <c r="E433" t="n">
-        <v>16980</v>
+        <v>16979</v>
       </c>
       <c r="F433" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G433" t="n">
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>99.98234567174718</v>
+        <v>99.97646089566292</v>
       </c>
       <c r="I433" t="n">
-        <v>76.92307692307693</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="J433" t="n">
         <v>100</v>
       </c>
       <c r="K433" t="n">
-        <v>86.95652173913044</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="L433" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M433" t="n">
         <v>0.9999999999999999</v>
@@ -20845,7 +20845,7 @@
         <v>100</v>
       </c>
       <c r="L434" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M434" t="n">
         <v>1</v>
@@ -20868,7 +20868,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E435" t="n">
         <v>16895</v>
@@ -20877,25 +20877,25 @@
         <v>3</v>
       </c>
       <c r="G435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H435" t="n">
-        <v>99.97057611957865</v>
+        <v>99.97646089566292</v>
       </c>
       <c r="I435" t="n">
-        <v>96.875</v>
+        <v>96.90721649484536</v>
       </c>
       <c r="J435" t="n">
-        <v>97.89473684210527</v>
+        <v>98.94736842105263</v>
       </c>
       <c r="K435" t="n">
-        <v>97.38219895287958</v>
+        <v>97.91666666666666</v>
       </c>
       <c r="L435" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M435" t="n">
-        <v>0.9967936147509314</v>
+        <v>0.9965724485373126</v>
       </c>
     </row>
     <row r="436">
@@ -20918,31 +20918,31 @@
         <v>1977</v>
       </c>
       <c r="E436" t="n">
-        <v>15009</v>
+        <v>15011</v>
       </c>
       <c r="F436" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G436" t="n">
         <v>4</v>
       </c>
       <c r="H436" t="n">
-        <v>99.95880656741011</v>
+        <v>99.97057611957865</v>
       </c>
       <c r="I436" t="n">
-        <v>99.84848484848486</v>
+        <v>99.94944388270982</v>
       </c>
       <c r="J436" t="n">
         <v>99.79808177688037</v>
       </c>
       <c r="K436" t="n">
-        <v>99.82327695026508</v>
+        <v>99.87370548118211</v>
       </c>
       <c r="L436" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M436" t="n">
-        <v>0.9998894798980309</v>
+        <v>0.9999606675548909</v>
       </c>
     </row>
     <row r="437">
@@ -20986,10 +20986,10 @@
         <v>97.67441860465117</v>
       </c>
       <c r="L437" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M437" t="n">
-        <v>0.995459699031128</v>
+        <v>0.9954596990311277</v>
       </c>
     </row>
     <row r="438">
@@ -21033,10 +21033,10 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L438" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M438" t="n">
-        <v>0.9988191461199865</v>
+        <v>0.9991998399359744</v>
       </c>
     </row>
     <row r="439">
@@ -21080,7 +21080,7 @@
         <v>100</v>
       </c>
       <c r="L439" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M439" t="n">
         <v>1</v>
@@ -21127,7 +21127,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L440" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M440" t="n">
         <v>1</v>
@@ -21174,7 +21174,7 @@
         <v>100</v>
       </c>
       <c r="L441" t="n">
-        <v>533.7763999996241</v>
+        <v>325.1334569999926</v>
       </c>
       <c r="M441" t="n">
         <v>1</v>
@@ -21200,31 +21200,31 @@
         <v>11570</v>
       </c>
       <c r="E442" t="n">
-        <v>5411</v>
+        <v>5413</v>
       </c>
       <c r="F442" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
       </c>
       <c r="H442" t="n">
-        <v>99.935263653484</v>
+        <v>99.94703389830508</v>
       </c>
       <c r="I442" t="n">
-        <v>99.91364421416235</v>
+        <v>99.93090343755398</v>
       </c>
       <c r="J442" t="n">
         <v>99.99135770460634</v>
       </c>
       <c r="K442" t="n">
-        <v>99.95248585374281</v>
+        <v>99.96112143073135</v>
       </c>
       <c r="L442" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M442" t="n">
-        <v>0.9999981565089446</v>
+        <v>0.9999986569239622</v>
       </c>
     </row>
     <row r="443">
@@ -21244,7 +21244,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>5411</v>
+        <v>5413</v>
       </c>
       <c r="E443" t="n">
         <v>11570</v>
@@ -21253,25 +21253,25 @@
         <v>1</v>
       </c>
       <c r="G443" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H443" t="n">
-        <v>99.935263653484</v>
+        <v>99.94703389830508</v>
       </c>
       <c r="I443" t="n">
-        <v>99.98152254249814</v>
+        <v>99.98152936830439</v>
       </c>
       <c r="J443" t="n">
-        <v>99.8155321896329</v>
+        <v>99.85242575170633</v>
       </c>
       <c r="K443" t="n">
-        <v>99.89845841410504</v>
+        <v>99.91693585602215</v>
       </c>
       <c r="L443" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M443" t="n">
-        <v>0.9999981565089446</v>
+        <v>0.9999986569239622</v>
       </c>
     </row>
     <row r="444">
@@ -21315,10 +21315,10 @@
         <v>94.11764705882352</v>
       </c>
       <c r="L444" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M444" t="n">
-        <v>0.9111405367231638</v>
+        <v>0.9082419859985261</v>
       </c>
     </row>
     <row r="445">
@@ -21341,28 +21341,28 @@
         <v>1189</v>
       </c>
       <c r="E445" t="n">
-        <v>15801</v>
+        <v>15800</v>
       </c>
       <c r="F445" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G445" t="n">
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>99.98822975517891</v>
+        <v>99.98234463276836</v>
       </c>
       <c r="I445" t="n">
-        <v>99.8320738874895</v>
+        <v>99.74832214765101</v>
       </c>
       <c r="J445" t="n">
         <v>100</v>
       </c>
       <c r="K445" t="n">
-        <v>99.91596638655462</v>
+        <v>99.8740025199496</v>
       </c>
       <c r="L445" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M445" t="n">
         <v>1</v>
@@ -21388,31 +21388,31 @@
         <v>94</v>
       </c>
       <c r="E446" t="n">
-        <v>16893</v>
+        <v>16892</v>
       </c>
       <c r="F446" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
       </c>
       <c r="H446" t="n">
-        <v>99.97057438794727</v>
+        <v>99.96468926553672</v>
       </c>
       <c r="I446" t="n">
-        <v>95.91836734693877</v>
+        <v>94.94949494949495</v>
       </c>
       <c r="J446" t="n">
         <v>98.94736842105263</v>
       </c>
       <c r="K446" t="n">
-        <v>97.40932642487047</v>
+        <v>96.90721649484537</v>
       </c>
       <c r="L446" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M446" t="n">
-        <v>0.997881972617476</v>
+        <v>0.9984679327125212</v>
       </c>
     </row>
     <row r="447">
@@ -21432,7 +21432,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E447" t="n">
         <v>15010</v>
@@ -21441,25 +21441,25 @@
         <v>1</v>
       </c>
       <c r="G447" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H447" t="n">
-        <v>99.94703389830508</v>
+        <v>99.94114877589453</v>
       </c>
       <c r="I447" t="n">
-        <v>99.94934143870314</v>
+        <v>99.94931576279778</v>
       </c>
       <c r="J447" t="n">
-        <v>99.59616355376073</v>
+        <v>99.54568399798082</v>
       </c>
       <c r="K447" t="n">
-        <v>99.77243994943109</v>
+        <v>99.74709155285787</v>
       </c>
       <c r="L447" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M447" t="n">
-        <v>0.9999723379496104</v>
+        <v>0.9997462885161331</v>
       </c>
     </row>
     <row r="448">
@@ -21479,7 +21479,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E448" t="n">
         <v>16970</v>
@@ -21488,25 +21488,25 @@
         <v>0</v>
       </c>
       <c r="G448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H448" t="n">
-        <v>99.99411487758945</v>
+        <v>99.98822975517891</v>
       </c>
       <c r="I448" t="n">
         <v>100</v>
       </c>
       <c r="J448" t="n">
-        <v>95.45454545454545</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="K448" t="n">
-        <v>97.67441860465117</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="L448" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M448" t="n">
-        <v>0.9961297760210803</v>
+        <v>0.9961297760210802</v>
       </c>
     </row>
     <row r="449">
@@ -21550,10 +21550,10 @@
         <v>97.95918367346938</v>
       </c>
       <c r="L449" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M449" t="n">
-        <v>0.9991996798719488</v>
+        <v>0.9984307692307692</v>
       </c>
     </row>
     <row r="450">
@@ -21597,7 +21597,7 @@
         <v>98.96907216494846</v>
       </c>
       <c r="L450" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M450" t="n">
         <v>1</v>
@@ -21644,10 +21644,10 @@
         <v>99.89934574735783</v>
       </c>
       <c r="L451" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M451" t="n">
-        <v>0.9995476278179843</v>
+        <v>0.9995471391308749</v>
       </c>
     </row>
     <row r="452">
@@ -21691,7 +21691,7 @@
         <v>100</v>
       </c>
       <c r="L452" t="n">
-        <v>90.94460000051185</v>
+        <v>46.6970150000634</v>
       </c>
       <c r="M452" t="n">
         <v>1</v>
@@ -21738,7 +21738,7 @@
         <v>99.79665123523557</v>
       </c>
       <c r="L453" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M453" t="n">
         <v>0.9993631998336039</v>
@@ -21785,7 +21785,7 @@
         <v>99.56765706926686</v>
       </c>
       <c r="L454" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M454" t="n">
         <v>0.9993631998336039</v>
@@ -21832,7 +21832,7 @@
         <v>88.88888888888889</v>
       </c>
       <c r="L455" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M455" t="n">
         <v>0.8889183145009416</v>
@@ -21879,7 +21879,7 @@
         <v>100</v>
       </c>
       <c r="L456" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M456" t="n">
         <v>1</v>
@@ -21926,7 +21926,7 @@
         <v>89.8989898989899</v>
       </c>
       <c r="L457" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M457" t="n">
         <v>0.9006364412553517</v>
@@ -21973,7 +21973,7 @@
         <v>99.54499494438828</v>
       </c>
       <c r="L458" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M458" t="n">
         <v>0.9958053466560661</v>
@@ -22020,7 +22020,7 @@
         <v>89.36170212765958</v>
       </c>
       <c r="L459" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M459" t="n">
         <v>0.9519715743723833</v>
@@ -22067,7 +22067,7 @@
         <v>100</v>
       </c>
       <c r="L460" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M460" t="n">
         <v>1</v>
@@ -22114,7 +22114,7 @@
         <v>98.96907216494846</v>
       </c>
       <c r="L461" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M461" t="n">
         <v>0.9898253439793997</v>
@@ -22161,7 +22161,7 @@
         <v>99.35064935064935</v>
       </c>
       <c r="L462" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M462" t="n">
         <v>0.9967076987949852</v>
@@ -22208,7 +22208,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L463" t="n">
-        <v>8.94960000005085</v>
+        <v>4.314280000016879</v>
       </c>
       <c r="M463" t="n">
         <v>0.9865159120985393</v>
@@ -22231,34 +22231,34 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>11413</v>
+        <v>11394</v>
       </c>
       <c r="E464" t="n">
-        <v>5409</v>
+        <v>5411</v>
       </c>
       <c r="F464" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G464" t="n">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="H464" t="n">
-        <v>98.99952919020716</v>
+        <v>98.89948210922788</v>
       </c>
       <c r="I464" t="n">
-        <v>99.89496717724289</v>
+        <v>99.91231146965977</v>
       </c>
       <c r="J464" t="n">
-        <v>98.63451732780226</v>
+        <v>98.47031371532279</v>
       </c>
       <c r="K464" t="n">
-        <v>99.2607409984345</v>
+        <v>99.1860718171926</v>
       </c>
       <c r="L464" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M464" t="n">
-        <v>0.9990303729138228</v>
+        <v>0.9987465588818266</v>
       </c>
     </row>
     <row r="465">
@@ -22278,34 +22278,34 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>5409</v>
+        <v>5411</v>
       </c>
       <c r="E465" t="n">
-        <v>11413</v>
+        <v>11394</v>
       </c>
       <c r="F465" t="n">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G465" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H465" t="n">
-        <v>98.99952919020716</v>
+        <v>98.89948210922788</v>
       </c>
       <c r="I465" t="n">
-        <v>97.16184659601221</v>
+        <v>96.83249821045096</v>
       </c>
       <c r="J465" t="n">
-        <v>99.77863862755949</v>
+        <v>99.8155321896329</v>
       </c>
       <c r="K465" t="n">
-        <v>98.45285766290498</v>
+        <v>98.30138977200473</v>
       </c>
       <c r="L465" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M465" t="n">
-        <v>0.9990303729138228</v>
+        <v>0.9987465588818266</v>
       </c>
     </row>
     <row r="466">
@@ -22328,31 +22328,31 @@
         <v>8</v>
       </c>
       <c r="E466" t="n">
-        <v>16978</v>
+        <v>16968</v>
       </c>
       <c r="F466" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
       </c>
       <c r="H466" t="n">
-        <v>99.96468926553672</v>
+        <v>99.90583804143127</v>
       </c>
       <c r="I466" t="n">
-        <v>61.53846153846154</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="J466" t="n">
         <v>88.88888888888889</v>
       </c>
       <c r="K466" t="n">
-        <v>72.72727272727273</v>
+        <v>50</v>
       </c>
       <c r="L466" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M466" t="n">
-        <v>0.8889445212518031</v>
+        <v>0.8889446098721872</v>
       </c>
     </row>
     <row r="467">
@@ -22375,31 +22375,31 @@
         <v>1189</v>
       </c>
       <c r="E467" t="n">
-        <v>15802</v>
+        <v>15800</v>
       </c>
       <c r="F467" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G467" t="n">
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>99.99411487758945</v>
+        <v>99.98234463276836</v>
       </c>
       <c r="I467" t="n">
-        <v>99.91596638655463</v>
+        <v>99.74832214765101</v>
       </c>
       <c r="J467" t="n">
         <v>100</v>
       </c>
       <c r="K467" t="n">
-        <v>99.95796553173602</v>
+        <v>99.8740025199496</v>
       </c>
       <c r="L467" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M467" t="n">
-        <v>0.9993809315198325</v>
+        <v>0.9984133139289911</v>
       </c>
     </row>
     <row r="468">
@@ -22422,31 +22422,31 @@
         <v>95</v>
       </c>
       <c r="E468" t="n">
-        <v>16885</v>
+        <v>16873</v>
       </c>
       <c r="F468" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G468" t="n">
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>99.92937853107344</v>
+        <v>99.85875706214689</v>
       </c>
       <c r="I468" t="n">
+        <v>79.83193277310924</v>
+      </c>
+      <c r="J468" t="n">
+        <v>100</v>
+      </c>
+      <c r="K468" t="n">
         <v>88.78504672897196</v>
       </c>
-      <c r="J468" t="n">
-        <v>100</v>
-      </c>
-      <c r="K468" t="n">
-        <v>94.05940594059405</v>
-      </c>
       <c r="L468" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M468" t="n">
-        <v>0.9842985408300569</v>
+        <v>0.9770346553089657</v>
       </c>
     </row>
     <row r="469">
@@ -22466,34 +22466,34 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>1965</v>
+        <v>1955</v>
       </c>
       <c r="E469" t="n">
-        <v>15010</v>
+        <v>15011</v>
       </c>
       <c r="F469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G469" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H469" t="n">
-        <v>99.89995291902072</v>
+        <v>99.8469868173258</v>
       </c>
       <c r="I469" t="n">
-        <v>99.94913530010173</v>
+        <v>100</v>
       </c>
       <c r="J469" t="n">
-        <v>99.19232710752145</v>
+        <v>98.68753154972237</v>
       </c>
       <c r="K469" t="n">
-        <v>99.56929313402584</v>
+        <v>99.33943089430895</v>
       </c>
       <c r="L469" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M469" t="n">
-        <v>0.9997768806084577</v>
+        <v>0.9995824446612402</v>
       </c>
     </row>
     <row r="470">
@@ -22537,10 +22537,10 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L470" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M470" t="n">
-        <v>0.947636143843012</v>
+        <v>0.9546934920845256</v>
       </c>
     </row>
     <row r="471">
@@ -22560,34 +22560,34 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E471" t="n">
-        <v>16929</v>
+        <v>16925</v>
       </c>
       <c r="F471" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H471" t="n">
-        <v>99.90583804143127</v>
+        <v>99.88818267419963</v>
       </c>
       <c r="I471" t="n">
-        <v>78.33333333333333</v>
+        <v>73.84615384615385</v>
       </c>
       <c r="J471" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K471" t="n">
-        <v>85.45454545454547</v>
+        <v>83.47826086956522</v>
       </c>
       <c r="L471" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M471" t="n">
-        <v>0.9104184522558456</v>
+        <v>0.8990610230656468</v>
       </c>
     </row>
     <row r="472">
@@ -22610,28 +22610,28 @@
         <v>49</v>
       </c>
       <c r="E472" t="n">
-        <v>16943</v>
+        <v>16941</v>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G472" t="n">
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>100</v>
+        <v>99.98822975517891</v>
       </c>
       <c r="I472" t="n">
-        <v>100</v>
+        <v>96.07843137254902</v>
       </c>
       <c r="J472" t="n">
         <v>100</v>
       </c>
       <c r="K472" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L472" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M472" t="n">
         <v>1</v>
@@ -22654,34 +22654,34 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="E473" t="n">
-        <v>14869</v>
+        <v>14865</v>
       </c>
       <c r="F473" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G473" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H473" t="n">
-        <v>99.19962335216572</v>
+        <v>99.16431261770245</v>
       </c>
       <c r="I473" t="n">
-        <v>93.68222536539368</v>
+        <v>93.49976448422044</v>
       </c>
       <c r="J473" t="n">
-        <v>99.89944695827049</v>
+        <v>99.79889391654098</v>
       </c>
       <c r="K473" t="n">
-        <v>96.69099756690997</v>
+        <v>96.54669260700389</v>
       </c>
       <c r="L473" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M473" t="n">
-        <v>0.9602223188059589</v>
+        <v>0.9615005729288122</v>
       </c>
     </row>
     <row r="474">
@@ -22725,10 +22725,10 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L474" t="n">
-        <v>20.86350000172388</v>
+        <v>9.348443999897427</v>
       </c>
       <c r="M474" t="n">
-        <v>0.9961838915327286</v>
+        <v>0.9766469571163572</v>
       </c>
     </row>
     <row r="475">
@@ -22772,7 +22772,7 @@
         <v>99.89191058843875</v>
       </c>
       <c r="L475" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M475" t="n">
         <v>0.9998022660546406</v>
@@ -22819,7 +22819,7 @@
         <v>99.76969138645786</v>
       </c>
       <c r="L476" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M476" t="n">
         <v>0.9998022660546406</v>
@@ -22866,7 +22866,7 @@
         <v>80</v>
       </c>
       <c r="L477" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M477" t="n">
         <v>0.8691652280811885</v>
@@ -22913,7 +22913,7 @@
         <v>99.87379049221707</v>
       </c>
       <c r="L478" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M478" t="n">
         <v>0.9987962249614794</v>
@@ -22960,7 +22960,7 @@
         <v>92.14659685863874</v>
       </c>
       <c r="L479" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M479" t="n">
         <v>0.9455215108192355</v>
@@ -23007,7 +23007,7 @@
         <v>99.6468213925328</v>
       </c>
       <c r="L480" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M480" t="n">
         <v>0.9982756679026844</v>
@@ -23054,7 +23054,7 @@
         <v>89.79591836734693</v>
       </c>
       <c r="L481" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M481" t="n">
         <v>0.9583333333333333</v>
@@ -23101,7 +23101,7 @@
         <v>96.07843137254902</v>
       </c>
       <c r="L482" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M482" t="n">
         <v>0.9691188240833056</v>
@@ -23148,7 +23148,7 @@
         <v>100</v>
       </c>
       <c r="L483" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M483" t="n">
         <v>1</v>
@@ -23195,7 +23195,7 @@
         <v>99.92460417190249</v>
       </c>
       <c r="L484" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M484" t="n">
         <v>0.9992755304449149</v>
@@ -23242,7 +23242,7 @@
         <v>95.99999999999999</v>
       </c>
       <c r="L485" t="n">
-        <v>486.8245999969076</v>
+        <v>288.2558230003269</v>
       </c>
       <c r="M485" t="n">
         <v>0.9726563911266427</v>
@@ -23289,10 +23289,10 @@
         <v>99.96112143073135</v>
       </c>
       <c r="L486" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M486" t="n">
-        <v>0.9999936495223658</v>
+        <v>0.9999931173729576</v>
       </c>
     </row>
     <row r="487">
@@ -23336,10 +23336,10 @@
         <v>99.91693585602215</v>
       </c>
       <c r="L487" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M487" t="n">
-        <v>0.9999936495223658</v>
+        <v>0.9999931173729576</v>
       </c>
     </row>
     <row r="488">
@@ -23383,10 +23383,10 @@
         <v>94.11764705882352</v>
       </c>
       <c r="L488" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M488" t="n">
-        <v>0.8889445212518033</v>
+        <v>0.8889446098721872</v>
       </c>
     </row>
     <row r="489">
@@ -23430,7 +23430,7 @@
         <v>99.95796553173602</v>
       </c>
       <c r="L489" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M489" t="n">
         <v>1</v>
@@ -23453,7 +23453,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E490" t="n">
         <v>16893</v>
@@ -23462,25 +23462,25 @@
         <v>4</v>
       </c>
       <c r="G490" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H490" t="n">
-        <v>99.95880414312617</v>
+        <v>99.95291902071564</v>
       </c>
       <c r="I490" t="n">
-        <v>95.83333333333334</v>
+        <v>95.78947368421052</v>
       </c>
       <c r="J490" t="n">
-        <v>96.84210526315789</v>
+        <v>95.78947368421052</v>
       </c>
       <c r="K490" t="n">
-        <v>96.33507853403141</v>
+        <v>95.78947368421052</v>
       </c>
       <c r="L490" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M490" t="n">
-        <v>0.9977883741311646</v>
+        <v>0.9973146169119282</v>
       </c>
     </row>
     <row r="491">
@@ -23524,10 +23524,10 @@
         <v>99.72201162496842</v>
       </c>
       <c r="L491" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M491" t="n">
-        <v>0.9999845207576623</v>
+        <v>0.9999857745908737</v>
       </c>
     </row>
     <row r="492">
@@ -23571,10 +23571,10 @@
         <v>97.67441860465117</v>
       </c>
       <c r="L492" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M492" t="n">
-        <v>0.9961297760210801</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="493">
@@ -23618,7 +23618,7 @@
         <v>100</v>
       </c>
       <c r="L493" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M493" t="n">
         <v>1</v>
@@ -23665,7 +23665,7 @@
         <v>100</v>
       </c>
       <c r="L494" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M494" t="n">
         <v>1</v>
@@ -23712,10 +23712,10 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L495" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M495" t="n">
-        <v>0.9999935110964356</v>
+        <v>0.9999935110964357</v>
       </c>
     </row>
     <row r="496">
@@ -23759,10 +23759,10 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L496" t="n">
-        <v>608.1130999955349</v>
+        <v>348.9144449999912</v>
       </c>
       <c r="M496" t="n">
-        <v>0.9985957617536563</v>
+        <v>0.9992791511283687</v>
       </c>
     </row>
     <row r="497">
@@ -23806,7 +23806,7 @@
         <v>99.86591115532678</v>
       </c>
       <c r="L497" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M497" t="n">
         <v>0.9998576815654378</v>
@@ -23853,7 +23853,7 @@
         <v>99.71468016566958</v>
       </c>
       <c r="L498" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M498" t="n">
         <v>0.9998576815654378</v>
@@ -23900,7 +23900,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L499" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M499" t="n">
         <v>1</v>
@@ -23947,7 +23947,7 @@
         <v>100</v>
       </c>
       <c r="L500" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M500" t="n">
         <v>1</v>
@@ -23994,7 +23994,7 @@
         <v>90.625</v>
       </c>
       <c r="L501" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M501" t="n">
         <v>0.9801627899984472</v>
@@ -24041,7 +24041,7 @@
         <v>99.62054136099165</v>
       </c>
       <c r="L502" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M502" t="n">
         <v>0.9999517245096179</v>
@@ -24088,7 +24088,7 @@
         <v>95.45454545454545</v>
       </c>
       <c r="L503" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M503" t="n">
         <v>0.9979787998562702</v>
@@ -24135,7 +24135,7 @@
         <v>100</v>
       </c>
       <c r="L504" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M504" t="n">
         <v>1</v>
@@ -24182,7 +24182,7 @@
         <v>100</v>
       </c>
       <c r="L505" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M505" t="n">
         <v>1</v>
@@ -24229,7 +24229,7 @@
         <v>99.37546839870099</v>
       </c>
       <c r="L506" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M506" t="n">
         <v>0.9967606546228175</v>
@@ -24276,7 +24276,7 @@
         <v>100</v>
       </c>
       <c r="L507" t="n">
-        <v>99.66599999461323</v>
+        <v>51.48818500038033</v>
       </c>
       <c r="M507" t="n">
         <v>1</v>
@@ -24323,7 +24323,7 @@
         <v>99.91353968528445</v>
       </c>
       <c r="L508" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M508" t="n">
         <v>0.9995769677567399</v>
@@ -24370,7 +24370,7 @@
         <v>99.81570217471433</v>
       </c>
       <c r="L509" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M509" t="n">
         <v>0.9995769677567399</v>
@@ -24417,7 +24417,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L510" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M510" t="n">
         <v>0.95</v>
@@ -24464,7 +24464,7 @@
         <v>100</v>
       </c>
       <c r="L511" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M511" t="n">
         <v>1</v>
@@ -24511,7 +24511,7 @@
         <v>93.06930693069307</v>
       </c>
       <c r="L512" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M512" t="n">
         <v>0.9371464628732377</v>
@@ -24558,7 +24558,7 @@
         <v>99.67113584619275</v>
       </c>
       <c r="L513" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M513" t="n">
         <v>0.9974478080496318</v>
@@ -24605,7 +24605,7 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L514" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M514" t="n">
         <v>0.889386914465212</v>
@@ -24652,7 +24652,7 @@
         <v>94.11764705882352</v>
       </c>
       <c r="L515" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M515" t="n">
         <v>0.941597312762567</v>
@@ -24699,7 +24699,7 @@
         <v>100</v>
       </c>
       <c r="L516" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M516" t="n">
         <v>1</v>
@@ -24746,7 +24746,7 @@
         <v>99.97486805730082</v>
       </c>
       <c r="L517" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M517" t="n">
         <v>0.9997781693306457</v>
@@ -24793,7 +24793,7 @@
         <v>100</v>
       </c>
       <c r="L518" t="n">
-        <v>8.796199996140786</v>
+        <v>4.335547999744449</v>
       </c>
       <c r="M518" t="n">
         <v>1</v>
@@ -24816,7 +24816,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>11425</v>
+        <v>11411</v>
       </c>
       <c r="E519" t="n">
         <v>5414</v>
@@ -24825,25 +24825,25 @@
         <v>7</v>
       </c>
       <c r="G519" t="n">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H519" t="n">
-        <v>99.09957627118644</v>
+        <v>99.0171845574388</v>
       </c>
       <c r="I519" t="n">
-        <v>99.93876836948915</v>
+        <v>99.93869329129444</v>
       </c>
       <c r="J519" t="n">
-        <v>98.73822487252615</v>
+        <v>98.61723273701494</v>
       </c>
       <c r="K519" t="n">
-        <v>99.33486936486547</v>
+        <v>99.27356561833921</v>
       </c>
       <c r="L519" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M519" t="n">
-        <v>0.9991329151668549</v>
+        <v>0.9991148377495924</v>
       </c>
     </row>
     <row r="520">
@@ -24866,31 +24866,31 @@
         <v>5414</v>
       </c>
       <c r="E520" t="n">
-        <v>11425</v>
+        <v>11411</v>
       </c>
       <c r="F520" t="n">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G520" t="n">
         <v>7</v>
       </c>
       <c r="H520" t="n">
-        <v>99.09957627118644</v>
+        <v>99.0171845574388</v>
       </c>
       <c r="I520" t="n">
-        <v>97.37410071942446</v>
+        <v>97.12952996053103</v>
       </c>
       <c r="J520" t="n">
         <v>99.87087253274304</v>
       </c>
       <c r="K520" t="n">
-        <v>98.6066842728349</v>
+        <v>98.48112778535697</v>
       </c>
       <c r="L520" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M520" t="n">
-        <v>0.9991329151668549</v>
+        <v>0.9991148377495924</v>
       </c>
     </row>
     <row r="521">
@@ -24934,10 +24934,10 @@
         <v>72</v>
       </c>
       <c r="L521" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M521" t="n">
-        <v>0.9882716049382718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -24981,10 +24981,10 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L522" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M522" t="n">
-        <v>0.9999176511963209</v>
+        <v>0.9999563878765415</v>
       </c>
     </row>
     <row r="523">
@@ -25007,31 +25007,31 @@
         <v>92</v>
       </c>
       <c r="E523" t="n">
-        <v>16872</v>
+        <v>16883</v>
       </c>
       <c r="F523" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G523" t="n">
         <v>2</v>
       </c>
       <c r="H523" t="n">
-        <v>99.83521657250471</v>
+        <v>99.89995291902072</v>
       </c>
       <c r="I523" t="n">
-        <v>77.96610169491525</v>
+        <v>85.98130841121495</v>
       </c>
       <c r="J523" t="n">
         <v>97.87234042553192</v>
       </c>
       <c r="K523" t="n">
-        <v>86.79245283018868</v>
+        <v>91.54228855721392</v>
       </c>
       <c r="L523" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M523" t="n">
-        <v>0.9760526774784795</v>
+        <v>0.984406671871322</v>
       </c>
     </row>
     <row r="524">
@@ -25051,7 +25051,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>1955</v>
+        <v>1964</v>
       </c>
       <c r="E524" t="n">
         <v>15012</v>
@@ -25060,25 +25060,25 @@
         <v>0</v>
       </c>
       <c r="G524" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H524" t="n">
-        <v>99.85287193973635</v>
+        <v>99.90583804143127</v>
       </c>
       <c r="I524" t="n">
         <v>100</v>
       </c>
       <c r="J524" t="n">
-        <v>98.73737373737373</v>
+        <v>99.19191919191918</v>
       </c>
       <c r="K524" t="n">
-        <v>99.36467598475221</v>
+        <v>99.59432048681542</v>
       </c>
       <c r="L524" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M524" t="n">
-        <v>0.9999636808091384</v>
+        <v>0.9999817155133208</v>
       </c>
     </row>
     <row r="525">
@@ -25098,34 +25098,34 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E525" t="n">
-        <v>16970</v>
+        <v>16967</v>
       </c>
       <c r="F525" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H525" t="n">
-        <v>99.98234463276836</v>
+        <v>99.97057438794727</v>
       </c>
       <c r="I525" t="n">
-        <v>100</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="J525" t="n">
-        <v>86.36363636363636</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="K525" t="n">
-        <v>92.68292682926828</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="L525" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M525" t="n">
-        <v>0.9071436774188767</v>
+        <v>0.9069881812788374</v>
       </c>
     </row>
     <row r="526">
@@ -25145,34 +25145,34 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E526" t="n">
-        <v>16916</v>
+        <v>16903</v>
       </c>
       <c r="F526" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G526" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H526" t="n">
-        <v>99.8469868173258</v>
+        <v>99.72339924670433</v>
       </c>
       <c r="I526" t="n">
-        <v>65.78947368421053</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="J526" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K526" t="n">
-        <v>79.36507936507937</v>
+        <v>64.12213740458014</v>
       </c>
       <c r="L526" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M526" t="n">
-        <v>0.8134042444901348</v>
+        <v>0.8177370668237141</v>
       </c>
     </row>
     <row r="527">
@@ -25216,7 +25216,7 @@
         <v>100</v>
       </c>
       <c r="L527" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M527" t="n">
         <v>1</v>
@@ -25239,34 +25239,34 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="E528" t="n">
-        <v>14898</v>
+        <v>14890</v>
       </c>
       <c r="F528" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G528" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H528" t="n">
-        <v>99.35263653483992</v>
+        <v>99.32909604519774</v>
       </c>
       <c r="I528" t="n">
-        <v>95.01915708812261</v>
+        <v>94.66666666666667</v>
       </c>
       <c r="J528" t="n">
-        <v>99.69849246231156</v>
+        <v>99.89949748743719</v>
       </c>
       <c r="K528" t="n">
-        <v>97.30259931338891</v>
+        <v>97.21271393643033</v>
       </c>
       <c r="L528" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M528" t="n">
-        <v>0.9633504421804653</v>
+        <v>0.9646725101647053</v>
       </c>
     </row>
     <row r="529">
@@ -25289,28 +25289,28 @@
         <v>37</v>
       </c>
       <c r="E529" t="n">
-        <v>16954</v>
+        <v>16955</v>
       </c>
       <c r="F529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G529" t="n">
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>99.99411487758945</v>
+        <v>100</v>
       </c>
       <c r="I529" t="n">
-        <v>97.36842105263158</v>
+        <v>100</v>
       </c>
       <c r="J529" t="n">
         <v>100</v>
       </c>
       <c r="K529" t="n">
-        <v>98.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L529" t="n">
-        <v>23.00420000392478</v>
+        <v>9.380223000334809</v>
       </c>
       <c r="M529" t="n">
         <v>0.9999999999999998</v>
@@ -25357,7 +25357,7 @@
         <v>99.78360598978621</v>
       </c>
       <c r="L530" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M530" t="n">
         <v>0.999369977622524</v>
@@ -25404,7 +25404,7 @@
         <v>99.54035668321383</v>
       </c>
       <c r="L531" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M531" t="n">
         <v>0.999369977622524</v>
@@ -25451,7 +25451,7 @@
         <v>81.81818181818181</v>
       </c>
       <c r="L532" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M532" t="n">
         <v>0.9090909090909092</v>
@@ -25498,7 +25498,7 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L533" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M533" t="n">
         <v>0.999608904165459</v>
@@ -25545,7 +25545,7 @@
         <v>88.29787234042553</v>
       </c>
       <c r="L534" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M534" t="n">
         <v>0.9150229309960078</v>
@@ -25592,7 +25592,7 @@
         <v>99.4952044422009</v>
       </c>
       <c r="L535" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M535" t="n">
         <v>0.997020698344052</v>
@@ -25639,7 +25639,7 @@
         <v>84</v>
       </c>
       <c r="L536" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M536" t="n">
         <v>0.8936071382220234</v>
@@ -25686,7 +25686,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L537" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M537" t="n">
         <v>0.9807692307692308</v>
@@ -25733,7 +25733,7 @@
         <v>100</v>
       </c>
       <c r="L538" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M538" t="n">
         <v>1</v>
@@ -25780,7 +25780,7 @@
         <v>99.37546839870099</v>
       </c>
       <c r="L539" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M539" t="n">
         <v>0.9938169174677545</v>
@@ -25827,7 +25827,7 @@
         <v>100</v>
       </c>
       <c r="L540" t="n">
-        <v>633.051600001636</v>
+        <v>355.9739349998381</v>
       </c>
       <c r="M540" t="n">
         <v>1</v>
@@ -25853,31 +25853,31 @@
         <v>11541</v>
       </c>
       <c r="E541" t="n">
-        <v>5419</v>
+        <v>5418</v>
       </c>
       <c r="F541" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G541" t="n">
         <v>30</v>
       </c>
       <c r="H541" t="n">
-        <v>99.81167608286252</v>
+        <v>99.80579096045197</v>
       </c>
       <c r="I541" t="n">
-        <v>99.98267348176384</v>
+        <v>99.97401247401247</v>
       </c>
       <c r="J541" t="n">
         <v>99.74073113819031</v>
       </c>
       <c r="K541" t="n">
-        <v>99.86155576706757</v>
+        <v>99.85723556132382</v>
       </c>
       <c r="L541" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M541" t="n">
-        <v>0.999836364127232</v>
+        <v>0.9998371043746881</v>
       </c>
     </row>
     <row r="542">
@@ -25897,7 +25897,7 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>5419</v>
+        <v>5418</v>
       </c>
       <c r="E542" t="n">
         <v>11541</v>
@@ -25906,25 +25906,25 @@
         <v>30</v>
       </c>
       <c r="G542" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H542" t="n">
-        <v>99.81167608286252</v>
+        <v>99.80579096045197</v>
       </c>
       <c r="I542" t="n">
-        <v>99.44944026426867</v>
+        <v>99.44933920704845</v>
       </c>
       <c r="J542" t="n">
-        <v>99.96310643792658</v>
+        <v>99.94465965688988</v>
       </c>
       <c r="K542" t="n">
-        <v>99.70561177552898</v>
+        <v>99.69638421197902</v>
       </c>
       <c r="L542" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M542" t="n">
-        <v>0.999836364127232</v>
+        <v>0.9998371043746881</v>
       </c>
     </row>
     <row r="543">
@@ -25968,7 +25968,7 @@
         <v>90</v>
       </c>
       <c r="L543" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M543" t="n">
         <v>1</v>
@@ -26015,7 +26015,7 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L544" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M544" t="n">
         <v>1</v>
@@ -26041,31 +26041,31 @@
         <v>94</v>
       </c>
       <c r="E545" t="n">
-        <v>16894</v>
+        <v>16895</v>
       </c>
       <c r="F545" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G545" t="n">
         <v>0</v>
       </c>
       <c r="H545" t="n">
-        <v>99.97645951035781</v>
+        <v>99.98234463276836</v>
       </c>
       <c r="I545" t="n">
-        <v>95.91836734693877</v>
+        <v>96.90721649484536</v>
       </c>
       <c r="J545" t="n">
         <v>100</v>
       </c>
       <c r="K545" t="n">
-        <v>97.91666666666666</v>
+        <v>98.42931937172774</v>
       </c>
       <c r="L545" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M545" t="n">
-        <v>0.9975616803276186</v>
+        <v>0.9980407220583505</v>
       </c>
     </row>
     <row r="546">
@@ -26109,10 +26109,10 @@
         <v>99.89888776541962</v>
       </c>
       <c r="L546" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M546" t="n">
-        <v>0.9999936508188676</v>
+        <v>0.999995422610688</v>
       </c>
     </row>
     <row r="547">
@@ -26156,10 +26156,10 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L547" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M547" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9920873757336208</v>
       </c>
     </row>
     <row r="548">
@@ -26203,7 +26203,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L548" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M548" t="n">
         <v>1</v>
@@ -26250,7 +26250,7 @@
         <v>100</v>
       </c>
       <c r="L549" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M549" t="n">
         <v>1</v>
@@ -26297,10 +26297,10 @@
         <v>99.37546839870099</v>
       </c>
       <c r="L550" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M550" t="n">
-        <v>0.9995662199480149</v>
+        <v>0.9995685099737579</v>
       </c>
     </row>
     <row r="551">
@@ -26344,7 +26344,7 @@
         <v>100</v>
       </c>
       <c r="L551" t="n">
-        <v>765.0450000073761</v>
+        <v>421.4809730001434</v>
       </c>
       <c r="M551" t="n">
         <v>0.9999999999999998</v>

--- a/5_analisis_de_resultados/DB/testing_results.xlsx
+++ b/5_analisis_de_resultados/DB/testing_results.xlsx
@@ -541,7 +541,7 @@
         <v>99.96543679253435</v>
       </c>
       <c r="L2" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M2" t="n">
         <v>0.9999994361934805</v>
@@ -588,10 +588,10 @@
         <v>99.92619926199261</v>
       </c>
       <c r="L3" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9999994361934805</v>
+        <v>0.9999974350505038</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>94.11764705882352</v>
       </c>
       <c r="L4" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>96.37305699481867</v>
       </c>
       <c r="L6" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M6" t="n">
         <v>0.9953370348113931</v>
@@ -776,7 +776,7 @@
         <v>99.79767324228629</v>
       </c>
       <c r="L7" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M7" t="n">
         <v>0.9997493689234366</v>
@@ -823,7 +823,7 @@
         <v>100</v>
       </c>
       <c r="L8" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>98</v>
       </c>
       <c r="L9" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M9" t="n">
         <v>0.9991998399359744</v>
@@ -917,7 +917,7 @@
         <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L12" t="n">
-        <v>47.1506930000487</v>
+        <v>47.51791699982277</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>99.93086163685075</v>
       </c>
       <c r="L13" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M13" t="n">
         <v>0.9995714333683785</v>
@@ -1105,10 +1105,10 @@
         <v>99.85245296938399</v>
       </c>
       <c r="L14" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9995714333683785</v>
+        <v>0.9989431642542773</v>
       </c>
     </row>
     <row r="15">
@@ -1152,7 +1152,7 @@
         <v>90</v>
       </c>
       <c r="L15" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M15" t="n">
         <v>0.9090909090909092</v>
@@ -1199,7 +1199,7 @@
         <v>100</v>
       </c>
       <c r="L16" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>90.52631578947368</v>
       </c>
       <c r="L17" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M17" t="n">
         <v>0.9037117094198894</v>
@@ -1293,7 +1293,7 @@
         <v>99.57038160222392</v>
       </c>
       <c r="L18" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M18" t="n">
         <v>0.9960290684932581</v>
@@ -1340,7 +1340,7 @@
         <v>91.30434782608695</v>
       </c>
       <c r="L19" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M19" t="n">
         <v>0.9408188975646319</v>
@@ -1387,7 +1387,7 @@
         <v>96</v>
       </c>
       <c r="L20" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M20" t="n">
         <v>0.9600588477608427</v>
@@ -1434,7 +1434,7 @@
         <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>100</v>
       </c>
       <c r="L22" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L23" t="n">
-        <v>4.385492999972485</v>
+        <v>4.597981000188156</v>
       </c>
       <c r="M23" t="n">
         <v>0.9865159103669079</v>
@@ -1575,7 +1575,7 @@
         <v>99.30920623886691</v>
       </c>
       <c r="L24" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M24" t="n">
         <v>0.9993167228337418</v>
@@ -1622,10 +1622,10 @@
         <v>98.55046038836723</v>
       </c>
       <c r="L25" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9993167228337418</v>
+        <v>0.9961674028381478</v>
       </c>
     </row>
     <row r="26">
@@ -1669,7 +1669,7 @@
         <v>74.99999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M26" t="n">
         <v>0.7183581850248516</v>
@@ -1716,7 +1716,7 @@
         <v>99.95796553173602</v>
       </c>
       <c r="L27" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>90</v>
       </c>
       <c r="L28" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M28" t="n">
         <v>0.9561150594986655</v>
@@ -1810,7 +1810,7 @@
         <v>99.59493670886074</v>
       </c>
       <c r="L29" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M29" t="n">
         <v>0.9998075119669365</v>
@@ -1857,7 +1857,7 @@
         <v>93.61702127659575</v>
       </c>
       <c r="L30" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>86.23853211009174</v>
       </c>
       <c r="L31" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M31" t="n">
         <v>0.8980980145666662</v>
@@ -1951,7 +1951,7 @@
         <v>100</v>
       </c>
       <c r="L32" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>96.94002447980415</v>
       </c>
       <c r="L33" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M33" t="n">
         <v>0.9644474119235941</v>
@@ -2045,7 +2045,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L34" t="n">
-        <v>9.976155999993352</v>
+        <v>9.206691000144929</v>
       </c>
       <c r="M34" t="n">
         <v>0.9999999999999998</v>
@@ -2092,7 +2092,7 @@
         <v>99.85294117647059</v>
       </c>
       <c r="L35" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M35" t="n">
         <v>0.9995476946186826</v>
@@ -2139,10 +2139,10 @@
         <v>99.68709736793667</v>
       </c>
       <c r="L36" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M36" t="n">
-        <v>0.9995476946186826</v>
+        <v>0.9981154423880498</v>
       </c>
     </row>
     <row r="37">
@@ -2186,7 +2186,7 @@
         <v>78.26086956521739</v>
       </c>
       <c r="L37" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M37" t="n">
         <v>0.8162393162393161</v>
@@ -2233,7 +2233,7 @@
         <v>99.91589571068124</v>
       </c>
       <c r="L38" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M38" t="n">
         <v>0.9996085487572535</v>
@@ -2280,7 +2280,7 @@
         <v>85.41666666666667</v>
       </c>
       <c r="L39" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M39" t="n">
         <v>0.8786848804516963</v>
@@ -2327,7 +2327,7 @@
         <v>99.64717741935483</v>
       </c>
       <c r="L40" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M40" t="n">
         <v>0.9973292847705989</v>
@@ -2374,7 +2374,7 @@
         <v>82.35294117647059</v>
       </c>
       <c r="L41" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M41" t="n">
         <v>0.8931260147895123</v>
@@ -2421,7 +2421,7 @@
         <v>96</v>
       </c>
       <c r="L42" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M42" t="n">
         <v>0.9775133932153881</v>
@@ -2468,7 +2468,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L43" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M43" t="n">
         <v>0.9901960784313726</v>
@@ -2515,7 +2515,7 @@
         <v>99.94972347913524</v>
       </c>
       <c r="L44" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M44" t="n">
         <v>0.9995563351980287</v>
@@ -2562,7 +2562,7 @@
         <v>98.66666666666666</v>
       </c>
       <c r="L45" t="n">
-        <v>280.6573829998342</v>
+        <v>276.51888399987</v>
       </c>
       <c r="M45" t="n">
         <v>0.986842105263158</v>
@@ -2609,7 +2609,7 @@
         <v>99.94383236120112</v>
       </c>
       <c r="L46" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M46" t="n">
         <v>0.9999975282858332</v>
@@ -2656,10 +2656,10 @@
         <v>99.88008486302002</v>
       </c>
       <c r="L47" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9999975282858332</v>
+        <v>0.9999890935742775</v>
       </c>
     </row>
     <row r="48">
@@ -2703,7 +2703,7 @@
         <v>90</v>
       </c>
       <c r="L48" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>100</v>
       </c>
       <c r="L49" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
@@ -2797,7 +2797,7 @@
         <v>93.12169312169313</v>
       </c>
       <c r="L50" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M50" t="n">
         <v>0.9854845122577727</v>
@@ -2844,7 +2844,7 @@
         <v>99.79777553083923</v>
       </c>
       <c r="L51" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M51" t="n">
         <v>0.9998142789777822</v>
@@ -2891,7 +2891,7 @@
         <v>100</v>
       </c>
       <c r="L52" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -2938,7 +2938,7 @@
         <v>96.96969696969697</v>
       </c>
       <c r="L53" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M53" t="n">
         <v>0.9890145339235303</v>
@@ -2985,7 +2985,7 @@
         <v>100</v>
       </c>
       <c r="L54" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -3032,7 +3032,7 @@
         <v>99.94972347913524</v>
       </c>
       <c r="L55" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -3079,7 +3079,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L56" t="n">
-        <v>342.4452169999768</v>
+        <v>338.1146749998152</v>
       </c>
       <c r="M56" t="n">
         <v>0.9999999999999998</v>
@@ -3126,7 +3126,7 @@
         <v>99.96543081842538</v>
       </c>
       <c r="L57" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M57" t="n">
         <v>0.9999533634283296</v>
@@ -3173,10 +3173,10 @@
         <v>99.92622648469199</v>
       </c>
       <c r="L58" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9999533634283296</v>
+        <v>0.9999288237390692</v>
       </c>
     </row>
     <row r="59">
@@ -3220,7 +3220,7 @@
         <v>100</v>
       </c>
       <c r="L59" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>100</v>
       </c>
       <c r="L60" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
@@ -3314,7 +3314,7 @@
         <v>96.84210526315789</v>
       </c>
       <c r="L61" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M61" t="n">
         <v>0.9878129591530352</v>
@@ -3361,7 +3361,7 @@
         <v>99.89898989898988</v>
       </c>
       <c r="L62" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M62" t="n">
         <v>0.9999907679334007</v>
@@ -3408,7 +3408,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L63" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M63" t="n">
         <v>0.9534032582562608</v>
@@ -3455,7 +3455,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L64" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -3502,7 +3502,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L65" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
@@ -3549,7 +3549,7 @@
         <v>100</v>
       </c>
       <c r="L66" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
@@ -3596,7 +3596,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L67" t="n">
-        <v>48.24128300015218</v>
+        <v>48.68269400003555</v>
       </c>
       <c r="M67" t="n">
         <v>0.9992791511283687</v>
@@ -3643,7 +3643,7 @@
         <v>99.92219244402179</v>
       </c>
       <c r="L68" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M68" t="n">
         <v>0.999673130352923</v>
@@ -3690,10 +3690,10 @@
         <v>99.8341319572429</v>
       </c>
       <c r="L69" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M69" t="n">
-        <v>0.999673130352923</v>
+        <v>0.998946108606368</v>
       </c>
     </row>
     <row r="70">
@@ -3737,7 +3737,7 @@
         <v>84.21052631578948</v>
       </c>
       <c r="L70" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M70" t="n">
         <v>0.8444738683248657</v>
@@ -3784,7 +3784,7 @@
         <v>100</v>
       </c>
       <c r="L71" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
@@ -3831,7 +3831,7 @@
         <v>95.87628865979381</v>
       </c>
       <c r="L72" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M72" t="n">
         <v>0.9775663322607948</v>
@@ -3878,7 +3878,7 @@
         <v>99.8989388580091</v>
       </c>
       <c r="L73" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M73" t="n">
         <v>0.9991081044060872</v>
@@ -3925,7 +3925,7 @@
         <v>86.95652173913044</v>
       </c>
       <c r="L74" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M74" t="n">
         <v>0.8601066946507949</v>
@@ -3972,7 +3972,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L75" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M75" t="n">
         <v>0.9807692307692308</v>
@@ -4019,7 +4019,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L76" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M76" t="n">
         <v>0.9901960784313726</v>
@@ -4066,7 +4066,7 @@
         <v>99.94977398292315</v>
       </c>
       <c r="L77" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M77" t="n">
         <v>0.9994979919678715</v>
@@ -4113,7 +4113,7 @@
         <v>97.22222222222221</v>
       </c>
       <c r="L78" t="n">
-        <v>4.474589999972522</v>
+        <v>4.417487000409892</v>
       </c>
       <c r="M78" t="n">
         <v>0.9730318207338157</v>
@@ -4160,7 +4160,7 @@
         <v>99.19895515890292</v>
       </c>
       <c r="L79" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M79" t="n">
         <v>0.9992115729162551</v>
@@ -4207,10 +4207,10 @@
         <v>98.32970225127089</v>
       </c>
       <c r="L80" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M80" t="n">
-        <v>0.9992115729162551</v>
+        <v>0.9962892989576017</v>
       </c>
     </row>
     <row r="81">
@@ -4254,7 +4254,7 @@
         <v>84.21052631578948</v>
       </c>
       <c r="L81" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M81" t="n">
         <v>0.8915012524040548</v>
@@ -4301,7 +4301,7 @@
         <v>99.95796553173602</v>
       </c>
       <c r="L82" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M82" t="n">
         <v>0.9999886151494261</v>
@@ -4348,7 +4348,7 @@
         <v>88.03827751196171</v>
       </c>
       <c r="L83" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M83" t="n">
         <v>0.9500551069289643</v>
@@ -4395,7 +4395,7 @@
         <v>99.49290060851926</v>
       </c>
       <c r="L84" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M84" t="n">
         <v>0.9999130051743323</v>
@@ -4442,7 +4442,7 @@
         <v>87.5</v>
       </c>
       <c r="L85" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M85" t="n">
         <v>0.9568421581180486</v>
@@ -4489,7 +4489,7 @@
         <v>82.35294117647059</v>
       </c>
       <c r="L86" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M86" t="n">
         <v>0.9043607897327217</v>
@@ -4536,7 +4536,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L87" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M87" t="n">
         <v>0.992469728896662</v>
@@ -4583,7 +4583,7 @@
         <v>96.52996845425868</v>
       </c>
       <c r="L88" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M88" t="n">
         <v>0.9582859181835233</v>
@@ -4630,7 +4630,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L89" t="n">
-        <v>9.411910999915563</v>
+        <v>9.481807999691227</v>
       </c>
       <c r="M89" t="n">
         <v>0.9999999999999998</v>
@@ -4677,7 +4677,7 @@
         <v>99.88322304398599</v>
       </c>
       <c r="L90" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M90" t="n">
         <v>0.9997197575396087</v>
@@ -4724,10 +4724,10 @@
         <v>99.75149562816384</v>
       </c>
       <c r="L91" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M91" t="n">
-        <v>0.9997197575396087</v>
+        <v>0.9985836619178403</v>
       </c>
     </row>
     <row r="92">
@@ -4771,7 +4771,7 @@
         <v>85.71428571428571</v>
       </c>
       <c r="L92" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M92" t="n">
         <v>0.95</v>
@@ -4818,7 +4818,7 @@
         <v>99.91582491582491</v>
       </c>
       <c r="L93" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M93" t="n">
         <v>0.9996089024338276</v>
@@ -4865,7 +4865,7 @@
         <v>87.0967741935484</v>
       </c>
       <c r="L94" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M94" t="n">
         <v>0.9124479471504526</v>
@@ -4912,7 +4912,7 @@
         <v>99.52177196073497</v>
       </c>
       <c r="L95" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M95" t="n">
         <v>0.9974449184443482</v>
@@ -4959,7 +4959,7 @@
         <v>89.36170212765958</v>
       </c>
       <c r="L96" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M96" t="n">
         <v>0.9125925551935526</v>
@@ -5006,7 +5006,7 @@
         <v>94.33962264150945</v>
       </c>
       <c r="L97" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M97" t="n">
         <v>0.9716981132075472</v>
@@ -5053,7 +5053,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L98" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M98" t="n">
         <v>0.9901960784313726</v>
@@ -5100,7 +5100,7 @@
         <v>99.92464204973625</v>
       </c>
       <c r="L99" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M99" t="n">
         <v>0.9995265326661238</v>
@@ -5147,7 +5147,7 @@
         <v>100</v>
       </c>
       <c r="L100" t="n">
-        <v>268.0519079999613</v>
+        <v>264.8390780000227</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
@@ -5194,7 +5194,7 @@
         <v>99.95246121267125</v>
       </c>
       <c r="L101" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M101" t="n">
         <v>0.9999946327455953</v>
@@ -5241,10 +5241,10 @@
         <v>99.89858947174334</v>
       </c>
       <c r="L102" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M102" t="n">
-        <v>0.9999946327455953</v>
+        <v>0.9999783742715256</v>
       </c>
     </row>
     <row r="103">
@@ -5288,7 +5288,7 @@
         <v>88.88888888888889</v>
       </c>
       <c r="L103" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M103" t="n">
         <v>0.9882716049382718</v>
@@ -5335,7 +5335,7 @@
         <v>100</v>
       </c>
       <c r="L104" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
@@ -5382,7 +5382,7 @@
         <v>97.38219895287958</v>
       </c>
       <c r="L105" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M105" t="n">
         <v>0.9906811116705292</v>
@@ -5429,7 +5429,7 @@
         <v>99.8989388580091</v>
       </c>
       <c r="L106" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M106" t="n">
         <v>0.9999883646079104</v>
@@ -5476,7 +5476,7 @@
         <v>93.33333333333333</v>
       </c>
       <c r="L107" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M107" t="n">
         <v>0.9544388823058476</v>
@@ -5523,7 +5523,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L108" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
@@ -5570,7 +5570,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L109" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>100</v>
       </c>
       <c r="L110" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
@@ -5664,7 +5664,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L111" t="n">
-        <v>330.4920029997902</v>
+        <v>327.7105199999824</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
@@ -5711,7 +5711,7 @@
         <v>99.96543081842538</v>
       </c>
       <c r="L112" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M112" t="n">
         <v>0.9999988333643862</v>
@@ -5758,10 +5758,10 @@
         <v>99.92622648469199</v>
       </c>
       <c r="L113" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M113" t="n">
-        <v>0.9999988333643862</v>
+        <v>0.9999947311848322</v>
       </c>
     </row>
     <row r="114">
@@ -5805,7 +5805,7 @@
         <v>100</v>
       </c>
       <c r="L114" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>100</v>
       </c>
       <c r="L115" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
@@ -5899,7 +5899,7 @@
         <v>94.30051813471503</v>
       </c>
       <c r="L116" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M116" t="n">
         <v>0.9829977335866661</v>
@@ -5946,7 +5946,7 @@
         <v>99.87370548118211</v>
       </c>
       <c r="L117" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M117" t="n">
         <v>0.9999923826870833</v>
@@ -5993,7 +5993,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L118" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M118" t="n">
         <v>0.9771679078497261</v>
@@ -6040,7 +6040,7 @@
         <v>100</v>
       </c>
       <c r="L119" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
@@ -6087,7 +6087,7 @@
         <v>100</v>
       </c>
       <c r="L120" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
@@ -6134,7 +6134,7 @@
         <v>100</v>
       </c>
       <c r="L121" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>100</v>
       </c>
       <c r="L122" t="n">
-        <v>48.24178099988785</v>
+        <v>48.08688399998573</v>
       </c>
       <c r="M122" t="n">
         <v>1</v>
@@ -6228,7 +6228,7 @@
         <v>99.91356210562709</v>
       </c>
       <c r="L123" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M123" t="n">
         <v>0.9995160179118234</v>
@@ -6275,10 +6275,10 @@
         <v>99.81563421828909</v>
       </c>
       <c r="L124" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M124" t="n">
-        <v>0.9995160179118234</v>
+        <v>0.9985736355669681</v>
       </c>
     </row>
     <row r="125">
@@ -6322,7 +6322,7 @@
         <v>100</v>
       </c>
       <c r="L125" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M125" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>100</v>
       </c>
       <c r="L126" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M126" t="n">
         <v>1</v>
@@ -6416,7 +6416,7 @@
         <v>89.69072164948454</v>
       </c>
       <c r="L127" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M127" t="n">
         <v>0.9037683248913405</v>
@@ -6463,7 +6463,7 @@
         <v>99.64610717896866</v>
       </c>
       <c r="L128" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M128" t="n">
         <v>0.9969789214098159</v>
@@ -6510,7 +6510,7 @@
         <v>93.33333333333333</v>
       </c>
       <c r="L129" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M129" t="n">
         <v>0.9409055767130958</v>
@@ -6557,7 +6557,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L130" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M130" t="n">
         <v>0.9807692307692308</v>
@@ -6604,7 +6604,7 @@
         <v>100</v>
       </c>
       <c r="L131" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M131" t="n">
         <v>1</v>
@@ -6651,7 +6651,7 @@
         <v>99.94974874371859</v>
       </c>
       <c r="L132" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M132" t="n">
         <v>0.9995269113176073</v>
@@ -6698,7 +6698,7 @@
         <v>98.66666666666666</v>
       </c>
       <c r="L133" t="n">
-        <v>4.371684999796344</v>
+        <v>4.270280000127968</v>
       </c>
       <c r="M133" t="n">
         <v>0.986842105263158</v>
@@ -6745,7 +6745,7 @@
         <v>99.34367801104011</v>
       </c>
       <c r="L134" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M134" t="n">
         <v>0.9992735373359382</v>
@@ -6792,10 +6792,10 @@
         <v>98.62464705346571</v>
       </c>
       <c r="L135" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M135" t="n">
-        <v>0.9992735373359382</v>
+        <v>0.9969756647045115</v>
       </c>
     </row>
     <row r="136">
@@ -6839,7 +6839,7 @@
         <v>84.21052631578948</v>
       </c>
       <c r="L136" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M136" t="n">
         <v>0.8902973952888315</v>
@@ -6886,7 +6886,7 @@
         <v>99.87379049221707</v>
       </c>
       <c r="L137" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M137" t="n">
         <v>0.999997879425093</v>
@@ -6933,7 +6933,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="L138" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M138" t="n">
         <v>0.9462273580844497</v>
@@ -6980,7 +6980,7 @@
         <v>99.31662870159454</v>
       </c>
       <c r="L139" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M139" t="n">
         <v>0.9999101414686149</v>
@@ -7027,7 +7027,7 @@
         <v>93.61702127659575</v>
       </c>
       <c r="L140" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M140" t="n">
         <v>1</v>
@@ -7074,7 +7074,7 @@
         <v>88.2882882882883</v>
       </c>
       <c r="L141" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M141" t="n">
         <v>0.9388555802948403</v>
@@ -7121,7 +7121,7 @@
         <v>100</v>
       </c>
       <c r="L142" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M142" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
         <v>97.33300709566919</v>
       </c>
       <c r="L143" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M143" t="n">
         <v>0.9712510306875469</v>
@@ -7215,7 +7215,7 @@
         <v>100</v>
       </c>
       <c r="L144" t="n">
-        <v>9.276473999989321</v>
+        <v>9.386053000071115</v>
       </c>
       <c r="M144" t="n">
         <v>0.9999999999999998</v>
@@ -7262,7 +7262,7 @@
         <v>99.85289027345102</v>
       </c>
       <c r="L145" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M145" t="n">
         <v>0.9996508641466216</v>
@@ -7309,10 +7309,10 @@
         <v>99.68732757035129</v>
       </c>
       <c r="L146" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M146" t="n">
-        <v>0.9996508641466216</v>
+        <v>0.9981254078332751</v>
       </c>
     </row>
     <row r="147">
@@ -7356,7 +7356,7 @@
         <v>74.99999999999999</v>
       </c>
       <c r="L147" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M147" t="n">
         <v>0.8461538461538461</v>
@@ -7403,7 +7403,7 @@
         <v>99.91582491582491</v>
       </c>
       <c r="L148" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M148" t="n">
         <v>0.9996085487572535</v>
@@ -7450,7 +7450,7 @@
         <v>88.88888888888889</v>
       </c>
       <c r="L149" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M149" t="n">
         <v>0.8934077786787669</v>
@@ -7497,7 +7497,7 @@
         <v>99.54705586311022</v>
       </c>
       <c r="L150" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M150" t="n">
         <v>0.9968011952990854</v>
@@ -7544,7 +7544,7 @@
         <v>88</v>
       </c>
       <c r="L151" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M151" t="n">
         <v>0.9230769230769231</v>
@@ -7591,7 +7591,7 @@
         <v>94.33962264150945</v>
       </c>
       <c r="L152" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M152" t="n">
         <v>0.9716981132075472</v>
@@ -7638,7 +7638,7 @@
         <v>100</v>
       </c>
       <c r="L153" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M153" t="n">
         <v>1</v>
@@ -7685,7 +7685,7 @@
         <v>99.97488068324542</v>
       </c>
       <c r="L154" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M154" t="n">
         <v>1</v>
@@ -7732,7 +7732,7 @@
         <v>100</v>
       </c>
       <c r="L155" t="n">
-        <v>278.4570250000797</v>
+        <v>273.6771630002295</v>
       </c>
       <c r="M155" t="n">
         <v>1</v>
@@ -7779,7 +7779,7 @@
         <v>99.96542185338866</v>
       </c>
       <c r="L156" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M156" t="n">
         <v>0.9999973465744242</v>
@@ -7826,10 +7826,10 @@
         <v>99.92626728110598</v>
       </c>
       <c r="L157" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M157" t="n">
-        <v>0.9999973465744242</v>
+        <v>0.9999884885759746</v>
       </c>
     </row>
     <row r="158">
@@ -7873,7 +7873,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L158" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M158" t="n">
         <v>1</v>
@@ -7920,7 +7920,7 @@
         <v>100</v>
       </c>
       <c r="L159" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M159" t="n">
         <v>1</v>
@@ -7967,7 +7967,7 @@
         <v>92.22797927461139</v>
       </c>
       <c r="L160" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M160" t="n">
         <v>0.9809378945893953</v>
@@ -8014,7 +8014,7 @@
         <v>99.77266986612783</v>
       </c>
       <c r="L161" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M161" t="n">
         <v>0.9999887858260691</v>
@@ -8061,7 +8061,7 @@
         <v>100</v>
       </c>
       <c r="L162" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M162" t="n">
         <v>0.9999999999999998</v>
@@ -8108,7 +8108,7 @@
         <v>100</v>
       </c>
       <c r="L163" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M163" t="n">
         <v>1</v>
@@ -8155,7 +8155,7 @@
         <v>100</v>
       </c>
       <c r="L164" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M164" t="n">
         <v>1</v>
@@ -8202,7 +8202,7 @@
         <v>100</v>
       </c>
       <c r="L165" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M165" t="n">
         <v>1</v>
@@ -8249,7 +8249,7 @@
         <v>100</v>
       </c>
       <c r="L166" t="n">
-        <v>340.628899999956</v>
+        <v>335.712951000005</v>
       </c>
       <c r="M166" t="n">
         <v>0.9999999999999996</v>
@@ -8296,7 +8296,7 @@
         <v>99.98271839626717</v>
       </c>
       <c r="L167" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M167" t="n">
         <v>0.9999991579025308</v>
@@ -8343,10 +8343,10 @@
         <v>99.96309963099631</v>
       </c>
       <c r="L168" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M168" t="n">
-        <v>0.9999991579025308</v>
+        <v>0.9999962108843521</v>
       </c>
     </row>
     <row r="169">
@@ -8390,7 +8390,7 @@
         <v>100</v>
       </c>
       <c r="L169" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M169" t="n">
         <v>1</v>
@@ -8437,7 +8437,7 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L170" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M170" t="n">
         <v>1</v>
@@ -8484,7 +8484,7 @@
         <v>96.875</v>
       </c>
       <c r="L171" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M171" t="n">
         <v>0.9964886737379386</v>
@@ -8531,7 +8531,7 @@
         <v>99.77255496588323</v>
       </c>
       <c r="L172" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M172" t="n">
         <v>0.9999779221538669</v>
@@ -8578,7 +8578,7 @@
         <v>97.67441860465117</v>
       </c>
       <c r="L173" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M173" t="n">
         <v>0.9961297760210804</v>
@@ -8625,7 +8625,7 @@
         <v>98.98989898989899</v>
       </c>
       <c r="L174" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M174" t="n">
         <v>1</v>
@@ -8672,7 +8672,7 @@
         <v>100</v>
       </c>
       <c r="L175" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M175" t="n">
         <v>1</v>
@@ -8719,7 +8719,7 @@
         <v>100</v>
       </c>
       <c r="L176" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M176" t="n">
         <v>1</v>
@@ -8766,7 +8766,7 @@
         <v>100</v>
       </c>
       <c r="L177" t="n">
-        <v>47.77283400017041</v>
+        <v>48.10098400002971</v>
       </c>
       <c r="M177" t="n">
         <v>1</v>
@@ -8813,7 +8813,7 @@
         <v>99.84858317110103</v>
       </c>
       <c r="L178" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M178" t="n">
         <v>0.9995695541197734</v>
@@ -8860,10 +8860,10 @@
         <v>99.67804249839021</v>
       </c>
       <c r="L179" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M179" t="n">
-        <v>0.9995695541197734</v>
+        <v>0.9979765414662285</v>
       </c>
     </row>
     <row r="180">
@@ -8907,7 +8907,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L180" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M180" t="n">
         <v>0.95</v>
@@ -8954,7 +8954,7 @@
         <v>100</v>
       </c>
       <c r="L181" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M181" t="n">
         <v>1</v>
@@ -9001,7 +9001,7 @@
         <v>82.41206030150754</v>
       </c>
       <c r="L182" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M182" t="n">
         <v>0.8261922270446678</v>
@@ -9048,7 +9048,7 @@
         <v>99.16603487490522</v>
       </c>
       <c r="L183" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M183" t="n">
         <v>0.9922209858074569</v>
@@ -9095,7 +9095,7 @@
         <v>88</v>
       </c>
       <c r="L184" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M184" t="n">
         <v>0.9399999999999999</v>
@@ -9142,7 +9142,7 @@
         <v>100</v>
       </c>
       <c r="L185" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M185" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         <v>98.98989898989899</v>
       </c>
       <c r="L186" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M186" t="n">
         <v>0.9900294238804214</v>
@@ -9236,7 +9236,7 @@
         <v>99.57446808510639</v>
       </c>
       <c r="L187" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M187" t="n">
         <v>0.9978227710032295</v>
@@ -9283,7 +9283,7 @@
         <v>100</v>
       </c>
       <c r="L188" t="n">
-        <v>4.325726999923063</v>
+        <v>4.332757000156562</v>
       </c>
       <c r="M188" t="n">
         <v>1</v>
@@ -9330,7 +9330,7 @@
         <v>99.29996956389408</v>
       </c>
       <c r="L189" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M189" t="n">
         <v>0.9992303461700718</v>
@@ -9377,10 +9377,10 @@
         <v>98.53463183762629</v>
       </c>
       <c r="L190" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M190" t="n">
-        <v>0.9992303461700718</v>
+        <v>0.9961381969896169</v>
       </c>
     </row>
     <row r="191">
@@ -9424,7 +9424,7 @@
         <v>81.81818181818181</v>
       </c>
       <c r="L191" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M191" t="n">
         <v>1</v>
@@ -9471,7 +9471,7 @@
         <v>100</v>
       </c>
       <c r="L192" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M192" t="n">
         <v>1</v>
@@ -9518,7 +9518,7 @@
         <v>86.51162790697676</v>
       </c>
       <c r="L193" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M193" t="n">
         <v>0.9666163839416143</v>
@@ -9565,7 +9565,7 @@
         <v>99.26339852679705</v>
       </c>
       <c r="L194" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M194" t="n">
         <v>0.9996349144280186</v>
@@ -9612,7 +9612,7 @@
         <v>97.67441860465117</v>
       </c>
       <c r="L195" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M195" t="n">
         <v>0.9928671328671326</v>
@@ -9659,7 +9659,7 @@
         <v>77.77777777777777</v>
       </c>
       <c r="L196" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M196" t="n">
         <v>0.8895335813517772</v>
@@ -9706,7 +9706,7 @@
         <v>97.95918367346938</v>
       </c>
       <c r="L197" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M197" t="n">
         <v>0.9996039215686275</v>
@@ -9753,7 +9753,7 @@
         <v>97.10216110019645</v>
       </c>
       <c r="L198" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M198" t="n">
         <v>0.9658835602827794</v>
@@ -9800,7 +9800,7 @@
         <v>98.66666666666666</v>
       </c>
       <c r="L199" t="n">
-        <v>9.522046999791201</v>
+        <v>9.119403999648057</v>
       </c>
       <c r="M199" t="n">
         <v>1</v>
@@ -9847,7 +9847,7 @@
         <v>99.85722320771862</v>
       </c>
       <c r="L200" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M200" t="n">
         <v>0.9996939151041709</v>
@@ -9894,10 +9894,10 @@
         <v>99.6964959072933</v>
       </c>
       <c r="L201" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M201" t="n">
-        <v>0.9996939151041709</v>
+        <v>0.9981860167995072</v>
       </c>
     </row>
     <row r="202">
@@ -9941,7 +9941,7 @@
         <v>81.81818181818181</v>
       </c>
       <c r="L202" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M202" t="n">
         <v>0.9090909090909092</v>
@@ -9988,7 +9988,7 @@
         <v>100</v>
       </c>
       <c r="L203" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M203" t="n">
         <v>1</v>
@@ -10035,7 +10035,7 @@
         <v>87.37864077669903</v>
       </c>
       <c r="L204" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M204" t="n">
         <v>0.9116017529737053</v>
@@ -10082,7 +10082,7 @@
         <v>99.54545454545455</v>
       </c>
       <c r="L205" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M205" t="n">
         <v>0.9971780705771398</v>
@@ -10129,7 +10129,7 @@
         <v>85.71428571428572</v>
       </c>
       <c r="L206" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M206" t="n">
         <v>0.8781875560708117</v>
@@ -10176,7 +10176,7 @@
         <v>92.45283018867923</v>
       </c>
       <c r="L207" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M207" t="n">
         <v>0.9602360488077709</v>
@@ -10223,7 +10223,7 @@
         <v>100</v>
       </c>
       <c r="L208" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M208" t="n">
         <v>1</v>
@@ -10270,7 +10270,7 @@
         <v>100</v>
       </c>
       <c r="L209" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M209" t="n">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>100</v>
       </c>
       <c r="L210" t="n">
-        <v>274.5344750001095</v>
+        <v>268.5556410001482</v>
       </c>
       <c r="M210" t="n">
         <v>1</v>
@@ -10364,7 +10364,7 @@
         <v>99.97839332785965</v>
       </c>
       <c r="L211" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M211" t="n">
         <v>0.9999974508891851</v>
@@ -10411,10 +10411,10 @@
         <v>99.95389580451821</v>
       </c>
       <c r="L212" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M212" t="n">
-        <v>0.9999974508891851</v>
+        <v>0.9999891193833405</v>
       </c>
     </row>
     <row r="213">
@@ -10458,7 +10458,7 @@
         <v>100</v>
       </c>
       <c r="L213" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M213" t="n">
         <v>1</v>
@@ -10505,7 +10505,7 @@
         <v>100</v>
       </c>
       <c r="L214" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M214" t="n">
         <v>1</v>
@@ -10552,7 +10552,7 @@
         <v>94.89795918367348</v>
       </c>
       <c r="L215" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M215" t="n">
         <v>0.9957901385520002</v>
@@ -10599,7 +10599,7 @@
         <v>99.72201162496842</v>
       </c>
       <c r="L216" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M216" t="n">
         <v>0.9999815637558651</v>
@@ -10646,7 +10646,7 @@
         <v>100</v>
       </c>
       <c r="L217" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M217" t="n">
         <v>1</v>
@@ -10693,7 +10693,7 @@
         <v>98</v>
       </c>
       <c r="L218" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M218" t="n">
         <v>0.9996039215686275</v>
@@ -10740,7 +10740,7 @@
         <v>100</v>
       </c>
       <c r="L219" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M219" t="n">
         <v>1</v>
@@ -10787,7 +10787,7 @@
         <v>100</v>
       </c>
       <c r="L220" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M220" t="n">
         <v>1</v>
@@ -10834,7 +10834,7 @@
         <v>100</v>
       </c>
       <c r="L221" t="n">
-        <v>336.4283239998258</v>
+        <v>330.4944480000813</v>
       </c>
       <c r="M221" t="n">
         <v>0.9999999999999996</v>
@@ -10881,7 +10881,7 @@
         <v>99.96974804442715</v>
       </c>
       <c r="L222" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M222" t="n">
         <v>0.9999998207780112</v>
@@ -10928,10 +10928,10 @@
         <v>99.93546602747304</v>
       </c>
       <c r="L223" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M223" t="n">
-        <v>0.9999998207780112</v>
+        <v>0.9999991840182315</v>
       </c>
     </row>
     <row r="224">
@@ -10975,7 +10975,7 @@
         <v>100</v>
       </c>
       <c r="L224" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M224" t="n">
         <v>1</v>
@@ -11022,7 +11022,7 @@
         <v>100</v>
       </c>
       <c r="L225" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M225" t="n">
         <v>1</v>
@@ -11069,7 +11069,7 @@
         <v>96.37305699481867</v>
       </c>
       <c r="L226" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M226" t="n">
         <v>0.9934296099251307</v>
@@ -11116,7 +11116,7 @@
         <v>99.8989388580091</v>
       </c>
       <c r="L227" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M227" t="n">
         <v>0.9999886228237685</v>
@@ -11163,7 +11163,7 @@
         <v>97.67441860465117</v>
       </c>
       <c r="L228" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M228" t="n">
         <v>1</v>
@@ -11210,7 +11210,7 @@
         <v>98.98989898989899</v>
       </c>
       <c r="L229" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M229" t="n">
         <v>1</v>
@@ -11257,7 +11257,7 @@
         <v>100</v>
       </c>
       <c r="L230" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M230" t="n">
         <v>1</v>
@@ -11304,7 +11304,7 @@
         <v>100</v>
       </c>
       <c r="L231" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M231" t="n">
         <v>1</v>
@@ -11351,7 +11351,7 @@
         <v>100</v>
       </c>
       <c r="L232" t="n">
-        <v>47.22595800012641</v>
+        <v>46.83911800020724</v>
       </c>
       <c r="M232" t="n">
         <v>1</v>
@@ -11398,7 +11398,7 @@
         <v>99.89622070396955</v>
       </c>
       <c r="L233" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M233" t="n">
         <v>0.9996307881090423</v>
@@ -11445,10 +11445,10 @@
         <v>99.77900552486187</v>
       </c>
       <c r="L234" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M234" t="n">
-        <v>0.9996307881090423</v>
+        <v>0.9984377023925156</v>
       </c>
     </row>
     <row r="235">
@@ -11492,7 +11492,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L235" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M235" t="n">
         <v>0.95</v>
@@ -11539,7 +11539,7 @@
         <v>99.95796553173602</v>
       </c>
       <c r="L236" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M236" t="n">
         <v>0.9995798319327731</v>
@@ -11586,7 +11586,7 @@
         <v>90.0523560209424</v>
       </c>
       <c r="L237" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M237" t="n">
         <v>0.8787878269994358</v>
@@ -11633,7 +11633,7 @@
         <v>99.62149886449659</v>
       </c>
       <c r="L238" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M238" t="n">
         <v>0.9964201318702068</v>
@@ -11680,7 +11680,7 @@
         <v>86.27450980392156</v>
       </c>
       <c r="L239" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M239" t="n">
         <v>0.8234064785788924</v>
@@ -11727,7 +11727,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L240" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M240" t="n">
         <v>0.9807692307692308</v>
@@ -11774,7 +11774,7 @@
         <v>100</v>
       </c>
       <c r="L241" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M241" t="n">
         <v>1</v>
@@ -11821,7 +11821,7 @@
         <v>99.97486805730082</v>
       </c>
       <c r="L242" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M242" t="n">
         <v>0.999748743718593</v>
@@ -11868,7 +11868,7 @@
         <v>94.73684210526315</v>
       </c>
       <c r="L243" t="n">
-        <v>4.140941000059684</v>
+        <v>4.265970999767887</v>
       </c>
       <c r="M243" t="n">
         <v>0.9480543719053695</v>
@@ -11915,7 +11915,7 @@
         <v>99.32611625581498</v>
       </c>
       <c r="L244" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M244" t="n">
         <v>0.9995705791113512</v>
@@ -11962,10 +11962,10 @@
         <v>98.58898497951752</v>
       </c>
       <c r="L245" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M245" t="n">
-        <v>0.9995705791113512</v>
+        <v>0.9974953581736726</v>
       </c>
     </row>
     <row r="246">
@@ -12009,7 +12009,7 @@
         <v>85.71428571428571</v>
       </c>
       <c r="L246" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M246" t="n">
         <v>1</v>
@@ -12056,7 +12056,7 @@
         <v>100</v>
       </c>
       <c r="L247" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M247" t="n">
         <v>1</v>
@@ -12103,7 +12103,7 @@
         <v>91.91919191919192</v>
       </c>
       <c r="L248" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M248" t="n">
         <v>0.9789378901806087</v>
@@ -12150,7 +12150,7 @@
         <v>99.67130214917826</v>
       </c>
       <c r="L249" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M249" t="n">
         <v>0.999936278615195</v>
@@ -12197,7 +12197,7 @@
         <v>93.61702127659575</v>
       </c>
       <c r="L250" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M250" t="n">
         <v>0.9999999999999998</v>
@@ -12244,7 +12244,7 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L251" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M251" t="n">
         <v>0.9330681581652006</v>
@@ -12291,7 +12291,7 @@
         <v>100</v>
       </c>
       <c r="L252" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M252" t="n">
         <v>1</v>
@@ -12338,7 +12338,7 @@
         <v>96.90470387521327</v>
       </c>
       <c r="L253" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M253" t="n">
         <v>0.9671159447540864</v>
@@ -12385,7 +12385,7 @@
         <v>100</v>
       </c>
       <c r="L254" t="n">
-        <v>9.27457499983575</v>
+        <v>9.224936999999045</v>
       </c>
       <c r="M254" t="n">
         <v>0.9999999999999996</v>
@@ -12432,7 +12432,7 @@
         <v>99.87889273356402</v>
       </c>
       <c r="L255" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M255" t="n">
         <v>0.9997333993229149</v>
@@ -12479,10 +12479,10 @@
         <v>99.74231547947726</v>
       </c>
       <c r="L256" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M256" t="n">
-        <v>0.9997333993229149</v>
+        <v>0.9986746428580096</v>
       </c>
     </row>
     <row r="257">
@@ -12526,7 +12526,7 @@
         <v>81.81818181818181</v>
       </c>
       <c r="L257" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M257" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>100</v>
       </c>
       <c r="L258" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M258" t="n">
         <v>1</v>
@@ -12620,7 +12620,7 @@
         <v>88.54166666666666</v>
       </c>
       <c r="L259" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M259" t="n">
         <v>0.9047159475027482</v>
@@ -12667,7 +12667,7 @@
         <v>99.52177196073497</v>
       </c>
       <c r="L260" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M260" t="n">
         <v>0.9965430981168951</v>
@@ -12714,7 +12714,7 @@
         <v>95.65217391304348</v>
       </c>
       <c r="L261" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M261" t="n">
         <v>1</v>
@@ -12761,7 +12761,7 @@
         <v>95.14563106796116</v>
       </c>
       <c r="L262" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M262" t="n">
         <v>0.9694102288339818</v>
@@ -12808,7 +12808,7 @@
         <v>100</v>
       </c>
       <c r="L263" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M263" t="n">
         <v>1</v>
@@ -12855,7 +12855,7 @@
         <v>100</v>
       </c>
       <c r="L264" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M264" t="n">
         <v>1</v>
@@ -12902,7 +12902,7 @@
         <v>100</v>
       </c>
       <c r="L265" t="n">
-        <v>259.2031869999118</v>
+        <v>249.2251549997491</v>
       </c>
       <c r="M265" t="n">
         <v>1</v>
@@ -12949,7 +12949,7 @@
         <v>99.96542484225085</v>
       </c>
       <c r="L266" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M266" t="n">
         <v>0.999999746108043</v>
@@ -12996,10 +12996,10 @@
         <v>99.92625368731564</v>
       </c>
       <c r="L267" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M267" t="n">
-        <v>0.999999746108043</v>
+        <v>0.9999988442254902</v>
       </c>
     </row>
     <row r="268">
@@ -13043,7 +13043,7 @@
         <v>100</v>
       </c>
       <c r="L268" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M268" t="n">
         <v>1</v>
@@ -13090,7 +13090,7 @@
         <v>100</v>
       </c>
       <c r="L269" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M269" t="n">
         <v>1</v>
@@ -13137,7 +13137,7 @@
         <v>94.30051813471502</v>
       </c>
       <c r="L270" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M270" t="n">
         <v>0.993775032611607</v>
@@ -13184,7 +13184,7 @@
         <v>99.77266986612783</v>
       </c>
       <c r="L271" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M271" t="n">
         <v>0.9999893366104017</v>
@@ -13231,7 +13231,7 @@
         <v>95.65217391304348</v>
       </c>
       <c r="L272" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M272" t="n">
         <v>0.9999999999999998</v>
@@ -13278,7 +13278,7 @@
         <v>100</v>
       </c>
       <c r="L273" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M273" t="n">
         <v>1</v>
@@ -13325,7 +13325,7 @@
         <v>100</v>
       </c>
       <c r="L274" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M274" t="n">
         <v>1</v>
@@ -13372,7 +13372,7 @@
         <v>100</v>
       </c>
       <c r="L275" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M275" t="n">
         <v>1</v>
@@ -13419,7 +13419,7 @@
         <v>100</v>
       </c>
       <c r="L276" t="n">
-        <v>320.1086159997431</v>
+        <v>309.9620150001101</v>
       </c>
       <c r="M276" t="n">
         <v>1</v>
@@ -13466,7 +13466,7 @@
         <v>99.98703711705484</v>
       </c>
       <c r="L277" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M277" t="n">
         <v>0.9999994720189762</v>
@@ -13513,10 +13513,10 @@
         <v>99.97233238033756</v>
       </c>
       <c r="L278" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M278" t="n">
-        <v>0.9999994720189762</v>
+        <v>0.9999976299278575</v>
       </c>
     </row>
     <row r="279">
@@ -13560,7 +13560,7 @@
         <v>100</v>
       </c>
       <c r="L279" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M279" t="n">
         <v>1</v>
@@ -13607,7 +13607,7 @@
         <v>100</v>
       </c>
       <c r="L280" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M280" t="n">
         <v>1</v>
@@ -13654,7 +13654,7 @@
         <v>98.44559585492229</v>
       </c>
       <c r="L281" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M281" t="n">
         <v>0.998683996298132</v>
@@ -13701,7 +13701,7 @@
         <v>99.87364164771292</v>
       </c>
       <c r="L282" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M282" t="n">
         <v>0.9999931862887621</v>
@@ -13748,7 +13748,7 @@
         <v>100</v>
       </c>
       <c r="L283" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M283" t="n">
         <v>0.9999999999999999</v>
@@ -13795,7 +13795,7 @@
         <v>100</v>
       </c>
       <c r="L284" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M284" t="n">
         <v>1</v>
@@ -13842,7 +13842,7 @@
         <v>100</v>
       </c>
       <c r="L285" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M285" t="n">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L286" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M286" t="n">
         <v>1</v>
@@ -13936,7 +13936,7 @@
         <v>100</v>
       </c>
       <c r="L287" t="n">
-        <v>47.27279500002624</v>
+        <v>46.98449199986499</v>
       </c>
       <c r="M287" t="n">
         <v>1</v>
@@ -13983,7 +13983,7 @@
         <v>99.93083772801936</v>
       </c>
       <c r="L288" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M288" t="n">
         <v>0.9996751319828964</v>
@@ -14030,10 +14030,10 @@
         <v>99.85256173977147</v>
       </c>
       <c r="L289" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M289" t="n">
-        <v>0.9996751319828964</v>
+        <v>0.9987337300697148</v>
       </c>
     </row>
     <row r="290">
@@ -14077,7 +14077,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L290" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M290" t="n">
         <v>0.95</v>
@@ -14124,7 +14124,7 @@
         <v>100</v>
       </c>
       <c r="L291" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M291" t="n">
         <v>1</v>
@@ -14171,7 +14171,7 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L292" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M292" t="n">
         <v>0.8876797222032465</v>
@@ -14218,7 +14218,7 @@
         <v>99.49418310571573</v>
       </c>
       <c r="L293" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M293" t="n">
         <v>0.9953542708894105</v>
@@ -14265,7 +14265,7 @@
         <v>93.61702127659575</v>
       </c>
       <c r="L294" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M294" t="n">
         <v>0.933732057416268</v>
@@ -14312,7 +14312,7 @@
         <v>97.08737864077671</v>
       </c>
       <c r="L295" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M295" t="n">
         <v>0.9716981132075472</v>
@@ -14359,7 +14359,7 @@
         <v>100</v>
       </c>
       <c r="L296" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M296" t="n">
         <v>1</v>
@@ -14406,7 +14406,7 @@
         <v>99.97486805730082</v>
       </c>
       <c r="L297" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M297" t="n">
         <v>0.999748743718593</v>
@@ -14453,7 +14453,7 @@
         <v>100</v>
       </c>
       <c r="L298" t="n">
-        <v>4.275865000181511</v>
+        <v>4.481788999783021</v>
       </c>
       <c r="M298" t="n">
         <v>1</v>
@@ -14500,7 +14500,7 @@
         <v>99.39594107166137</v>
       </c>
       <c r="L299" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M299" t="n">
         <v>0.9995162335608154</v>
@@ -14547,10 +14547,10 @@
         <v>98.73348519362187</v>
       </c>
       <c r="L300" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M300" t="n">
-        <v>0.9995162335608154</v>
+        <v>0.9971385899872804</v>
       </c>
     </row>
     <row r="301">
@@ -14594,7 +14594,7 @@
         <v>72</v>
       </c>
       <c r="L301" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M301" t="n">
         <v>0.7356701940035273</v>
@@ -14641,7 +14641,7 @@
         <v>99.91596638655462</v>
       </c>
       <c r="L302" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M302" t="n">
         <v>0.9997819497218196</v>
@@ -14688,7 +14688,7 @@
         <v>88.23529411764707</v>
       </c>
       <c r="L303" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M303" t="n">
         <v>0.9699487698860406</v>
@@ -14735,7 +14735,7 @@
         <v>99.44331983805668</v>
       </c>
       <c r="L304" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M304" t="n">
         <v>0.9999138157128573</v>
@@ -14782,7 +14782,7 @@
         <v>93.61702127659575</v>
       </c>
       <c r="L305" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M305" t="n">
         <v>0.9999999999999998</v>
@@ -14829,7 +14829,7 @@
         <v>89.28571428571428</v>
       </c>
       <c r="L306" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M306" t="n">
         <v>0.9467057085776899</v>
@@ -14876,7 +14876,7 @@
         <v>100</v>
       </c>
       <c r="L307" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M307" t="n">
         <v>1</v>
@@ -14923,7 +14923,7 @@
         <v>97.3290860083313</v>
       </c>
       <c r="L308" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M308" t="n">
         <v>0.9714296322263865</v>
@@ -14970,7 +14970,7 @@
         <v>100</v>
       </c>
       <c r="L309" t="n">
-        <v>10.84624699979031</v>
+        <v>9.173356000246713</v>
       </c>
       <c r="M309" t="n">
         <v>0.9999999999999996</v>
@@ -15017,7 +15017,7 @@
         <v>99.87457289909607</v>
       </c>
       <c r="L310" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M310" t="n">
         <v>0.9995917621842685</v>
@@ -15064,10 +15064,10 @@
         <v>99.7330878969167</v>
       </c>
       <c r="L311" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M311" t="n">
-        <v>0.9995917621842685</v>
+        <v>0.9981830728034976</v>
       </c>
     </row>
     <row r="312">
@@ -15111,7 +15111,7 @@
         <v>74.99999999999999</v>
       </c>
       <c r="L312" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M312" t="n">
         <v>0.8214285714285714</v>
@@ -15158,7 +15158,7 @@
         <v>99.91589571068124</v>
       </c>
       <c r="L313" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M313" t="n">
         <v>0.9991880279050742</v>
@@ -15205,7 +15205,7 @@
         <v>86.43216080402011</v>
       </c>
       <c r="L314" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M314" t="n">
         <v>0.8890128944604916</v>
@@ -15252,7 +15252,7 @@
         <v>99.49545913218969</v>
       </c>
       <c r="L315" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M315" t="n">
         <v>0.9958800178764614</v>
@@ -15299,7 +15299,7 @@
         <v>95.65217391304348</v>
       </c>
       <c r="L316" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M316" t="n">
         <v>0.9583333333333333</v>
@@ -15346,7 +15346,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L317" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M317" t="n">
         <v>0.9901960784313726</v>
@@ -15393,7 +15393,7 @@
         <v>99.009900990099</v>
       </c>
       <c r="L318" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M318" t="n">
         <v>0.9901960784313726</v>
@@ -15440,7 +15440,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L319" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M319" t="n">
         <v>0.9997780412760976</v>
@@ -15487,7 +15487,7 @@
         <v>100</v>
       </c>
       <c r="L320" t="n">
-        <v>269.7873070001151</v>
+        <v>268.609503999869</v>
       </c>
       <c r="M320" t="n">
         <v>1</v>
@@ -15534,7 +15534,7 @@
         <v>99.96110126636989</v>
       </c>
       <c r="L321" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M321" t="n">
         <v>0.9999979386655415</v>
@@ -15581,10 +15581,10 @@
         <v>99.91704304544197</v>
       </c>
       <c r="L322" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M322" t="n">
-        <v>0.9999979386655415</v>
+        <v>0.9999911240355358</v>
       </c>
     </row>
     <row r="323">
@@ -15628,7 +15628,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L323" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M323" t="n">
         <v>1</v>
@@ -15675,7 +15675,7 @@
         <v>99.95796553173602</v>
       </c>
       <c r="L324" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M324" t="n">
         <v>1</v>
@@ -15722,7 +15722,7 @@
         <v>94.84536082474226</v>
       </c>
       <c r="L325" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M325" t="n">
         <v>0.9928063475547406</v>
@@ -15769,7 +15769,7 @@
         <v>99.72201162496842</v>
       </c>
       <c r="L326" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M326" t="n">
         <v>0.9999773235770286</v>
@@ -15816,7 +15816,7 @@
         <v>97.77777777777777</v>
       </c>
       <c r="L327" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M327" t="n">
         <v>0.9999999999999998</v>
@@ -15863,7 +15863,7 @@
         <v>100</v>
       </c>
       <c r="L328" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M328" t="n">
         <v>1</v>
@@ -15910,7 +15910,7 @@
         <v>100</v>
       </c>
       <c r="L329" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M329" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L330" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M330" t="n">
         <v>1</v>
@@ -16004,7 +16004,7 @@
         <v>100</v>
       </c>
       <c r="L331" t="n">
-        <v>332.4834380000539</v>
+        <v>329.5599570001286</v>
       </c>
       <c r="M331" t="n">
         <v>0.9999999999999998</v>
@@ -16051,7 +16051,7 @@
         <v>99.95678852303172</v>
       </c>
       <c r="L332" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M332" t="n">
         <v>0.999998937990867</v>
@@ -16098,10 +16098,10 @@
         <v>99.90778310586499</v>
       </c>
       <c r="L333" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M333" t="n">
-        <v>0.999998937990867</v>
+        <v>0.9999952039086328</v>
       </c>
     </row>
     <row r="334">
@@ -16145,7 +16145,7 @@
         <v>100</v>
       </c>
       <c r="L334" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M334" t="n">
         <v>1</v>
@@ -16192,7 +16192,7 @@
         <v>100</v>
       </c>
       <c r="L335" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M335" t="n">
         <v>1</v>
@@ -16239,7 +16239,7 @@
         <v>95.78947368421052</v>
       </c>
       <c r="L336" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M336" t="n">
         <v>0.9941598515570151</v>
@@ -16286,7 +16286,7 @@
         <v>99.84863773965689</v>
       </c>
       <c r="L337" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M337" t="n">
         <v>0.9999846753791329</v>
@@ -16333,7 +16333,7 @@
         <v>92.68292682926828</v>
       </c>
       <c r="L338" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M338" t="n">
         <v>0.9661778939217964</v>
@@ -16380,7 +16380,7 @@
         <v>98.98989898989899</v>
       </c>
       <c r="L339" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M339" t="n">
         <v>0.9842174580684555</v>
@@ -16427,7 +16427,7 @@
         <v>100</v>
       </c>
       <c r="L340" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M340" t="n">
         <v>1</v>
@@ -16474,7 +16474,7 @@
         <v>100</v>
       </c>
       <c r="L341" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M341" t="n">
         <v>1</v>
@@ -16521,7 +16521,7 @@
         <v>100</v>
       </c>
       <c r="L342" t="n">
-        <v>47.52880299975004</v>
+        <v>47.24195299968414</v>
       </c>
       <c r="M342" t="n">
         <v>1</v>
@@ -16568,7 +16568,7 @@
         <v>99.89625659202905</v>
       </c>
       <c r="L343" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M343" t="n">
         <v>0.9994334674684809</v>
@@ -16615,10 +16615,10 @@
         <v>99.7788426096572</v>
       </c>
       <c r="L344" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M344" t="n">
-        <v>0.9994334674684809</v>
+        <v>0.99802435938937</v>
       </c>
     </row>
     <row r="345">
@@ -16662,7 +16662,7 @@
         <v>100</v>
       </c>
       <c r="L345" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M345" t="n">
         <v>1</v>
@@ -16709,7 +16709,7 @@
         <v>100</v>
       </c>
       <c r="L346" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M346" t="n">
         <v>1</v>
@@ -16756,7 +16756,7 @@
         <v>93</v>
       </c>
       <c r="L347" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M347" t="n">
         <v>0.9323896748285119</v>
@@ -16803,7 +16803,7 @@
         <v>99.74709155285787</v>
       </c>
       <c r="L348" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M348" t="n">
         <v>0.9977398137276852</v>
@@ -16850,7 +16850,7 @@
         <v>82.60869565217391</v>
       </c>
       <c r="L349" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M349" t="n">
         <v>0.8324398001417951</v>
@@ -16897,7 +16897,7 @@
         <v>95.04950495049505</v>
       </c>
       <c r="L350" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M350" t="n">
         <v>0.9506470830549604</v>
@@ -16944,7 +16944,7 @@
         <v>100</v>
       </c>
       <c r="L351" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M351" t="n">
         <v>1</v>
@@ -16991,7 +16991,7 @@
         <v>99.92460417190249</v>
       </c>
       <c r="L352" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M352" t="n">
         <v>0.9992755287132835</v>
@@ -17038,7 +17038,7 @@
         <v>100</v>
       </c>
       <c r="L353" t="n">
-        <v>4.305498000121588</v>
+        <v>4.325763999986521</v>
       </c>
       <c r="M353" t="n">
         <v>1</v>
@@ -17085,7 +17085,7 @@
         <v>99.27356561833921</v>
       </c>
       <c r="L354" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M354" t="n">
         <v>0.9993574020978249</v>
@@ -17132,10 +17132,10 @@
         <v>98.48140401927797</v>
       </c>
       <c r="L355" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M355" t="n">
-        <v>0.9993574020978249</v>
+        <v>0.9968087855321975</v>
       </c>
     </row>
     <row r="356">
@@ -17179,7 +17179,7 @@
         <v>68.96551724137932</v>
       </c>
       <c r="L356" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M356" t="n">
         <v>0.9999999999999999</v>
@@ -17226,7 +17226,7 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L357" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M357" t="n">
         <v>0.9995817016339118</v>
@@ -17273,7 +17273,7 @@
         <v>89.7560975609756</v>
       </c>
       <c r="L358" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M358" t="n">
         <v>0.9728350487607116</v>
@@ -17320,7 +17320,7 @@
         <v>99.54407294832826</v>
       </c>
       <c r="L359" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M359" t="n">
         <v>0.9999525478059759</v>
@@ -17367,7 +17367,7 @@
         <v>86.95652173913044</v>
       </c>
       <c r="L360" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M360" t="n">
         <v>0.9209478952335827</v>
@@ -17414,7 +17414,7 @@
         <v>77.04918032786885</v>
       </c>
       <c r="L361" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M361" t="n">
         <v>0.8912331894075353</v>
@@ -17461,7 +17461,7 @@
         <v>98.96907216494846</v>
       </c>
       <c r="L362" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M362" t="n">
         <v>1</v>
@@ -17508,7 +17508,7 @@
         <v>97.25355566454145</v>
       </c>
       <c r="L363" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M363" t="n">
         <v>0.9660068920736008</v>
@@ -17555,7 +17555,7 @@
         <v>98.7012987012987</v>
       </c>
       <c r="L364" t="n">
-        <v>9.406454999862035</v>
+        <v>9.250830000382848</v>
       </c>
       <c r="M364" t="n">
         <v>0.9999999999999999</v>
@@ -17602,7 +17602,7 @@
         <v>99.89624762234133</v>
       </c>
       <c r="L365" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M365" t="n">
         <v>0.9996742120503934</v>
@@ -17649,10 +17649,10 @@
         <v>99.77888336097293</v>
       </c>
       <c r="L366" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M366" t="n">
-        <v>0.9996742120503934</v>
+        <v>0.9987313169301603</v>
       </c>
     </row>
     <row r="367">
@@ -17696,7 +17696,7 @@
         <v>68.96551724137932</v>
       </c>
       <c r="L367" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M367" t="n">
         <v>0.8333333333333333</v>
@@ -17743,7 +17743,7 @@
         <v>99.91582491582491</v>
       </c>
       <c r="L368" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M368" t="n">
         <v>0.9996085487572535</v>
@@ -17790,7 +17790,7 @@
         <v>89.47368421052632</v>
       </c>
       <c r="L369" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M369" t="n">
         <v>0.9231922364634061</v>
@@ -17837,7 +17837,7 @@
         <v>99.67229644567684</v>
       </c>
       <c r="L370" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M370" t="n">
         <v>0.9975547931114793</v>
@@ -17884,7 +17884,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L371" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M371" t="n">
         <v>0.9504385730473344</v>
@@ -17931,7 +17931,7 @@
         <v>95.91836734693877</v>
       </c>
       <c r="L372" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M372" t="n">
         <v>0.9584966049745973</v>
@@ -17978,7 +17978,7 @@
         <v>97.95918367346938</v>
       </c>
       <c r="L373" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M373" t="n">
         <v>0.9796212606151152</v>
@@ -18025,7 +18025,7 @@
         <v>100</v>
       </c>
       <c r="L374" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M374" t="n">
         <v>1</v>
@@ -18072,7 +18072,7 @@
         <v>100</v>
       </c>
       <c r="L375" t="n">
-        <v>259.1148439996687</v>
+        <v>261.510928000007</v>
       </c>
       <c r="M375" t="n">
         <v>1</v>
@@ -18119,7 +18119,7 @@
         <v>99.95678105281355</v>
       </c>
       <c r="L376" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M376" t="n">
         <v>0.9999979441135911</v>
@@ -18166,10 +18166,10 @@
         <v>99.90781710914453</v>
       </c>
       <c r="L377" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M377" t="n">
-        <v>0.9999979441135911</v>
+        <v>0.9999910295467955</v>
       </c>
     </row>
     <row r="378">
@@ -18213,7 +18213,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L378" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M378" t="n">
         <v>0.9999999999999999</v>
@@ -18260,7 +18260,7 @@
         <v>100</v>
       </c>
       <c r="L379" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M379" t="n">
         <v>1</v>
@@ -18307,7 +18307,7 @@
         <v>95.87628865979383</v>
       </c>
       <c r="L380" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M380" t="n">
         <v>0.9937290652230722</v>
@@ -18354,7 +18354,7 @@
         <v>99.87370548118211</v>
       </c>
       <c r="L381" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M381" t="n">
         <v>0.9999866963106137</v>
@@ -18401,7 +18401,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L382" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M382" t="n">
         <v>0.9798752834467119</v>
@@ -18448,7 +18448,7 @@
         <v>96.90721649484536</v>
       </c>
       <c r="L383" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M383" t="n">
         <v>0.9796710635054474</v>
@@ -18495,7 +18495,7 @@
         <v>100</v>
       </c>
       <c r="L384" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M384" t="n">
         <v>1</v>
@@ -18542,7 +18542,7 @@
         <v>99.9497487437186</v>
       </c>
       <c r="L385" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M385" t="n">
         <v>1</v>
@@ -18589,7 +18589,7 @@
         <v>100</v>
       </c>
       <c r="L386" t="n">
-        <v>320.6373809998695</v>
+        <v>322.6274879998527</v>
       </c>
       <c r="M386" t="n">
         <v>0.9999999999999998</v>
@@ -18636,7 +18636,7 @@
         <v>99.97407535430348</v>
       </c>
       <c r="L387" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M387" t="n">
         <v>0.9999985917764004</v>
@@ -18683,10 +18683,10 @@
         <v>99.94465965688987</v>
       </c>
       <c r="L388" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M388" t="n">
-        <v>0.9999985917764004</v>
+        <v>0.9999936879239382</v>
       </c>
     </row>
     <row r="389">
@@ -18730,7 +18730,7 @@
         <v>100</v>
       </c>
       <c r="L389" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M389" t="n">
         <v>1</v>
@@ -18777,7 +18777,7 @@
         <v>100</v>
       </c>
       <c r="L390" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M390" t="n">
         <v>1</v>
@@ -18824,7 +18824,7 @@
         <v>98.44559585492229</v>
       </c>
       <c r="L391" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M391" t="n">
         <v>0.9995647121388879</v>
@@ -18871,7 +18871,7 @@
         <v>99.84840828701364</v>
       </c>
       <c r="L392" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M392" t="n">
         <v>0.9997556783397759</v>
@@ -18918,7 +18918,7 @@
         <v>100</v>
       </c>
       <c r="L393" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M393" t="n">
         <v>1</v>
@@ -18965,7 +18965,7 @@
         <v>100</v>
       </c>
       <c r="L394" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M394" t="n">
         <v>1</v>
@@ -19012,7 +19012,7 @@
         <v>100</v>
       </c>
       <c r="L395" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M395" t="n">
         <v>1</v>
@@ -19059,7 +19059,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L396" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M396" t="n">
         <v>1</v>
@@ -19106,7 +19106,7 @@
         <v>95.8904109589041</v>
       </c>
       <c r="L397" t="n">
-        <v>46.55909299981431</v>
+        <v>47.3426919998019</v>
       </c>
       <c r="M397" t="n">
         <v>0.9980503851091143</v>
@@ -19153,7 +19153,7 @@
         <v>99.90491009681882</v>
       </c>
       <c r="L398" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M398" t="n">
         <v>0.999474330408112</v>
@@ -19200,10 +19200,10 @@
         <v>99.79723502304147</v>
       </c>
       <c r="L399" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M399" t="n">
-        <v>0.999474330408112</v>
+        <v>0.9982955423850874</v>
       </c>
     </row>
     <row r="400">
@@ -19247,7 +19247,7 @@
         <v>83.33333333333333</v>
       </c>
       <c r="L400" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M400" t="n">
         <v>0.8571428571428572</v>
@@ -19294,7 +19294,7 @@
         <v>100</v>
       </c>
       <c r="L401" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M401" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         <v>94.79166666666666</v>
       </c>
       <c r="L402" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M402" t="n">
         <v>0.9548932375059874</v>
@@ -19388,7 +19388,7 @@
         <v>99.72201162496842</v>
       </c>
       <c r="L403" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M403" t="n">
         <v>0.9978973265586019</v>
@@ -19435,7 +19435,7 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L404" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M404" t="n">
         <v>0.8344965440618272</v>
@@ -19482,7 +19482,7 @@
         <v>96.07843137254902</v>
       </c>
       <c r="L405" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M405" t="n">
         <v>0.9610054761300585</v>
@@ -19529,7 +19529,7 @@
         <v>98.98989898989899</v>
       </c>
       <c r="L406" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M406" t="n">
         <v>0.99</v>
@@ -19576,7 +19576,7 @@
         <v>100</v>
       </c>
       <c r="L407" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M407" t="n">
         <v>1</v>
@@ -19623,7 +19623,7 @@
         <v>95.99999999999999</v>
       </c>
       <c r="L408" t="n">
-        <v>4.296606000025349</v>
+        <v>4.223728999932064</v>
       </c>
       <c r="M408" t="n">
         <v>0.960229544773645</v>
@@ -19670,7 +19670,7 @@
         <v>99.365438108484</v>
       </c>
       <c r="L409" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M409" t="n">
         <v>0.9995585052012542</v>
@@ -19717,10 +19717,10 @@
         <v>98.67006740754236</v>
       </c>
       <c r="L410" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M410" t="n">
-        <v>0.9995585052012542</v>
+        <v>0.9974108422486092</v>
       </c>
     </row>
     <row r="411">
@@ -19764,7 +19764,7 @@
         <v>80</v>
       </c>
       <c r="L411" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M411" t="n">
         <v>0.7446789321789322</v>
@@ -19811,7 +19811,7 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L412" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M412" t="n">
         <v>0.9999888279878706</v>
@@ -19858,7 +19858,7 @@
         <v>91.37055837563452</v>
       </c>
       <c r="L413" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M413" t="n">
         <v>0.9766280630513582</v>
@@ -19905,7 +19905,7 @@
         <v>99.62092494313873</v>
       </c>
       <c r="L414" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M414" t="n">
         <v>0.9999621900699078</v>
@@ -19952,7 +19952,7 @@
         <v>90.90909090909089</v>
       </c>
       <c r="L415" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M415" t="n">
         <v>0.993918219461698</v>
@@ -19999,7 +19999,7 @@
         <v>81.55339805825243</v>
       </c>
       <c r="L416" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M416" t="n">
         <v>0.9322909677865299</v>
@@ -20046,7 +20046,7 @@
         <v>97.95918367346938</v>
       </c>
       <c r="L417" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M417" t="n">
         <v>0.9962267958030669</v>
@@ -20093,7 +20093,7 @@
         <v>97.09259711702907</v>
       </c>
       <c r="L418" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M418" t="n">
         <v>0.9767113675537343</v>
@@ -20140,7 +20140,7 @@
         <v>98.7012987012987</v>
       </c>
       <c r="L419" t="n">
-        <v>9.540275999825099</v>
+        <v>10.08349300036571</v>
       </c>
       <c r="M419" t="n">
         <v>0.9999999999999998</v>
@@ -20187,7 +20187,7 @@
         <v>99.90917347865576</v>
       </c>
       <c r="L420" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M420" t="n">
         <v>0.9997928944660879</v>
@@ -20234,10 +20234,10 @@
         <v>99.80671882190521</v>
       </c>
       <c r="L421" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M421" t="n">
-        <v>0.9997928944660879</v>
+        <v>0.9986182252369212</v>
       </c>
     </row>
     <row r="422">
@@ -20281,7 +20281,7 @@
         <v>76.92307692307693</v>
       </c>
       <c r="L422" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M422" t="n">
         <v>0.8333333333333333</v>
@@ -20328,7 +20328,7 @@
         <v>100</v>
       </c>
       <c r="L423" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M423" t="n">
         <v>1</v>
@@ -20375,7 +20375,7 @@
         <v>90.42553191489361</v>
       </c>
       <c r="L424" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M424" t="n">
         <v>0.9391287810439859</v>
@@ -20422,7 +20422,7 @@
         <v>99.5721117543418</v>
       </c>
       <c r="L425" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M425" t="n">
         <v>0.9980551668621854</v>
@@ -20469,7 +20469,7 @@
         <v>90.90909090909089</v>
       </c>
       <c r="L426" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M426" t="n">
         <v>0.923942019221588</v>
@@ -20516,7 +20516,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L427" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M427" t="n">
         <v>0.9545454545454546</v>
@@ -20563,7 +20563,7 @@
         <v>100</v>
       </c>
       <c r="L428" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M428" t="n">
         <v>1</v>
@@ -20610,7 +20610,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L429" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M429" t="n">
         <v>0.9997780412760976</v>
@@ -20657,7 +20657,7 @@
         <v>100</v>
       </c>
       <c r="L430" t="n">
-        <v>264.4610499996816</v>
+        <v>265.9060080000017</v>
       </c>
       <c r="M430" t="n">
         <v>1</v>
@@ -20704,7 +20704,7 @@
         <v>99.9697428139183</v>
       </c>
       <c r="L431" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M431" t="n">
         <v>0.9999996941095238</v>
@@ -20751,10 +20751,10 @@
         <v>99.93548981660678</v>
       </c>
       <c r="L432" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M432" t="n">
-        <v>0.9999996941095238</v>
+        <v>0.9999986042477589</v>
       </c>
     </row>
     <row r="433">
@@ -20798,7 +20798,7 @@
         <v>83.33333333333333</v>
       </c>
       <c r="L433" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M433" t="n">
         <v>0.9999999999999999</v>
@@ -20845,7 +20845,7 @@
         <v>100</v>
       </c>
       <c r="L434" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M434" t="n">
         <v>1</v>
@@ -20892,7 +20892,7 @@
         <v>97.91666666666666</v>
       </c>
       <c r="L435" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M435" t="n">
         <v>0.9965724485373126</v>
@@ -20939,7 +20939,7 @@
         <v>99.87370548118211</v>
       </c>
       <c r="L436" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M436" t="n">
         <v>0.9999606675548909</v>
@@ -20986,7 +20986,7 @@
         <v>97.67441860465117</v>
       </c>
       <c r="L437" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M437" t="n">
         <v>0.9954596990311277</v>
@@ -21033,7 +21033,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L438" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M438" t="n">
         <v>0.9991998399359744</v>
@@ -21080,7 +21080,7 @@
         <v>100</v>
       </c>
       <c r="L439" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M439" t="n">
         <v>1</v>
@@ -21127,7 +21127,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L440" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M440" t="n">
         <v>1</v>
@@ -21174,7 +21174,7 @@
         <v>100</v>
       </c>
       <c r="L441" t="n">
-        <v>325.1334569999926</v>
+        <v>327.8311730000496</v>
       </c>
       <c r="M441" t="n">
         <v>1</v>
@@ -21221,7 +21221,7 @@
         <v>99.96112143073135</v>
       </c>
       <c r="L442" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M442" t="n">
         <v>0.9999986569239622</v>
@@ -21268,10 +21268,10 @@
         <v>99.91693585602215</v>
       </c>
       <c r="L443" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M443" t="n">
-        <v>0.9999986569239622</v>
+        <v>0.9999939455978768</v>
       </c>
     </row>
     <row r="444">
@@ -21315,7 +21315,7 @@
         <v>94.11764705882352</v>
       </c>
       <c r="L444" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M444" t="n">
         <v>0.9082419859985261</v>
@@ -21362,7 +21362,7 @@
         <v>99.8740025199496</v>
       </c>
       <c r="L445" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M445" t="n">
         <v>1</v>
@@ -21409,7 +21409,7 @@
         <v>96.90721649484537</v>
       </c>
       <c r="L446" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M446" t="n">
         <v>0.9984679327125212</v>
@@ -21456,7 +21456,7 @@
         <v>99.74709155285787</v>
       </c>
       <c r="L447" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M447" t="n">
         <v>0.9997462885161331</v>
@@ -21503,7 +21503,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L448" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M448" t="n">
         <v>0.9961297760210802</v>
@@ -21550,7 +21550,7 @@
         <v>97.95918367346938</v>
       </c>
       <c r="L449" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M449" t="n">
         <v>0.9984307692307692</v>
@@ -21597,7 +21597,7 @@
         <v>98.96907216494846</v>
       </c>
       <c r="L450" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M450" t="n">
         <v>1</v>
@@ -21644,7 +21644,7 @@
         <v>99.89934574735783</v>
       </c>
       <c r="L451" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M451" t="n">
         <v>0.9995471391308749</v>
@@ -21691,7 +21691,7 @@
         <v>100</v>
       </c>
       <c r="L452" t="n">
-        <v>46.6970150000634</v>
+        <v>46.28761399999348</v>
       </c>
       <c r="M452" t="n">
         <v>1</v>
@@ -21738,7 +21738,7 @@
         <v>99.79665123523557</v>
       </c>
       <c r="L453" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M453" t="n">
         <v>0.9993631998336039</v>
@@ -21785,10 +21785,10 @@
         <v>99.56765706926686</v>
       </c>
       <c r="L454" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M454" t="n">
-        <v>0.9993631998336039</v>
+        <v>0.9978077546850513</v>
       </c>
     </row>
     <row r="455">
@@ -21832,7 +21832,7 @@
         <v>88.88888888888889</v>
       </c>
       <c r="L455" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M455" t="n">
         <v>0.8889183145009416</v>
@@ -21879,7 +21879,7 @@
         <v>100</v>
       </c>
       <c r="L456" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M456" t="n">
         <v>1</v>
@@ -21926,7 +21926,7 @@
         <v>89.8989898989899</v>
       </c>
       <c r="L457" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M457" t="n">
         <v>0.9006364412553517</v>
@@ -21973,7 +21973,7 @@
         <v>99.54499494438828</v>
       </c>
       <c r="L458" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M458" t="n">
         <v>0.9958053466560661</v>
@@ -22020,7 +22020,7 @@
         <v>89.36170212765958</v>
       </c>
       <c r="L459" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M459" t="n">
         <v>0.9519715743723833</v>
@@ -22067,7 +22067,7 @@
         <v>100</v>
       </c>
       <c r="L460" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M460" t="n">
         <v>1</v>
@@ -22114,7 +22114,7 @@
         <v>98.96907216494846</v>
       </c>
       <c r="L461" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M461" t="n">
         <v>0.9898253439793997</v>
@@ -22161,7 +22161,7 @@
         <v>99.35064935064935</v>
       </c>
       <c r="L462" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M462" t="n">
         <v>0.9967076987949852</v>
@@ -22208,7 +22208,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L463" t="n">
-        <v>4.314280000016879</v>
+        <v>4.289823999897635</v>
       </c>
       <c r="M463" t="n">
         <v>0.9865159120985393</v>
@@ -22255,7 +22255,7 @@
         <v>99.1860718171926</v>
       </c>
       <c r="L464" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M464" t="n">
         <v>0.9987465588818266</v>
@@ -22302,10 +22302,10 @@
         <v>98.30138977200473</v>
       </c>
       <c r="L465" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M465" t="n">
-        <v>0.9987465588818266</v>
+        <v>0.9951676626459363</v>
       </c>
     </row>
     <row r="466">
@@ -22349,7 +22349,7 @@
         <v>50</v>
       </c>
       <c r="L466" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M466" t="n">
         <v>0.8889446098721872</v>
@@ -22396,7 +22396,7 @@
         <v>99.8740025199496</v>
       </c>
       <c r="L467" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M467" t="n">
         <v>0.9984133139289911</v>
@@ -22443,7 +22443,7 @@
         <v>88.78504672897196</v>
       </c>
       <c r="L468" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M468" t="n">
         <v>0.9770346553089657</v>
@@ -22490,7 +22490,7 @@
         <v>99.33943089430895</v>
       </c>
       <c r="L469" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M469" t="n">
         <v>0.9995824446612402</v>
@@ -22537,7 +22537,7 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L470" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M470" t="n">
         <v>0.9546934920845256</v>
@@ -22584,7 +22584,7 @@
         <v>83.47826086956522</v>
       </c>
       <c r="L471" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M471" t="n">
         <v>0.8990610230656468</v>
@@ -22631,7 +22631,7 @@
         <v>98</v>
       </c>
       <c r="L472" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M472" t="n">
         <v>1</v>
@@ -22678,7 +22678,7 @@
         <v>96.54669260700389</v>
       </c>
       <c r="L473" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M473" t="n">
         <v>0.9615005729288122</v>
@@ -22725,7 +22725,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L474" t="n">
-        <v>9.348443999897427</v>
+        <v>9.297280999817303</v>
       </c>
       <c r="M474" t="n">
         <v>0.9766469571163572</v>
@@ -22772,7 +22772,7 @@
         <v>99.89191058843875</v>
       </c>
       <c r="L475" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M475" t="n">
         <v>0.9998022660546406</v>
@@ -22819,10 +22819,10 @@
         <v>99.76969138645786</v>
       </c>
       <c r="L476" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M476" t="n">
-        <v>0.9998022660546406</v>
+        <v>0.9991329554899213</v>
       </c>
     </row>
     <row r="477">
@@ -22866,7 +22866,7 @@
         <v>80</v>
       </c>
       <c r="L477" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M477" t="n">
         <v>0.8691652280811885</v>
@@ -22913,7 +22913,7 @@
         <v>99.87379049221707</v>
       </c>
       <c r="L478" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M478" t="n">
         <v>0.9987962249614794</v>
@@ -22960,7 +22960,7 @@
         <v>92.14659685863874</v>
       </c>
       <c r="L479" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M479" t="n">
         <v>0.9455215108192355</v>
@@ -23007,7 +23007,7 @@
         <v>99.6468213925328</v>
       </c>
       <c r="L480" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M480" t="n">
         <v>0.9982756679026844</v>
@@ -23054,7 +23054,7 @@
         <v>89.79591836734693</v>
       </c>
       <c r="L481" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M481" t="n">
         <v>0.9583333333333333</v>
@@ -23101,7 +23101,7 @@
         <v>96.07843137254902</v>
       </c>
       <c r="L482" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M482" t="n">
         <v>0.9691188240833056</v>
@@ -23148,7 +23148,7 @@
         <v>100</v>
       </c>
       <c r="L483" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M483" t="n">
         <v>1</v>
@@ -23195,7 +23195,7 @@
         <v>99.92460417190249</v>
       </c>
       <c r="L484" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M484" t="n">
         <v>0.9992755304449149</v>
@@ -23242,7 +23242,7 @@
         <v>95.99999999999999</v>
       </c>
       <c r="L485" t="n">
-        <v>288.2558230003269</v>
+        <v>286.380158999691</v>
       </c>
       <c r="M485" t="n">
         <v>0.9726563911266427</v>
@@ -23289,7 +23289,7 @@
         <v>99.96112143073135</v>
       </c>
       <c r="L486" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M486" t="n">
         <v>0.9999931173729576</v>
@@ -23336,10 +23336,10 @@
         <v>99.91693585602215</v>
       </c>
       <c r="L487" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M487" t="n">
-        <v>0.9999931173729576</v>
+        <v>0.9999703564836502</v>
       </c>
     </row>
     <row r="488">
@@ -23383,7 +23383,7 @@
         <v>94.11764705882352</v>
       </c>
       <c r="L488" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M488" t="n">
         <v>0.8889446098721872</v>
@@ -23430,7 +23430,7 @@
         <v>99.95796553173602</v>
       </c>
       <c r="L489" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M489" t="n">
         <v>1</v>
@@ -23477,7 +23477,7 @@
         <v>95.78947368421052</v>
       </c>
       <c r="L490" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M490" t="n">
         <v>0.9973146169119282</v>
@@ -23524,7 +23524,7 @@
         <v>99.72201162496842</v>
       </c>
       <c r="L491" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M491" t="n">
         <v>0.9999857745908737</v>
@@ -23571,7 +23571,7 @@
         <v>97.67441860465117</v>
       </c>
       <c r="L492" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M492" t="n">
         <v>0.9999999999999998</v>
@@ -23618,7 +23618,7 @@
         <v>100</v>
       </c>
       <c r="L493" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M493" t="n">
         <v>1</v>
@@ -23665,7 +23665,7 @@
         <v>100</v>
       </c>
       <c r="L494" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M494" t="n">
         <v>1</v>
@@ -23712,7 +23712,7 @@
         <v>99.97485541865728</v>
       </c>
       <c r="L495" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M495" t="n">
         <v>0.9999935110964357</v>
@@ -23759,7 +23759,7 @@
         <v>98.63013698630138</v>
       </c>
       <c r="L496" t="n">
-        <v>348.9144449999912</v>
+        <v>346.5513390001433</v>
       </c>
       <c r="M496" t="n">
         <v>0.9992791511283687</v>
@@ -23806,7 +23806,7 @@
         <v>99.86591115532678</v>
       </c>
       <c r="L497" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M497" t="n">
         <v>0.9998576815654378</v>
@@ -23832,31 +23832,31 @@
         <v>5417</v>
       </c>
       <c r="E498" t="n">
-        <v>11544</v>
+        <v>11542</v>
       </c>
       <c r="F498" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G498" t="n">
         <v>4</v>
       </c>
       <c r="H498" t="n">
-        <v>99.81756120527307</v>
+        <v>99.80579096045197</v>
       </c>
       <c r="I498" t="n">
-        <v>99.50404114621601</v>
+        <v>99.46749908189497</v>
       </c>
       <c r="J498" t="n">
         <v>99.92621287585315</v>
       </c>
       <c r="K498" t="n">
-        <v>99.71468016566958</v>
+        <v>99.6963283334867</v>
       </c>
       <c r="L498" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M498" t="n">
-        <v>0.9998576815654378</v>
+        <v>0.9994516496756897</v>
       </c>
     </row>
     <row r="499">
@@ -23900,7 +23900,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L499" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M499" t="n">
         <v>1</v>
@@ -23947,7 +23947,7 @@
         <v>100</v>
       </c>
       <c r="L500" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M500" t="n">
         <v>1</v>
@@ -23994,7 +23994,7 @@
         <v>90.625</v>
       </c>
       <c r="L501" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M501" t="n">
         <v>0.9801627899984472</v>
@@ -24041,7 +24041,7 @@
         <v>99.62054136099165</v>
       </c>
       <c r="L502" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M502" t="n">
         <v>0.9999517245096179</v>
@@ -24088,7 +24088,7 @@
         <v>95.45454545454545</v>
       </c>
       <c r="L503" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M503" t="n">
         <v>0.9979787998562702</v>
@@ -24135,7 +24135,7 @@
         <v>100</v>
       </c>
       <c r="L504" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M504" t="n">
         <v>1</v>
@@ -24182,7 +24182,7 @@
         <v>100</v>
       </c>
       <c r="L505" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M505" t="n">
         <v>1</v>
@@ -24229,7 +24229,7 @@
         <v>99.37546839870099</v>
       </c>
       <c r="L506" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M506" t="n">
         <v>0.9967606546228175</v>
@@ -24276,7 +24276,7 @@
         <v>100</v>
       </c>
       <c r="L507" t="n">
-        <v>51.48818500038033</v>
+        <v>51.55858799980706</v>
       </c>
       <c r="M507" t="n">
         <v>1</v>
@@ -24323,7 +24323,7 @@
         <v>99.91353968528445</v>
       </c>
       <c r="L508" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M508" t="n">
         <v>0.9995769677567399</v>
@@ -24370,10 +24370,10 @@
         <v>99.81570217471433</v>
       </c>
       <c r="L509" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M509" t="n">
-        <v>0.9995769677567399</v>
+        <v>0.9983049973853863</v>
       </c>
     </row>
     <row r="510">
@@ -24417,7 +24417,7 @@
         <v>94.73684210526316</v>
       </c>
       <c r="L510" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M510" t="n">
         <v>0.95</v>
@@ -24464,7 +24464,7 @@
         <v>100</v>
       </c>
       <c r="L511" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M511" t="n">
         <v>1</v>
@@ -24511,7 +24511,7 @@
         <v>93.06930693069307</v>
       </c>
       <c r="L512" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M512" t="n">
         <v>0.9371464628732377</v>
@@ -24558,7 +24558,7 @@
         <v>99.67113584619275</v>
       </c>
       <c r="L513" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M513" t="n">
         <v>0.9974478080496318</v>
@@ -24605,7 +24605,7 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L514" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M514" t="n">
         <v>0.889386914465212</v>
@@ -24652,7 +24652,7 @@
         <v>94.11764705882352</v>
       </c>
       <c r="L515" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M515" t="n">
         <v>0.941597312762567</v>
@@ -24699,7 +24699,7 @@
         <v>100</v>
       </c>
       <c r="L516" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M516" t="n">
         <v>1</v>
@@ -24746,7 +24746,7 @@
         <v>99.97486805730082</v>
       </c>
       <c r="L517" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M517" t="n">
         <v>0.9997781693306457</v>
@@ -24793,7 +24793,7 @@
         <v>100</v>
       </c>
       <c r="L518" t="n">
-        <v>4.335547999744449</v>
+        <v>4.25426099991455</v>
       </c>
       <c r="M518" t="n">
         <v>1</v>
@@ -24840,7 +24840,7 @@
         <v>99.27356561833921</v>
       </c>
       <c r="L519" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M519" t="n">
         <v>0.9991148377495924</v>
@@ -24887,10 +24887,10 @@
         <v>98.48112778535697</v>
       </c>
       <c r="L520" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M520" t="n">
-        <v>0.9991148377495924</v>
+        <v>0.9954253868824589</v>
       </c>
     </row>
     <row r="521">
@@ -24934,7 +24934,7 @@
         <v>72</v>
       </c>
       <c r="L521" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M521" t="n">
         <v>1</v>
@@ -24981,7 +24981,7 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L522" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M522" t="n">
         <v>0.9999563878765415</v>
@@ -25028,7 +25028,7 @@
         <v>91.54228855721392</v>
       </c>
       <c r="L523" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M523" t="n">
         <v>0.984406671871322</v>
@@ -25075,7 +25075,7 @@
         <v>99.59432048681542</v>
       </c>
       <c r="L524" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M524" t="n">
         <v>0.9999817155133208</v>
@@ -25122,7 +25122,7 @@
         <v>88.8888888888889</v>
       </c>
       <c r="L525" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M525" t="n">
         <v>0.9069881812788374</v>
@@ -25169,7 +25169,7 @@
         <v>64.12213740458014</v>
       </c>
       <c r="L526" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M526" t="n">
         <v>0.8177370668237141</v>
@@ -25216,7 +25216,7 @@
         <v>100</v>
       </c>
       <c r="L527" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M527" t="n">
         <v>1</v>
@@ -25263,7 +25263,7 @@
         <v>97.21271393643033</v>
       </c>
       <c r="L528" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M528" t="n">
         <v>0.9646725101647053</v>
@@ -25310,7 +25310,7 @@
         <v>100</v>
       </c>
       <c r="L529" t="n">
-        <v>9.380223000334809</v>
+        <v>10.3040549997786</v>
       </c>
       <c r="M529" t="n">
         <v>0.9999999999999998</v>
@@ -25357,7 +25357,7 @@
         <v>99.78360598978621</v>
       </c>
       <c r="L530" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M530" t="n">
         <v>0.999369977622524</v>
@@ -25404,10 +25404,10 @@
         <v>99.54035668321383</v>
       </c>
       <c r="L531" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M531" t="n">
-        <v>0.999369977622524</v>
+        <v>0.9967120880112005</v>
       </c>
     </row>
     <row r="532">
@@ -25451,7 +25451,7 @@
         <v>81.81818181818181</v>
       </c>
       <c r="L532" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M532" t="n">
         <v>0.9090909090909092</v>
@@ -25498,7 +25498,7 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L533" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M533" t="n">
         <v>0.999608904165459</v>
@@ -25545,7 +25545,7 @@
         <v>88.29787234042553</v>
       </c>
       <c r="L534" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M534" t="n">
         <v>0.9150229309960078</v>
@@ -25592,7 +25592,7 @@
         <v>99.4952044422009</v>
       </c>
       <c r="L535" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M535" t="n">
         <v>0.997020698344052</v>
@@ -25639,7 +25639,7 @@
         <v>84</v>
       </c>
       <c r="L536" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M536" t="n">
         <v>0.8936071382220234</v>
@@ -25686,7 +25686,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L537" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M537" t="n">
         <v>0.9807692307692308</v>
@@ -25733,7 +25733,7 @@
         <v>100</v>
       </c>
       <c r="L538" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M538" t="n">
         <v>1</v>
@@ -25780,7 +25780,7 @@
         <v>99.37546839870099</v>
       </c>
       <c r="L539" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M539" t="n">
         <v>0.9938169174677545</v>
@@ -25827,7 +25827,7 @@
         <v>100</v>
       </c>
       <c r="L540" t="n">
-        <v>355.9739349998381</v>
+        <v>355.4333409997525</v>
       </c>
       <c r="M540" t="n">
         <v>1</v>
@@ -25874,7 +25874,7 @@
         <v>99.85723556132382</v>
       </c>
       <c r="L541" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M541" t="n">
         <v>0.9998371043746881</v>
@@ -25921,10 +25921,10 @@
         <v>99.69638421197902</v>
       </c>
       <c r="L542" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M542" t="n">
-        <v>0.9998371043746881</v>
+        <v>0.9998749181416139</v>
       </c>
     </row>
     <row r="543">
@@ -25968,7 +25968,7 @@
         <v>90</v>
       </c>
       <c r="L543" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M543" t="n">
         <v>1</v>
@@ -26015,7 +26015,7 @@
         <v>99.95793016407237</v>
       </c>
       <c r="L544" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M544" t="n">
         <v>1</v>
@@ -26062,7 +26062,7 @@
         <v>98.42931937172774</v>
       </c>
       <c r="L545" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M545" t="n">
         <v>0.9980407220583505</v>
@@ -26109,7 +26109,7 @@
         <v>99.89888776541962</v>
       </c>
       <c r="L546" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M546" t="n">
         <v>0.999995422610688</v>
@@ -26156,7 +26156,7 @@
         <v>95.23809523809523</v>
       </c>
       <c r="L547" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M547" t="n">
         <v>0.9920873757336208</v>
@@ -26203,7 +26203,7 @@
         <v>98.0392156862745</v>
       </c>
       <c r="L548" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M548" t="n">
         <v>1</v>
@@ -26250,7 +26250,7 @@
         <v>100</v>
       </c>
       <c r="L549" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M549" t="n">
         <v>1</v>
@@ -26297,7 +26297,7 @@
         <v>99.37546839870099</v>
       </c>
       <c r="L550" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M550" t="n">
         <v>0.9995685099737579</v>
@@ -26344,7 +26344,7 @@
         <v>100</v>
       </c>
       <c r="L551" t="n">
-        <v>421.4809730001434</v>
+        <v>421.8478669999968</v>
       </c>
       <c r="M551" t="n">
         <v>0.9999999999999998</v>
